--- a/ground-truths-list/data/02_intermediate/structured_lists_ema.xlsx
+++ b/ground-truths-list/data/02_intermediate/structured_lists_ema.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">['NEOVASCULAR (WET) AGE-RELATED MACULAR DEGENERATION (AMD)', 'VISUAL IMPAIRMENT DUE TO MACULAR OEDEMA SECONDARY TO RETINAL VEIN OCCLUSION (BRANCH RVO OR CENTRAL RVO)', 'VISUAL IMPAIRMENT DUE TO DIABETIC MACULAR OEDEMA (DME)', 'VISUAL IMPAIRMENT DUE TO MYOPIC CHOROIDAL NEOVASCULARISATION (MYOPIC CNV)'] 
+          <t xml:space="preserve">['AGE-RELATED MACULAR DEGENERATION (AMD)', 'RETINAL VEIN OCCLUSION (BRANCH RVO OR CENTRAL RVO)', 'DIABETIC MACULAR OEDEMA (DME)', 'MYOPIC CHOROIDAL NEOVASCULARISATION (MYOPIC CNV)'] 
 </t>
         </is>
       </c>
@@ -512,7 +512,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MALIGNANCY (WITH THE EXCEPTION OF CHRONIC MYELOID LEUKAEMIA AND MYELODYSPLASTIC SYNDROMES) (PREVENTATIVE)', 'SEVERE CONGENITAL, CYCLIC, OR IDIOPATHIC NEUTROPENIA', 'PERSISTENT NEUTROPENIA', 'ADVANCED HIV INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MALIGNANCY (EXCEPT CHRONIC MYELOID LEUKAEMIA AND MYELODYSPLASTIC SYNDROMES) (PREVENTATIVE)', 'SEVERE CONGENITAL, CYCLIC, OR IDIOPATHIC NEUTROPENIA', 'PERSISTENT NEUTROPENIA', 'ADVANCED HIV INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -530,7 +530,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">['VITILIGO (NON-SEGMENTAL WITH FACIAL INVOLVEMENT)'] 
+          <t xml:space="preserve">['VITILIGO'] 
 </t>
         </is>
       </c>
@@ -548,7 +548,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BREAST CANCER (PREVENTATIVE)', 'LUNG CANCER (PREVENTATIVE)', 'OVARIAN CANCER (PREVENTATIVE)', 'COLORECTAL CANCER (PREVENTATIVE)', 'NON-SMALL CELL LUNG CANCER (PREVENTATIVE)', 'SMALL CELL LUNG CANCER (PREVENTATIVE)', 'GASTRIC CANCER (PREVENTATIVE)', 'HEAD AND NECK CANCER (PREVENTATIVE)', 'MULTIPLE MYELOMA (PREVENTATIVE)', 'LYMPHOMA (PREVENTATIVE)', 'ACUTE LYMPHOBLASTIC LEUKEMIA (PREVENTATIVE)', 'ACUTE MYELOID LEUKEMIA (PREVENTATIVE)', 'HODGKIN LYMPHOMA (PREVENTATIVE)', 'NON-HODGKIN LYMPHOMA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['BREAST CANCER (PREVENTATIVE)', 'LUNG CANCER (PREVENTATIVE)', 'NON-SMALL CELL LUNG CANCER (PREVENTATIVE)', 'SMALL CELL LUNG CANCER (PREVENTATIVE)', 'OVARIAN CANCER (PREVENTATIVE)', 'COLORECTAL CANCER (PREVENTATIVE)', 'GASTRIC CANCER (PREVENTATIVE)', 'HEAD AND NECK CANCER (PREVENTATIVE)', 'LYMPHOMA (PREVENTATIVE)', 'MULTIPLE MYELOMA (PREVENTATIVE)', 'ACUTE LYMPHOBLASTIC LEUKEMIA (PREVENTATIVE)', 'ACUTE MYELOID LEUKEMIA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -602,7 +602,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">['AMYOTROPHIC LATERAL SCLEROSIS (ALS) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['AMYOTROPHIC LATERAL SCLEROSIS (ALS)'] 
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SMALL CELL LUNG CANCER (SCLC)', 'OVARIAN CARCINOMA'] 
+          <t xml:space="preserve">['SMALL CELL LUNG CANCER (SCLC)', 'OVARIAN CANCER'] 
 </t>
         </is>
       </c>
@@ -674,7 +674,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ACUTE MYELOID LEUKAEMIA (PREVENTATIVE)', 'ACUTE LYMPHOBLASTIC LEUKAEMIA (PREVENTATIVE)', 'HODGKIN LYMPHOMA (PREVENTATIVE)', 'NON-HODGKIN LYMPHOMA (PREVENTATIVE)', 'MULTIPLE MYELOMA (PREVENTATIVE)', 'BREAST CANCER (PREVENTATIVE)', 'LUNG CANCER (PREVENTATIVE)', 'COLORECTAL CANCER (PREVENTATIVE)', 'OVARIAN CANCER (PREVENTATIVE)', 'GASTRIC CANCER (PREVENTATIVE)', 'HEAD AND NECK CANCER (PREVENTATIVE)', 'BLADDER CANCER (PREVENTATIVE)', 'MELANOMA (PREVENTATIVE)', 'RENAL CANCER (PREVENTATIVE)', 'SARCOMA (PREVENTATIVE)', 'BRAIN CANCER (PREVENTATIVE)', 'TESTICULAR CANCER (PREVENTATIVE)', 'CERVICAL CANCER (PREVENTATIVE)', 'PANCREATIC CANCER (PREVENTATIVE)', 'PROSTATE CANCER (PREVENTATIVE)', 'THYROID CANCER (PREVENTATIVE)'] 
+          <t xml:space="preserve">['BREAST CANCER (PREVENTATIVE)', 'COLORECTAL CANCER (PREVENTATIVE)', 'LUNG CANCER (PREVENTATIVE)', 'LYMPHOMA (PREVENTATIVE)', 'MULTIPLE MYELOMA (PREVENTATIVE)', 'NON-HODGKIN LYMPHOMA (PREVENTATIVE)', 'OVARIAN CANCER (PREVENTATIVE)', 'SMALL CELL LUNG CANCER (PREVENTATIVE)', 'STOMACH CANCER (PREVENTATIVE)', 'ACUTE LYMPHOCYTIC LEUKEMIA (PREVENTATIVE)', 'ACUTE MYELOID LEUKEMIA (PREVENTATIVE)', 'HODGKIN LYMPHOMA (PREVENTATIVE)', 'MYELODYSPLASTIC SYNDROMES (PREVENTATIVE)', 'MULTIPLE MYELOMA (PREVENTATIVE)', 'NON-HODGKIN LYMPHOMA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -781,7 +781,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PULMONARY EXTENSIVELY DRUG RESISTANT (XDR) TUBERCULOSIS (TB)', 'MULTIDRUG-RESISTANT (MDR) TUBERCULOSIS (TB)'] 
+          <t xml:space="preserve">['PULMONARY EXTENSIVELY DRUG RESISTANT TUBERCULOSIS (XDR)', 'TREATMENT-INTOLERANT OR NONRESPONSIVE MULTIDRUG-RESISTANT TUBERCULOSIS (MDR)'] 
 </t>
         </is>
       </c>
@@ -817,7 +817,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PSORIATIC ARTHRITIS', 'PLAQUE PSORIASIS'] 
+          <t xml:space="preserve">['PSORIATIC ARTHRITIS', 'PSORIASIS'] 
 </t>
         </is>
       </c>
@@ -853,7 +853,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ISCHAEMIC STROKE (PREVENTATIVE)', 'PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)', 'ACUTE CORONARY SYNDROME (PREVENTATIVE)', 'UNSTABLE ANGINA (PREVENTATIVE)', 'NON-Q-WAVE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ST-SEGMENT-ELEVATION ACUTE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'TRANSIENT ISCHEMIC ATTACK (TIA) (PREVENTATIVE)', 'MINOR ISCHEMIC STROKE (IS) (PREVENTATIVE)', 'ATRIAL FIBRILLATION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ISCHAEMIC STROKE (PREVENTATIVE)', 'PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)', 'ACUTE CORONARY SYNDROME (PREVENTATIVE)', 'UNSTABLE ANGINA (PREVENTATIVE)', 'NON-Q-WAVE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ST-SEGMENT-ELEVATION ACUTE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'TRANSIENT ISCHEMIC ATTACK (PREVENTATIVE)', 'MINOR ISCHEMIC STROKE (PREVENTATIVE)', 'ATRIAL FIBRILLATION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -907,7 +907,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PRIMARY BILIARY CHOLANGITIS (PRIMARY BILIARY CIRRHOSIS)'] 
+          <t xml:space="preserve">['PRIMARY BILIARY CHOLANGITIS', 'PRIMARY BILIARY CIRRHOSIS'] 
 </t>
         </is>
       </c>
@@ -925,7 +925,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PRIMARY HYPERCHOLESTEROLAEMIA', 'MIXED DYSLIPIDAEMIA', 'ATHEROSCLEROTIC CARDIOVASCULAR DISEASE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PRIMARY HYPERCHOLESTEROLAEMIA (PREVENTATIVE)', 'MIXED DYSLIPIDAEMIA (PREVENTATIVE)', 'ATHEROSCLEROTIC CARDIOVASCULAR DISEASE (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -997,7 +997,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ACUTE MYELOID LEUKAEMIA (AML)'] 
+          <t xml:space="preserve">['ACUTE MYELOID LEUKEMIA (AML)'] 
 </t>
         </is>
       </c>
@@ -1033,8 +1033,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PRIMARY PULMONARY HYPERTENSION (PREVENTATIVE)'] 
-</t>
+          <t>['PRIMARY PULMONARY HYPERTENSION (PREVENTATIVE)']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1087,7 +1086,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">['METASTATIC CARCINOMA OF THE COLON OR RECTUM', 'METASTATIC BREAST CANCER', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NON-SMALL CELL LUNG CANCER', 'ADVANCED AND/OR METASTATIC RENAL CELL CANCER', 'ADVANCED (INTERNATIONAL FEDERATION OF GYNECOLOGY AND OBSTETRICS [FIGO] STAGES III B, III C AND IV) EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'FIRST RECURRENCE OF PLATINUM-SENSITIVE EPITHELIAL OVARIAN, FALLOPIAN TUBE OR PRIMARY PERITONEAL CANCER', 'PLATINUM-RESISTANT RECURRENT EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'PERSISTENT, RECURRENT, OR METASTATIC CARCINOMA OF THE CERVIX'] 
+          <t xml:space="preserve">['METASTATIC CARCINOMA OF THE COLON OR RECTUM', 'METASTATIC BREAST CANCER', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NON-SMALL CELL LUNG CANCER OTHER THAN PREDOMINANTLY SQUAMOUS CELL HISTOLOGY', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NON-SQUAMOUS NON-SMALL CELL LUNG CANCER WITH EPIDERMAL GROWTH FACTOR RECEPTOR (EGFR) ACTIVATING MUTATIONS', 'ADVANCED AND/OR METASTATIC RENAL CELL CANCER', 'ADVANCED (INTERNATIONAL FEDERATION OF GYNECOLOGY AND OBSTETRICS [FIGO] STAGES III B, III C AND IV) EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'FIRST RECURRENCE OF PLATINUM-SENSITIVE EPITHELIAL OVARIAN, FALLOPIAN TUBE OR PRIMARY PERITONEAL CANCER', 'PLATINUM-RESISTANT RECURRENT EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'PERSISTENT, RECURRENT, OR METASTATIC CARCINOMA OF THE CERVIX'] 
 </t>
         </is>
       </c>
@@ -1105,8 +1104,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">['COVID-19 (PREVENTATIVE)'] 
-</t>
+          <t>['COVID-19 (PREVENTATIVE)']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1141,7 +1139,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PROSTATE CANCER (PCA)'] 
+          <t xml:space="preserve">['PROSTATE CANCER (PCA) (DIAGNOSTIC/CONTRAST/RADIOLABEL)'] 
 </t>
         </is>
       </c>
@@ -1267,7 +1265,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">['NON-HODGKIN’S LYMPHOMA (NHL)', 'FOLLICULAR LYMPHOMA', 'DIFFUSE LARGE B CELL NON-HODGKIN’S LYMPHOMA', 'BURKITT LYMPHOMA (BL)/BURKITT LEUKAEMIA (MATURE B-CELL ACUTE LEUKAEMIA) (BAL)', 'BURKITT-LIKE LYMPHOMA (BLL)', 'CHRONIC LYMPHOCYTIC LEUKAEMIA (CLL)', 'RHEUMATOID ARTHRITIS', 'GRANULOMATOSIS WITH POLYANGIITIS (WEGENER’S) (GPA)', 'MICROSCOPIC POLYANGIITIS (MPA)', 'PEMPHIGUS VULGARIS (PV)'] 
+          <t xml:space="preserve">['NON-HODGKIN’S LYMPHOMA (NHL)', 'FOLLICULAR LYMPHOMA', 'DIFFUSE LARGE B CELL NON-HODGKIN’S LYMPHOMA', 'BURKITT LYMPHOMA (BL)', 'BURKITT LEUKAEMIA (MATURE B-CELL ACUTE LEUKAEMIA) (BAL)', 'BURKITT-LIKE LYMPHOMA (BLL)', 'CHRONIC LYMPHOCYTIC LEUKAEMIA (CLL)', 'RHEUMATOID ARTHRITIS', 'GRANULOMATOSIS WITH POLYANGIITIS (WEGENER’S) (GPA)', 'MICROSCOPIC POLYANGIITIS (MPA)', 'PEMPHIGUS VULGARIS (PV)'] 
 </t>
         </is>
       </c>
@@ -1303,7 +1301,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">['NON-HODGKIN’S LYMPHOMA (NHL)', 'FOLLICULAR LYMPHOMA', 'DIFFUSE LARGE B CELL NON-HODGKIN’S LYMPHOMA', 'BURKITT LYMPHOMA (BL)', 'BURKITT LEUKAEMIA (MATURE B-CELL ACUTE LEUKAEMIA) (BAL)', 'BURKITT-LIKE LYMPHOMA (BLL)', 'CHRONIC LYMPHOCYTIC LEUKAEMIA (CLL)', 'RHEUMATOID ARTHRITIS', 'GRANULOMATOSIS WITH POLYANGIITIS (WEGENER’S) (GPA)', 'MICROSCOPIC POLYANGIITIS (MPA)', 'PEMPHIGUS VULGARIS (PV)'] 
+          <t xml:space="preserve">['NON-HODGKIN’S LYMPHOMA (NHL)', 'FOLLICULAR LYMPHOMA', 'DIFFUSE LARGE B CELL NON-HODGKIN’S LYMPHOMA', 'BURKITT LYMPHOMA (BL)', 'BURKITT LEUKAEMIA (BAL)', 'BURKITT-LIKE LYMPHOMA (BLL)', 'CHRONIC LYMPHOCYTIC LEUKAEMIA (CLL)', 'RHEUMATOID ARTHRITIS (PREVENTATIVE)', 'GRANULOMATOSIS WITH POLYANGIITIS (WEGENER’S) (GPA)', 'MICROSCOPIC POLYANGIITIS (MPA)', 'PEMPHIGUS VULGARIS'] 
 </t>
         </is>
       </c>
@@ -1375,7 +1373,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">['INSOMNIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['INSOMNIA', 'AUTISM SPECTRUM DISORDER (ASD) (PREVENTATIVE)', 'SMITH-MAGENIS SYNDROME (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -1447,7 +1445,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">['NON-HODGKIN’S LYMPHOMA (NHL)', 'FOLLICULAR LYMPHOMA', 'DIFFUSE LARGE B-CELL NON-HODGKIN’S LYMPHOMA', 'BURKITT LYMPHOMA (BL)', 'BURKITT LEUKAEMIA (BAL)', 'BURKITT-LIKE LYMPHOMA (BLL)', 'CHRONIC LYMPHOCYTIC LEUKAEMIA (CLL)', 'RHEUMATOID ARTHRITIS', 'GRANULOMATOSIS WITH POLYANGIITIS (GPA)', 'MICROSCOPIC POLYANGIITIS (MPA)', 'PEMPHIGUS VULGARIS (PV)'] 
+          <t xml:space="preserve">['NON-HODGKIN’S LYMPHOMA (NHL)', 'FOLLICULAR LYMPHOMA', 'DIFFUSE LARGE B-CELL NON-HODGKIN’S LYMPHOMA', 'BURKITT LYMPHOMA', 'BURKITT LEUKAEMIA', 'BURKITT-LIKE LYMPHOMA', 'CHRONIC LYMPHOCYTIC LEUKAEMIA (CLL)', 'RHEUMATOID ARTHRITIS', 'GRANULOMATOSIS WITH POLYANGIITIS (WEGENER’S)', 'MICROSCOPIC POLYANGIITIS', 'PEMPHIGUS VULGARIS'] 
 </t>
         </is>
       </c>
@@ -1555,7 +1553,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HIGH-CORONARY-HEART-DISEASE (CHD) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HIGH-CORONARY-HEART-DISEASE (CHD) RISK (PREVENTATIVE)', 'MIXED DYSLIPIDAEMIA', 'HIGH TRIGLYCERIDES', 'LOW HDL-CHOLESTEROL (C)'] 
 </t>
         </is>
       </c>
@@ -1591,7 +1589,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BREAST CANCER (ER POSITIVE, HER2-NEGATIVE, LOCALLY ADVANCED OR METASTATIC WITH AN ACTIVATING ESR1 MUTATION)'] 
+          <t xml:space="preserve">['BREAST CANCER (ER POSITIVE, HER2-NEGATIVE, LOCALLY ADVANCED OR METASTATIC)'] 
 </t>
         </is>
       </c>
@@ -1609,7 +1607,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS (HIV) INFECTION'] 
+          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS (HIV) INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -1627,7 +1625,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PROSTATE CANCER (MCRPC)'] 
+          <t xml:space="preserve">['PROSTATE-SPECIFIC MEMBRANE ANTIGEN (PSMA)-POSITIVE METASTATIC CASTRATION-RESISTANT PROSTATE CANCER (MCRPC)'] 
 </t>
         </is>
       </c>
@@ -1663,7 +1661,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS (HIV) INFECTION'] 
+          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS (HIV) INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -1681,7 +1679,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve">['INVASIVE DISEASE CAUSED BY STREPTOCOCCUS PNEUMONIAE (PREVENTATIVE)', 'PNEUMONIA CAUSED BY STREPTOCOCCUS PNEUMONIAE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['INVASIVE PNEUMOCOCCAL DISEASE (PREVENTATIVE)', 'PNEUMONIA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -1699,7 +1697,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PHILADELPHIA CHROMOSOME POSITIVE CHRONIC MYELOGENOUS LEUKAEMIA (CML) (CHRONIC PHASE)'] 
+          <t xml:space="preserve">['PHILADELPHIA CHROMOSOME POSITIVE CHRONIC MYELOGENOUS LEUKAEMIA (CML) IN THE CHRONIC PHASE'] 
 </t>
         </is>
       </c>
@@ -1735,7 +1733,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve">['LIMBAL STEM CELL DEFICIENCY (PREVENTATIVE)'] 
+          <t xml:space="preserve">['LIMBAL STEM CELL DEFICIENCY (LSCD)'] 
 </t>
         </is>
       </c>
@@ -1753,7 +1751,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MULTIPLE SCLEROSIS (PREVENTATIVE)', 'RELAPSING-REMITTING MULTIPLE SCLEROSIS', 'SECONDARY PROGRESSIVE MULTIPLE SCLEROSIS'] 
+          <t xml:space="preserve">['SINGLE DEMYELINATING EVENT WITH AN ACTIVE INFLAMMATORY PROCESS (PREVENTATIVE)', 'CLINICALLY DEFINITE MULTIPLE SCLEROSIS (PREVENTATIVE)', 'RELAPSING-REMITTING MULTIPLE SCLEROSIS', 'SECONDARY PROGRESSIVE MULTIPLE SCLEROSIS'] 
 </t>
         </is>
       </c>
@@ -1789,7 +1787,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">['VENOUS THROMBOEMBOLIC EVENTS (PREVENTATIVE)', 'STROKE (PREVENTATIVE)', 'SYSTEMIC EMBOLISM (PREVENTATIVE)', 'DEEP VEIN THROMBOSIS', 'PULMONARY EMBOLISM', 'RECURRENT DVT (PREVENTATIVE)', 'RECURRENT PE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['VENOUS THROMBOEMBOLIC EVENTS (PREVENTATIVE)', 'STROKE (PREVENTATIVE)', 'SYSTEMIC EMBOLISM (PREVENTATIVE)', 'DEEP VEIN THROMBOSIS', 'PULMONARY EMBOLISM', 'RECURRENT DEEP VEIN THROMBOSIS (PREVENTATIVE)', 'RECURRENT PULMONARY EMBOLISM (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -1825,7 +1823,8 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>['EBOLA VIRUS DISEASE (PREVENTATIVE)']</t>
+          <t xml:space="preserve">['EBOLA VIRUS DISEASE (PREVENTATIVE)'] 
+</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1842,7 +1841,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve">['B-PRECURSOR ACUTE LYMPHOBLASTIC LEUKAEMIA (ALL) (RELAPSED OR REFRACTORY)', 'B-PRECURSOR ACUTE LYMPHOBLASTIC LEUKAEMIA (ALL) (PHILADELPHIA CHROMOSOME POSITIVE)', 'B-PRECURSOR ACUTE LYMPHOBLASTIC LEUKAEMIA (ALL) (PHILADELPHIA CHROMOSOME NEGATIVE)', 'B-PRECURSOR ACUTE LYMPHOBLASTIC LEUKAEMIA (ALL) (FIRST OR SECOND COMPLETE REMISSION WITH MINIMAL RESIDUAL DISEASE (MRD) GREATER THAN OR EQUAL TO 0.1%)', 'B-PRECURSOR ACUTE LYMPHOBLASTIC LEUKAEMIA (ALL) (REFRACTORY OR IN RELAPSE AFTER RECEIVING AT LEAST TWO PRIOR THERAPIES OR IN RELAPSE AFTER RECEIVING PRIOR ALLOGENEIC HAEMATOPOIETIC STEM CELL TRANSPLANTATION)', 'B-PRECURSOR ACUTE LYMPHOBLASTIC LEUKAEMIA (ALL) (HIGH-RISK FIRST RELAPSED PHILADELPHIA CHROMOSOME NEGATIVE CD19 POSITIVE B-PRECURSOR ALL AS PART OF THE CONSOLIDATION THERAPY)'] 
+          <t xml:space="preserve">['B-PRECURSOR ACUTE LYMPHOBLASTIC LEUKAEMIA (ALL) (RELAPSED OR REFRACTORY)', 'PHILADELPHIA CHROMOSOME POSITIVE B-PRECURSOR ALL (RELAPSED OR REFRACTORY)', 'PHILADELPHIA CHROMOSOME NEGATIVE CD19 POSITIVE B-PRECURSOR ALL (FIRST OR SECOND COMPLETE REMISSION WITH MRD GREATER THAN OR EQUAL TO 0.1%)', 'PHILADELPHIA CHROMOSOME NEGATIVE CD19 POSITIVE B PRECURSOR ALL (REFRACTORY OR IN RELAPSE)', 'PHILADELPHIA CHROMOSOME NEGATIVE CD19 POSITIVE B PRECURSOR ALL (RELAPSE AFTER RECEIVING PRIOR ALLOGENEIC HAEMATOPOIETIC STEM CELL TRANSPLANTATION)', 'PHILADELPHIA CHROMOSOME NEGATIVE CD19 POSITIVE B-PRECURSOR ALL (HIGH-RISK FIRST RELAPSED) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -1860,7 +1859,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ATOPIC DERMATITIS (MODERATE-TO-SEVERE)']
+          <t xml:space="preserve">['ATOPIC DERMATITIS (MODERATE-TO-SEVERE)'] 
 </t>
         </is>
       </c>
@@ -1896,7 +1895,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CYSTIC FIBROSIS'] 
+          <t xml:space="preserve">['CYSTIC FIBROSIS (CF)'] 
 </t>
         </is>
       </c>
@@ -1968,7 +1967,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BREAST CANCER', 'GASTRIC CANCER'] 
+          <t xml:space="preserve">['BREAST CANCER (METASTATIC)', 'BREAST CANCER (EARLY)', 'GASTRIC CANCER (METASTATIC)'] 
 </t>
         </is>
       </c>
@@ -2022,7 +2021,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve">['POSTOPERATIVE PAIN (PREVENTATIVE)'] 
+          <t xml:space="preserve">['SOMATIC POSTOPERATIVE PAIN (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -2040,7 +2039,8 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>['HEART FAILURE (PREVENTATIVE)']</t>
+          <t xml:space="preserve">['HEART FAILURE (PREVENTATIVE)'] 
+</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve">['COVID-19 (PREVENTATIVE)']
+          <t xml:space="preserve">['COVID-19 (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve">['NON-SMALL CELL LUNG CANCER (NSCLC)'] 
+          <t xml:space="preserve">['ADVANCED NON-SMALL CELL LUNG CANCER (NSCLC)'] 
 </t>
         </is>
       </c>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ANEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE (CRF)', 'ANEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE (CRF) (PREVENTATIVE)', 'ANEMIA OF RENAL ORIGIN', 'ANEMIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ANAEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE (CRF) (PREVENTATIVE)', 'ANAEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE (PREVENTATIVE)', 'ANAEMIA OF RENAL ORIGIN (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ANAEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE (CRF) (PREVENTATIVE)', 'ANAEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE IN PAEDIATRIC AND ADULT PATIENTS ON HAEMODIALYSIS (PREVENTATIVE)', 'ANAEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE IN ADULT PATIENTS ON PERITONEAL DIALYSIS (PREVENTATIVE)', 'ANAEMIA OF RENAL ORIGIN (PREVENTATIVE)', 'ANAEMIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ANEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE (CRF) (PREVENTATIVE)', 'ANEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE (CRF) (PREVENTATIVE)', 'ANEMIA OF RENAL ORIGIN (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ALZHEIMER'S DEMENTIA', 'PARKINSON'S DISEASE'] 
+          <t xml:space="preserve">['ALZHEIMER'S DEMENTIA', 'DEMENTIA IN PATIENTS WITH IDIOPATHIC PARKINSON'S DISEASE'] 
 </t>
         </is>
       </c>
@@ -2147,7 +2147,8 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>['INFECTIONS DUE TO AEROBIC GRAM-NEGATIVE ORGANISMS (PREVENTATIVE)']</t>
+          <t xml:space="preserve">['INFECTIONS DUE TO AEROBIC GRAM-NEGATIVE ORGANISMS (PREVENTATIVE)'] 
+</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2200,7 +2201,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HIV-1 INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS 1 (HIV 1) INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -2236,7 +2237,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ACUTE MYELOID LEUKEMIA (AML)'] 
+          <t xml:space="preserve">['ACUTE MYELOID LEUKEMIA (AML) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -2254,7 +2255,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BETA THALASSAEMIA MAJOR (PREVENTATIVE)', 'BETA THALASSAEMIA MAJOR', 'OTHER ANAEMIAS', 'NON-TRANSFUSION-DEPENDENT THALASSAEMIA SYNDROMES (PREVENTATIVE)'] 
+          <t xml:space="preserve">['BETA THALASSAEMIA MAJOR (PREVENTATIVE)', 'OTHER ANAEMIAS', 'NON-TRANSFUSION-DEPENDENT THALASSAEMIA SYNDROMES'] 
 </t>
         </is>
       </c>
@@ -2272,7 +2273,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HAEMOPHILIA A (CONGENITAL FACTOR VIII DEFICIENCY) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HAEMOPHILIA A (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -2308,7 +2309,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve">['THERAPY-RELATED ACUTE MYELOID LEUKEMIA (T-AML)', 'ACUTE MYELOID LEUKEMIA WITH MYELODYSPLASIA-RELATED CHANGES (AML-MRC)'] 
+          <t xml:space="preserve">['THERAPY-RELATED ACUTE MYELOID LEUKAEMIA (T-AML)', 'AML WITH MYELODYSPLASIA-RELATED CHANGES (AML-MRC)'] 
 </t>
         </is>
       </c>
@@ -2326,7 +2327,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BREAST CANCER (HR+, HER2-) (LOCALLY ADVANCED OR METASTATIC)'] 
+          <t xml:space="preserve">['BREAST CANCER (HR-POSITIVE, HER2-NEGATIVE, LOCALLY ADVANCED OR METASTATIC)'] 
 </t>
         </is>
       </c>
@@ -2344,7 +2345,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ACUTE LYMPHOBLASTIC LEUKEMIA (ALL)'] 
+          <t xml:space="preserve">['ACUTE LYMPHOBLASTIC LEUKAEMIA (ALL)'] 
 </t>
         </is>
       </c>
@@ -2380,7 +2381,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RELAPSING REMITTING MULTIPLE SCLEROSIS'] 
+          <t xml:space="preserve">['RELAPSING REMITTING MULTIPLE SCLEROSIS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -2398,7 +2399,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ACTIVE RHEUMATOID ARTHRITIS', 'JUVENILE IDIOPATHIC ARTHRITIS (JIA)', 'PLAQUE PSORIASIS', 'PSORIATIC ARTHRITIS', 'CROHN'S DISEASE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'JUVENILE IDIOPATHIC ARTHRITIS (JIA)', 'PSORIASIS', 'PSORIATIC ARTHRITIS', 'CROHN'S DISEASE'] 
 </t>
         </is>
       </c>
@@ -2416,7 +2417,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC HEPATITIS B (CHB) (PREVENTATIVE)', 'CHRONIC HEPATITIS C (CHC) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['CHRONIC HEPATITIS B (PREVENTATIVE)', 'CHRONIC HEPATITIS C (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -2488,7 +2489,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve">['NON-SMALL CELL LUNG CANCER (NSCLC) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['NON-SMALL CELL LUNG CANCER (NSCLC) (PREVENTATIVE)', 'NON-SMALL CELL LUNG CANCER (NSCLC)', 'NON-SMALL CELL LUNG CANCER (NSCLC)'] 
 </t>
         </is>
       </c>
@@ -2560,7 +2561,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PULMONARY ARTERIAL HYPERTENSION (PRIMARY)', 'PULMONARY HYPERTENSION ASSOCIATED WITH CONNECTIVE TISSUE DISEASE', 'PULMONARY HYPERTENSION ASSOCIATED WITH CONGENITAL HEART DISEASE'] 
+          <t xml:space="preserve">['PULMONARY ARTERIAL HYPERTENSION (PRIMARY)', 'PULMONARY ARTERIAL HYPERTENSION (ASSOCIATED WITH CONNECTIVE TISSUE DISEASE)', 'PULMONARY ARTERIAL HYPERTENSION (ASSOCIATED WITH CONGENITAL HEART DISEASE)'] 
 </t>
         </is>
       </c>
@@ -2650,7 +2651,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PRIMARY HYPERCHOLESTEROLAEMIA (HETEROZYGOUS FAMILIAL AND NON-FAMILIAL)', 'MIXED DYSLIPIDAEMIA'] 
+          <t xml:space="preserve">['PRIMARY HYPERCHOLESTEROLAEMIA (HETEROZYGOUS FAMILIAL AND NON-FAMILIAL)', 'MIXED DYSLIPIDAEMIA', 'HYPERLIPIDEMIA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -2668,7 +2669,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve">['INVASIVE ASPERGILLOSIS', 'FUSARIOSIS', 'CHROMOBLASTOMYCOSIS', 'MYCETOMA', 'COCCIDIOIDOMYCOSIS', 'OROPHARYNGEAL CANDIDIASIS', 'INVASIVE FUNGAL INFECTIONS (PREVENTATIVE)', 'INVASIVE FUNGAL INFECTIONS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['INVASIVE ASPERGILLOSIS', 'FUSARIOSIS', 'CHROMOBLASTOMYCOSIS', 'MYCETOMA', 'COCCIDIOIDOMYCOSIS', 'OROPHARYNGEAL CANDIDIASIS', 'INVASIVE FUNGAL INFECTIONS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -2740,7 +2741,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ACUTE MYELOID LEUKAEMIA (AML)', 'DE NOVO CD33-POSITIVE ACUTE MYELOID LEUKAEMIA (AML)'] 
+          <t xml:space="preserve">['ACUTE MYELOID LEUKAEMIA (AML)'] 
 </t>
         </is>
       </c>
@@ -2776,7 +2777,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'JUVENILE IDIOPATHIC ARTHRITIS', 'PSORIATIC ARTHRITIS', 'ANKYLOSING SPONDYLITIS (AS)', 'NON-RADIOGRAPHIC AXIAL SPONDYLOARTHRITIS', 'PLAQUE PSORIASIS', 'PAEDIATRIC PLAQUE PSORIASIS'] 
+          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'JUVENILE IDIOPATHIC ARTHRITIS', 'PSORIATIC ARTHRITIS', 'ANKYLOSING SPONDYLITIS (AS)', 'NON-RADIOGRAPHIC AXIAL SPONDYLOARTHRITIS', 'PLAQUE PSORIASIS'] 
 </t>
         </is>
       </c>
@@ -2794,7 +2795,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ADVANCED NON-SMALL CELL LUNG CANCER (NSCLC)'] 
+          <t xml:space="preserve">['NON-SMALL CELL LUNG CANCER (NSCLC)'] 
 </t>
         </is>
       </c>
@@ -2830,7 +2831,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARTIAL-ONSET SEIZURES (PREVENTATIVE)', 'SECONDARY GENERALIZATION SEIZURES (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PARTIAL-ONSET SEIZURES (PREVENTATIVE)', 'SECONDARY GENERALISATION SEIZURES (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -2848,7 +2849,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve">['UROTHELIAL CARCINOMA', 'NON-SMALL CELL LUNG CANCER', 'SMALL CELL LUNG CANCER', 'HEPATOCELLULAR CARCINOMA', 'TRIPLE-NEGATIVE BREAST CANCER'] 
+          <t xml:space="preserve">['UROTHELIAL CARCINOMA', 'NON-SMALL CELL LUNG CANCER', 'SMALL CELL LUNG CANCER', 'HEPATOCELLULAR CARCINOMA', 'TRIPLE-NEGATIVE BREAST CANCER']
 </t>
         </is>
       </c>
@@ -2884,7 +2885,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve">['NON-SMALL CELL LUNG CANCER (NSCLC) OF ADENOCARCINOMA TUMOUR HISTOLOGY'] 
+          <t xml:space="preserve">['NON-SMALL CELL LUNG CANCER (NSCLC) OF ADENOCARCINOMA TUMOUR HISTOLOGY (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -2902,8 +2903,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'PSORIATIC ARTHRITIS', 'ANKYLOSING SPONDYLITIS', 'NON RADIOGRAPHIC AXIAL SPONDYLOARTHRITIS', 'ULCERATIVE COLITIS', 'POLYARTICULAR JUVENILE IDIOPATHIC ARTHRITIS'] 
-</t>
+          <t>LLM failed to extract indications</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHOLESTATIC PRURITUS', 'ALAGILLE SYNDROME (ALGS)'] 
+          <t xml:space="preserve">['CHOLESTATIC PRURITUS (ALGS)', 'ALAGILLE SYNDROME (ALGS)'] 
 </t>
         </is>
       </c>
@@ -2956,7 +2956,8 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>['OPIOID-INDUCED CONSTIPATION (OIC)']</t>
+          <t xml:space="preserve">['OPIOID-INDUCED CONSTIPATION (OIC)'] 
+</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3027,7 +3028,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MULTIPLE SCLEROSIS (RMS)', 'MULTIPLE SCLEROSIS (PPMS)'] 
+          <t xml:space="preserve">['MULTIPLE SCLEROSIS (RMS) (PREVENTATIVE)', 'MULTIPLE SCLEROSIS (PPMS) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -3063,7 +3064,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BENIGN PROSTATIC HYPERPLASIA (BPH)'] 
+          <t xml:space="preserve">['BENIGN PROSTATIC HYPERPLASIA (BPH) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -3099,7 +3100,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PLAQUE PSORIASIS', 'PSORIATIC ARTHRITIS', 'CROHN\'S DISEASE'] 
+          <t xml:space="preserve">['PLAQUE PSORIASIS', 'PSORIATIC ARTHRITIS', 'CROHN'S DISEASE'] 
 </t>
         </is>
       </c>
@@ -3117,7 +3118,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve">['METASTATIC CARCINOMA OF THE COLON', 'METASTATIC CARCINOMA OF THE RECTUM', 'METASTATIC BREAST CANCER', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NON-SMALL CELL LUNG CANCER (OTHER THAN PREDOMINANTLY SQUAMOUS CELL HISTOLOGY)', 'ADVANCED AND/OR METASTATIC RENAL CELL CANCER', 'PERSISTENT, RECURRENT, OR METASTATIC CARCINOMA OF THE CERVIX'] 
+          <t xml:space="preserve">['METASTATIC CARCINOMA OF THE COLON', 'METASTATIC CARCINOMA OF THE RECTUM', 'METASTATIC BREAST CANCER', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NON-SMALL CELL LUNG CANCER', 'RENAL CELL CANCER', 'PERSISTENT, RECURRENT, OR METASTATIC CARCINOMA OF THE CERVIX'] 
 </t>
         </is>
       </c>
@@ -3135,7 +3136,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t xml:space="preserve">['NEUTROPENIA (PREVENTATIVE)', 'FEBRILE NEUTROPENIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['NEUTROPENIA (PREVENTATIVE)', 'FEBRILE NEUTROPENIA (PREVENTATIVE)', 'MALIGNANCY (EXCLUDING CHRONIC MYELOID LEUKAEMIA AND MYELODYSPLASTIC SYNDROMES)'] 
 </t>
         </is>
       </c>
@@ -3153,7 +3154,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TYPE-2 DIABETES MELLITUS'] 
+          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS'] 
 </t>
         </is>
       </c>
@@ -3207,7 +3208,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HUTCHINSON-GILFORD PROGERIA SYNDROME', 'PROCESSING-DEFICIENT PROGEROID LAMINOPATHY (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HUTCHINSON-GILFORD PROGERIA SYNDROME (PREVENTATIVE)', 'PROCESSING-DEFICIENT PROGEROID LAMINOPATHY ASSOCIATED WITH EITHER A HETEROZYGOUS LMNA MUTATION WITH PROGERIN-LIKE PROTEIN ACCUMULATION OR A HOMOZYGOUS OR COMPOUND HETEROZYGOUS ZMPSTE24 MUTATION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -3225,7 +3226,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve">['INVASIVE ASPERGILLOSIS', 'CANDIDIASIS (NON-NEUTROPENIC PATIENTS)', 'FLUCONAZOLE-RESISTANT SERIOUS INVASIVE CANDIDA INFECTIONS (INCLUDING C. KRUSEI)', 'SERIOUS FUNGAL INFECTIONS CAUSED BY SCEDOSPORIUM SPP. AND FUSARIUM SPP.', 'INVASIVE FUNGAL INFECTIONS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['INVASIVE ASPERGILLOSIS', 'CANDIDIASIS (NON-NEUTROPENIC)', 'FLUCONAZOLE-RESISTANT INVASIVE CANDIDA INFECTIONS (INCLUDING C. KRUSEI)', 'SERIOUS FUNGAL INFECTIONS CAUSED BY SCEDOSPORIUM SPP. AND FUSARIUM SPP.', 'INVASIVE FUNGAL INFECTIONS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -3279,7 +3280,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ASTHMA (PREVENTATIVE)', 'CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ASTHMA (PREVENTATIVE)', 'COPD (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -3297,7 +3298,8 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>['SEVERE EOSINOPHILIC ASTHMA (PREVENTATIVE)']</t>
+          <t xml:space="preserve">['SEVERE EOSINOPHILIC ASTHMA (PREVENTATIVE)'] 
+</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3314,7 +3316,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PROSTATE CANCER (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PROSTATE CANCER (ADVANCED, HORMONE-DEPENDENT)', 'PROSTATE CANCER (HIGH-RISK, LOCALISED, HORMONE-DEPENDENT)', 'PROSTATE CANCER (LOCALLY ADVANCED, HORMONE-DEPENDENT)'] 
 </t>
         </is>
       </c>
@@ -3350,7 +3352,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARTIAL-ONSET SEIZURES WITH OR WITHOUT SECONDARY GENERALISATION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PARTIAL-ONSET SEIZURES (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -3386,7 +3388,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ADVANCED EPITHELIAL (FIGO STAGES III AND IV) HIGH-GRADE OVARIAN CANCER', 'ADVANCED EPITHELIAL (FIGO STAGES III AND IV) HIGH-GRADE FALLOPIAN TUBE CANCER', 'ADVANCED EPITHELIAL (FIGO STAGES III AND IV) PRIMARY PERITONEAL CANCER', 'PLATINUM SENSITIVE RELAPSED HIGH GRADE SEROUS EPITHELIAL OVARIAN CANCER', 'PLATINUM SENSITIVE RELAPSED HIGH GRADE SEROUS EPITHELIAL FALLOPIAN TUBE CANCER', 'PLATINUM SENSITIVE RELAPSED HIGH GRADE SEROUS EPITHELIAL PRIMARY PERITONEAL CANCER'] 
+          <t xml:space="preserve">['OVARIAN CANCER (ADVANCED EPITHELIAL, FIGO STAGES III AND IV)', 'FALLOPIAN TUBE CANCER (ADVANCED EPITHELIAL, FIGO STAGES III AND IV)', 'PRIMARY PERITONEAL CANCER (ADVANCED EPITHELIAL, FIGO STAGES III AND IV)', 'OVARIAN CANCER (PLATINUM SENSITIVE RELAPSED HIGH GRADE SEROUS EPITHELIAL)', 'FALLOPIAN TUBE CANCER (PLATINUM SENSITIVE RELAPSED HIGH GRADE SEROUS EPITHELIAL)', 'PRIMARY PERITONEAL CANCER (PLATINUM SENSITIVE RELAPSED HIGH GRADE SEROUS EPITHELIAL)'] 
 </t>
         </is>
       </c>
@@ -3494,7 +3496,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'JUVENILE IDIOPATHIC ARTHRITIS', 'ENTHESITIS-RELATED ARTHRITIS', 'ANKYLOSING SPONDYLITIS (AS)', 'AXIAL SPONDYLOARTHRITIS WITHOUT RADIOGRAPHIC EVIDENCE OF AS', 'PSORIATIC ARTHRITIS', 'PSORIASIS', 'PAEDIATRIC PLAQUE PSORIASIS', 'HIDRADENITIS SUPPURATIVA (HS)', 'CROHN’S DISEASE', 'PAEDIATRIC CROHN'S DISEASE', 'ULCERATIVE COLITIS', 'UVEITIS', 'PAEDIATRIC UVEITIS'] 
+          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'JUVENILE IDIOPATHIC ARTHRITIS', 'ENTHESITIS-RELATED ARTHRITIS', 'ANKYLOSING SPONDYLITIS (AS)', 'AXIAL SPONDYLOARTHRITIS WITHOUT RADIOGRAPHIC EVIDENCE OF AS', 'PSORIATIC ARTHRITIS', 'PSORIASIS (PREVENTATIVE)', 'PAEDIATRIC PLAQUE PSORIASIS', 'HIDRADENITIS SUPPURATIVA (HS)', 'CROHN’S DISEASE', 'PAEDIATRIC CROHN'S DISEASE', 'ULCERATIVE COLITIS', 'UVEITIS', 'PAEDIATRIC UVEITIS'] 
 </t>
         </is>
       </c>
@@ -3566,7 +3568,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PRIMARY IMMUNODEFICIENCY SYNDROMES WITH IMPAIRED ANTIBODY PRODUCTION', 'HYPOGAMMAGLOBULINAEMIA AND RECURRENT BACTERIAL INFECTIONS IN PATIENTS WITH CHRONIC LYMPHOCYTIC LUEKAEMIA (PREVENTATIVE)', 'HYPOGAMMAGLOBULINAEMIA AND RECURRENT BACTERIAL INFECTIONS IN PLATEAU-PHASE-MULTIPLE-MYELOMA PATIENTS WHO FAILED TO RESPOND TO PNEUMOCOCCAL IMMUNISATION (PREVENTATIVE)', 'HYPOGAMMAGLOBULINAEMIA IN PATIENTS AFTER ALLOGENIC HAEMATOPOIETIC-STEM-CELL TRANSPLANTATION (HSCT) (PREVENTATIVE)', 'CONGENITAL AIDS WITH RECURRENT BACTERIAL INFECTIONS (PREVENTATIVE)', 'PRIMARY IMMUNE THROMBOCYTOPENIA (ITP)', 'GUILLAIN BARRÉ SYNDROME', 'KAWASAKI DISEASE'] 
+          <t xml:space="preserve">['PRIMARY IMMUNODEFICIENCY SYNDROMES WITH IMPAIRED ANTIBODY PRODUCTION', 'HYPOGAMMAGLOBULINAEMIA AND RECURRENT BACTERIAL INFECTIONS IN PATIENTS WITH CHRONIC LYMPHOCYTIC LUEKAEMIA (PREVENTATIVE)', 'HYPOGAMMAGLOBULINAEMIA AND RECURRENT BACTERIAL INFECTIONS IN PLATEAU-PHASE-MULTIPLE-MYELOMA PATIENTS (PREVENTATIVE)', 'HYPOGAMMAGLOBULINAEMIA IN PATIENTS AFTER ALLOGENIC HAEMATOPOIETIC-STEM-CELL TRANSPLANTATION (HSCT)', 'CONGENITAL AIDS WITH RECURRENT BACTERIAL INFECTIONS (PREVENTATIVE)', 'PRIMARY IMMUNE THROMBOCYTOPENIA (ITP) (PREVENTATIVE)', 'GUILLAIN BARRÉ SYNDROME', 'KAWASAKI DISEASE'] 
 </t>
         </is>
       </c>
@@ -3656,7 +3658,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ESSENTIAL HYPERTENSION'] 
+          <t xml:space="preserve">['ESSENTIAL HYPERTENSION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -3692,7 +3694,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC LYMPHOCYTIC LEUKEMIA (CLL)', 'ACUTE MYELOID LEUKEMIA (AML)'] 
+          <t xml:space="preserve">['CHRONIC LYMPHOCYTIC LEUKAEMIA (CLL)', 'ACUTE MYELOID LEUKAEMIA (AML)'] 
 </t>
         </is>
       </c>
@@ -3764,7 +3766,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SYSTEMIC LUPUS ERYTHEMATOSUS (SLE)'] 
+          <t xml:space="preserve">['SYSTEMIC LUPUS ERYTHEMATOSUS (SLE)', 'LUPUS NEPHRITIS'] 
 </t>
         </is>
       </c>
@@ -3782,8 +3784,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MELANOMA', 'NON SMALL CELL LUNG CARCINOMA (NSCLC)', 'CLASSICAL HODGKIN LYMPHOMA (CHL)', 'UROTHELIAL CARCINOMA', 'HEAD AND NECK SQUAMOUS CELL CARCINOMA (HNSCC)', 'RENAL CELL CARCINOMA (RCC)', 'COLORECTAL CANCER (CRC) (PREVENTATIVE)', 'ENDOMETRIAL CARCINOMA (EC)', 'CERVICAL CANCER', 'GASTRIC OR GASTRO-OESOPHAGEAL JUNCTION (GEJ) ADENOCARCINOMA', 'TRIPLE NEGATIVE BREAST CANCER (TNBC)', 'OESOPHAGEAL CARCINOMA'] 
-</t>
+          <t>LLM failed to extract indications</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3836,7 +3837,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC MYELOGENOUS LEUKAEMIA (CML)', 'ACUTE LYMPHOBLASTIC LEUKAEMIA (ALL)', 'LYMPHOID BLAST CML'] 
+          <t xml:space="preserve">['PHILADELPHIA CHROMOSOME-POSITIVE CHRONIC MYELOGENOUS LEUKAEMIA IN CHRONIC PHASE (PH+ CML CP)', 'PHILADELPHIA CHROMOSOME-POSITIVE ACUTE LYMPHOBLASTIC LEUKAEMIA (PH+ ALL)', 'CHRONIC, ACCELERATED OR BLAST PHASE CML WITH RESISTANCE OR INTOLERANCE TO PRIOR THERAPY INCLUDING IMATINIB MESILATE', 'LYMPHOID BLAST CML WITH RESISTANCE OR INTOLERANCE TO PRIOR THERAPY'] 
 </t>
         </is>
       </c>
@@ -3854,7 +3855,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CASTRATION-RESISTANT PROSTATE CANCER (CRPC)', 'BONE METASTASES'] 
+          <t xml:space="preserve">['CASTRATION-RESISTANT PROSTATE CANCER', 'BONE METASTASES (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -3890,7 +3891,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD)'] 
+          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -3926,7 +3927,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MELANOMA', 'NON-SMALL CELL LUNG CANCER (NSCLC)', 'MALIGNANT PLEURAL MESOTHELIOMA (MPM)', 'RENAL CELL CARCINOMA (RCC)', 'CLASSICAL HODGKIN LYMPHOMA (CHL)', 'SQUAMOUS CELL CANCER OF THE HEAD AND NECK (SCCHN)', 'UROTHELIAL CARCINOMA', 'MISMATCH REPAIR DEFICIENT (DMMR) OR MICROSATELLITE INSTABILITY-HIGH (MSI-H) COLORECTAL CANCER (CRC)', 'OESOPHAGEAL SQUAMOUS CELL CARCINOMA (OSCC)', 'OESOPHAGEAL OR GASTRO-OESOPHAGEAL JUNCTION CANCER (OC OR GEJC) (PREVENTATIVE)', 'GASTRIC, GASTRO‑OESOPHAGEAL JUNCTION (GEJ) OR OESOPHAGEAL ADENOCARCINOMA']
+          <t xml:space="preserve">['MELANOMA', 'NON-SMALL CELL LUNG CANCER (NSCLC)', 'MALIGNANT PLEURAL MESOTHELIOMA (MPM)', 'RENAL CELL CARCINOMA (RCC)', 'CLASSICAL HODGKIN LYMPHOMA (CHL)', 'SQUAMOUS CELL CANCER OF THE HEAD AND NECK (SCCHN)', 'UROTHELIAL CARCINOMA', 'MISMATCH REPAIR DEFICIENT (DMMR) OR MICROSATELLITE INSTABILITY-HIGH (MSI-H) COLORECTAL CANCER (CRC)', 'OESOPHAGEAL SQUAMOUS CELL CARCINOMA (OSCC)', 'OESOPHAGEAL OR GASTRO-OESOPHAGEAL JUNCTION CANCER (OC OR GEJC) (PREVENTATIVE)', 'GASTRIC, GASTRO‑OESOPHAGEAL JUNCTION (GEJ) OR OESOPHAGEAL ADENOCARCINOMA'] 
 </t>
         </is>
       </c>
@@ -3944,7 +3945,8 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD)']</t>
+          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD) (PREVENTATIVE)'] 
+</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4087,7 +4089,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PROCEDURAL SEDATION', 'GENERAL ANESTHESIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PROCEDURAL SEDATION (PREVENTATIVE)', 'GENERAL ANAESTHESIA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -4141,7 +4143,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BREAST CANCER (METASTATIC)', 'BREAST CANCER (LOCALLY ADVANCED)'] 
+          <t xml:space="preserve">['BREAST CANCER (POSTMENOPAUSAL WOMEN AND MEN)', 'BREAST CANCER (HR-POSITIVE, HER2-NEGATIVE, LOCALLY ADVANCED OR METASTATIC)'] 
 </t>
         </is>
       </c>
@@ -4249,7 +4251,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HYPERTENSION', 'CORONARY HEART DISEASE (PREVENTATIVE)', 'STROKE (PREVENTATIVE)', 'PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)', 'TYPE 2 DIABETES MELLITUS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HYPERTENSION', 'ATHEROTHROMBOTIC CARDIOVASCULAR DISEASE (PREVENTATIVE)', 'CORONARY HEART DISEASE (PREVENTATIVE)', 'STROKE (PREVENTATIVE)', 'PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)', 'TYPE 2 DIABETES MELLITUS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -4267,7 +4269,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t xml:space="preserve">['OSTEOPOROSIS (PREVENTATIVE)', 'FRACTURES (PREVENTATIVE)'] 
+          <t xml:space="preserve">['OSTEOPOROSIS (PREVENTATIVE)', 'BONE LOSS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -4303,7 +4305,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MAJOR DEPRESSIVE DISORDER (MDD)'] 
+          <t xml:space="preserve">['MAJOR DEPRESSIVE DISORDER'] 
 </t>
         </is>
       </c>
@@ -4447,7 +4449,8 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>['MULTIPLE SCLEROSIS (MS) (PREVENTATIVE)']</t>
+          <t xml:space="preserve">['MULTIPLE SCLEROSIS (MS) (PREVENTATIVE)'] 
+</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4464,7 +4467,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t xml:space="preserve">['NARCOLEPSY (WITH OR WITHOUT CATAPLEXY)', 'OBSTRUCTIVE SLEEP APNOEA (OSA) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['NARCOLEPSY', 'OBSTRUCTIVE SLEEP APNOEA (OSA)'] 
 </t>
         </is>
       </c>
@@ -4482,7 +4485,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC CANCER PAIN (BREAKTHROUGH PAIN)'] 
+          <t xml:space="preserve">['CHRONIC CANCER PAIN'] 
 </t>
         </is>
       </c>
@@ -4500,7 +4503,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS (HIV-1) INFECTION'] 
+          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS (HIV-1)'] 
 </t>
         </is>
       </c>
@@ -4536,7 +4539,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHOLANGIOCARCINOMA (LOCALLY ADVANCED OR METASTATIC)'] 
+          <t xml:space="preserve">['CHOLANGIOCARCINOMA (ADVANCED OR METASTATIC)'] 
 </t>
         </is>
       </c>
@@ -4626,7 +4629,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MULTIPLE SCLEROSIS (RMS)'] 
+          <t xml:space="preserve">['MULTIPLE SCLEROSIS (RMS) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -4644,7 +4647,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SPINAL MUSCULAR ATROPHY (SMA) TYPE 1', 'SPINAL MUSCULAR ATROPHY (SMA) WITH UP TO 3 COPIES OF THE SMN2 GENE'] 
+          <t xml:space="preserve">['SPINAL MUSCULAR ATROPHY (SMA) TYPE 1 (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -4680,7 +4683,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t xml:space="preserve">['LEPTIN DEFICIENCY (PREVENTATIVE)']
+          <t xml:space="preserve">['LEPTIN DEFICIENCY (PREVENTATIVE)', 'LIPODYSTROPHY (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -4752,7 +4755,8 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>['ASTHMA (PREVENTATIVE)']</t>
+          <t xml:space="preserve">['ASTHMA (PREVENTATIVE)'] 
+</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -4823,7 +4827,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ASTHMA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ASTHMA (PREVENTATIVE)']
 </t>
         </is>
       </c>
@@ -4859,7 +4863,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t xml:space="preserve">['NEOVASCULAR (WET) AGE-RELATED MACULAR DEGENERATION (AMD)', 'DIABETIC MACULAR OEDEMA (DME)', 'PROLIFERATIVE DIABETIC RETINOPATHY (PDR)', 'MACULAR OEDEMA SECONDARY TO RETINAL VEIN OCCLUSION (BRANCH RVO OR CENTRAL RVO)', 'CHOROIDAL NEOVASCULARISATION (CNV)'] 
+          <t xml:space="preserve">['NEOVASCULAR (WET) AGE-RELATED MACULAR DEGENERATION (AMD)', 'VISUAL IMPAIRMENT DUE TO DIABETIC MACULAR OEDEMA (DME)', 'PROLIFERATIVE DIABETIC RETINOPATHY (PDR)', 'VISUAL IMPAIRMENT DUE TO MACULAR OEDEMA SECONDARY TO RETINAL VEIN OCCLUSION (BRANCH RVO OR CENTRAL RVO)', 'VISUAL IMPAIRMENT DUE TO CHOROIDAL NEOVASCULARISATION (CNV)'] 
 </t>
         </is>
       </c>
@@ -4913,7 +4917,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HIV-1 INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS TYPE 1 (HIV-1) INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -4949,7 +4953,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARTIAL-ONSET SEIZURES (WITH OR WITHOUT SECONDARY GENERALIZATION) (PREVENTATIVE)', 'PRIMARY GENERALIZED TONIC-CLONIC SEIZURES (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PARTIAL-ONSET SEIZURES WITH OR WITHOUT SECONDARY GENERALIZATION (PREVENTATIVE)', 'PRIMARY GENERALIZED TONIC-CLONIC SEIZURES (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -5039,7 +5043,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t xml:space="preserve">['VENOUS THROMBOEMBOLISM (VTE) (PREVENTATIVE)', 'DEEP VEIN THROMBOSIS (DVT)', 'PULMONARY EMBOLISM (PE)', 'STROKE (PREVENTATIVE)', 'SYSTEMIC EMBOLISM (PREVENTATIVE)', 'ATHEROTHROMBOTIC EVENTS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['VENOUS THROMBOEMBOLISM (VTE) (PREVENTATIVE)', 'DEEP VEIN THROMBOSIS (DVT)', 'PULMONARY EMBOLISM (PE)', 'RECURRENT DVT (PREVENTATIVE)', 'RECURRENT PE (PREVENTATIVE)', 'STROKE (PREVENTATIVE)', 'SYSTEMIC EMBOLISM (PREVENTATIVE)', 'ATHEROTHROMBOTIC EVENTS (PREVENTATIVE)', 'CORONARY ARTERY DISEASE (CAD) (PREVENTATIVE)', 'SYMPTOMATIC PERIPHERAL ARTERY DISEASE (PAD) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -5057,7 +5061,8 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>['MEDULLARY THYROID CARCINOMA']</t>
+          <t xml:space="preserve">['MEDULLARY THYROID CARCINOMA'] 
+</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -5092,7 +5097,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t xml:space="preserve">['COMPLEX PERIANAL FISTULAS', 'CROHN’S DISEASE (NON-ACTIVE/MILDLY ACTIVE LUMINAL)'] 
+          <t xml:space="preserve">['COMPLEX PERIANAL FISTULAS', 'CROHN’S DISEASE (MILDLY ACTIVE)'] 
 </t>
         </is>
       </c>
@@ -5128,7 +5133,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RESPIRATORY SYNCYTIAL VIRUS DISEASE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['RESPIRATORY SYNCYTIAL VIRUS (RSV) DISEASE (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -5164,7 +5169,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC COUGH (REFRACTORY)', 'CHRONIC COUGH (UNEXPLAINED)'] 
+          <t xml:space="preserve">['REFRACTORY CHRONIC COUGH', 'UNEXPLAINED CHRONIC COUGH'] 
 </t>
         </is>
       </c>
@@ -5236,7 +5241,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t xml:space="preserve">['OPIOID USE DISORDER'] 
+          <t xml:space="preserve">['OPIOID USE DISORDER (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -5272,7 +5277,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TRANSFUSION-DEPENDENT ANAEMIA DUE TO VERY LOW, LOW AND INTERMEDIATE-RISK MYELODYSPLASTIC SYNDROMES (MDS) WITH RING SIDEROBLASTS', 'ANAEMIA ASSOCIATED WITH TRANSFUSION DEPENDENT AND NON TRANSFUSION DEPENDENT BETA THALASSAEMIA'] 
+          <t xml:space="preserve">['TRANSFUSION-DEPENDENT ANAEMIA DUE TO VERY LOW, LOW AND INTERMEDIATE-RISK MYELODYSPLASTIC SYNDROMES (MDS) WITH RING SIDEROBLASTS', 'ANAEMIA ASSOCIATED WITH TRANSFUSION DEPENDENT BETA THALASSAEMIA', 'ANAEMIA ASSOCIATED WITH NON TRANSFUSION DEPENDENT BETA THALASSAEMIA'] 
 </t>
         </is>
       </c>
@@ -5290,7 +5295,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SEVERE ASTHMA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['SEVERE ASTHMA (PREVENTATIVE)']
 </t>
         </is>
       </c>
@@ -5362,7 +5367,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ANOVULATION (INCLUDING POLYCYSTIC OVARIAN DISEASE, PCOD) (PREVENTATIVE)', 'LH AND FSH DEFICIENCY (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ANOVULATION', 'POLYCYSTIC OVARIAN DISEASE (PCOD)', 'SEVERE LH AND FSH DEFICIENCY (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -5398,7 +5403,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MUCOPOLYSACCHARIDOSIS I (MPS I; ALPHA-L-IDURONIDASE DEFICIENCY) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MUCOPOLYSACCHARIDOSIS I (MPS I; ALPHA-L-IDURONIDASE DEFICIENCY)'] 
 </t>
         </is>
       </c>
@@ -5452,7 +5457,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t xml:space="preserve">['OBESITY', 'DYSGLYCAEMIA (PREVENTATIVE)', 'TYPE 2 DIABETES MELLITUS', 'HYPERTENSION', 'DYSLIPIDAEMIA', 'OBSTRUCTIVE SLEEP APNOEA'] 
+          <t xml:space="preserve">['OBESITY (PREVENTATIVE)', 'DYSGLYCAEMIA (PRE-DIABETES OR TYPE 2 DIABETES MELLITUS)', 'HYPERTENSION', 'DYSLIPIDAEMIA', 'OBSTRUCTIVE SLEEP APNOEA'] 
 </t>
         </is>
       </c>
@@ -5524,7 +5529,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC PULMONARY INFECTIONS DUE TO PSEUDOMONAS AERUGINOSA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['CHRONIC PULMONARY INFECTIONS DUE TO PSEUDOMONAS AERUGINOSA (PREVENTATIVE)', 'CYSTIC FIBROSIS'] 
 </t>
         </is>
       </c>
@@ -5542,7 +5547,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t xml:space="preserve">['POSTMENOPAUSAL OSTEOPOROSIS (PREVENTATIVE)', 'VERTEBRAL FRACTURES (PREVENTATIVE)', 'HIP FRACTURES (PREVENTATIVE)'] 
+          <t xml:space="preserve">['POSTMENOPAUSAL OSTEOPOROSIS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -5578,7 +5583,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MIXED DYSLIPIDAEMIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MIXED DYSLIPIDEMIA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -5596,7 +5601,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MALIGNANCY (EXCLUDING CHRONIC MYELOID LEUKAEMIA AND MYELODYSPLASTIC SYNDROMES) (PREVENTATIVE)', 'SEVERE CONGENITAL, CYCLIC, OR IDIOPATHIC NEUTROPENIA', 'ADVANCED HIV INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MALIGNANCY (WITH THE EXCEPTION OF CHRONIC MYELOID LEUKAEMIA AND MYELODYSPLASTIC SYNDROMES) (PREVENTATIVE)', 'MYELOABLATIVE THERAPY FOLLOWED BY BONE-MARROW TRANSPLANTATION (PREVENTATIVE)', 'SEVERE CONGENITAL, CYCLIC, OR IDIOPATHIC NEUTROPENIA', 'ADVANCED HIV INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -5758,7 +5763,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RHEUMATOID ARTHRITIS (RA)', 'SYSTEMIC JUVENILE IDIOPATHIC ARTHRITIS (SJIA)', 'JUVENILE IDIOPATHIC POLYARTHRITIS (PJIA)', 'CORONAVIRUS DISEASE 2019 (COVID-19)', 'GIANT CELL ARTERITIS (GCA)', 'CYTOKINE RELEASE SYNDROME (CRS) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['RHEUMATOID ARTHRITIS (RA)', 'JUVENILE IDIOPATHIC ARTHRITIS (SJIA)', 'JUVENILE IDIOPATHIC POLYARTHRITIS (PJIA)', 'CORONAVIRUS DISEASE 2019 (COVID-19)', 'CYTOKINE RELEASE SYNDROME (CRS)', 'GIANT CELL ARTERITIS (GCA)'] 
 </t>
         </is>
       </c>
@@ -5830,7 +5835,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ESSENTIAL HYPERTENSION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ESSENTIAL HYPERTENSION'] 
 </t>
         </is>
       </c>
@@ -5902,7 +5907,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC MYELOID LEUKAEMIA (CML)', 'PHILADELPHIA CHROMOSOME POSITIVE ACUTE LYMPHOBLASTIC LEUKAEMIA (PH+ ALL)', 'MYELODYSPLASTIC/MYELOPROLIFERATIVE DISEASES (MDS/MPD)', 'HYPEREOSINOPHILIC SYNDROME (HES)', 'CHRONIC EOSINOPHILIC LEUKAEMIA (CEL)', 'MALIGNANT GASTROINTESTINAL STROMAL TUMOURS (GIST) (PREVENTATIVE)', 'DERMATOFIBROSARCOMA PROTUBERANS (DFSP)'] 
+          <t xml:space="preserve">['CHRONIC MYELOID LEUKEMIA (CML)', 'PHILADELPHIA CHROMOSOME POSITIVE ACUTE LYMPHOBLASTIC LEUKEMIA (PH+ ALL)', 'MYELODYSPLASTIC/MYELOPROLIFERATIVE DISEASES (MDS/MPD)', 'HYPEREOSINOPHILIC SYNDROME (HES)', 'CHRONIC EOSINOPHILIC LEUKEMIA (CEL)', 'MALIGNANT GASTROINTESTINAL STROMAL TUMOURS (GIST)', 'DERMATOFIBROSARCOMA PROTUBERANS (DFSP)'] 
 </t>
         </is>
       </c>
@@ -5956,7 +5961,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS'] 
+          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -6028,7 +6033,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ANAEMIA (CHRONIC RENAL FAILURE)', 'ANAEMIA (CANCER)'] 
+          <t xml:space="preserve">['ANEMIA (ASSOCIATED WITH CHRONIC RENAL FAILURE)', 'ANEMIA (ASSOCIATED WITH CANCER)'] 
 </t>
         </is>
       </c>
@@ -6046,7 +6051,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ESSENTIAL HYPERTENSION'] 
+          <t xml:space="preserve">['ESSENTIAL HYPERTENSION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -6064,7 +6069,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ANEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE (PREVENTATIVE)', 'ANEMIA IN ADULT CANCER PATIENTS WITH NON-MYELOID MALIGNANCIES'] 
+          <t xml:space="preserve">['CHRONIC RENAL FAILURE (ANEMIA)', 'CANCER (ANEMIA)'] 
 </t>
         </is>
       </c>
@@ -6136,7 +6141,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC HEPATITIS C VIRUS (HCV) INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['CHRONIC HEPATITIS C VIRUS (HCV) INFECTION'] 
 </t>
         </is>
       </c>
@@ -6154,7 +6159,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC HEPATITIS C (CHC)'] 
+          <t xml:space="preserve">['CHRONIC HEPATITIS C (CHC)']
 </t>
         </is>
       </c>
@@ -6190,7 +6195,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PAROXYSMAL NOCTURNAL HAEMOGLOBINURIA (PNH)', 'ATYPICAL HAEMOLYTIC UREMIC SYNDROME (AHUS)', 'GENERALIZED MYASTHENIA GRAVIS (GMG)', 'NEUROMYELITIS OPTICA SPECTRUM DISORDER (NMOSD)']
+          <t xml:space="preserve">['PAROXYSMAL NOCTURNAL HAEMOGLOBINURIA (PNH)', 'ATYPICAL HAEMOLYTIC UREMIC SYNDROME (AHUS)', 'GENERALIZED MYASTHENIA GRAVIS (GMG)', 'NEUROMYELITIS OPTICA SPECTRUM DISORDER (NMOSD)'] 
 </t>
         </is>
       </c>
@@ -6244,7 +6249,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD)'] 
+          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -6280,7 +6285,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t xml:space="preserve">['METASTATIC HORMONE SENSITIVE PROSTATE CANCER (MHSPC) (PREVENTATIVE)', 'METASTATIC CASTRATION RESISTANT PROSTATE CANCER (MCRPC) (PREVENTATIVE)', 'METASTATIC CASTRATION RESISTANT PROSTATE CANCER (MCRPC) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PROSTATE CANCER (PREVENTATIVE)', 'METASTATIC HORMONE SENSITIVE PROSTATE CANCER (MHSPC)', 'METASTATIC CASTRATION RESISTANT PROSTATE CANCER (MCRPC)'] 
 </t>
         </is>
       </c>
@@ -6370,7 +6375,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t xml:space="preserve">['NEONATAL DIABETES MELLITUS (PREVENTATIVE)', 'TRANSIENT NEONATAL DIABETES MELLITUS'] 
+          <t xml:space="preserve">['NEONATAL DIABETES MELLITUS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -6388,7 +6393,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t xml:space="preserve">['3Β-HYDROXY-Δ5-C27-STEROID OXIDOREDUCTASE DEFICIENCY', 'Δ4-3-OXOSTEROID-5Β-REDUCTASE DEFICIENCY'] 
+          <t xml:space="preserve">['3Β-HYDROXY-Δ5-C27-STEROID OXIDOREDUCTASE DEFICIENCY (PREVENTATIVE)', 'Δ4-3-OXOSTEROID-5Β-REDUCTASE DEFICIENCY (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -6424,7 +6429,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ALZHEIMER'S DEMENTIA', 'PARKINSON'S DISEASE'] 
+          <t xml:space="preserve">['ALZHEIMER\'S DEMENTIA', 'PARKINSON\'S DISEASE'] 
 </t>
         </is>
       </c>
@@ -6442,7 +6447,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MANTLE CELL LYMPHOMA (MCL)', 'CHRONIC LYMPHOCYTIC LEUKAEMIA (CLL)', 'WALDENSTRÖM’S MACROGLOBULINAEMIA (WM)'] 
+          <t xml:space="preserve">['MANTLE CELL LYMPHOMA (MCL)', 'CHRONIC LYMPHOCYTIC LEUKEMIA (CLL)', 'WALDENSTRÖM’S MACROGLOBULINAEMIA (WM)'] 
 </t>
         </is>
       </c>
@@ -6478,7 +6483,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SPINAL MUSCULAR ATROPHY (SMA) TYPE 1', 'SPINAL MUSCULAR ATROPHY (SMA) TYPE 2', 'SPINAL MUSCULAR ATROPHY (SMA) TYPE 3'] 
+          <t xml:space="preserve">['5Q SPINAL MUSCULAR ATROPHY (SMA) TYPE 1', '5Q SPINAL MUSCULAR ATROPHY (SMA) TYPE 2', '5Q SPINAL MUSCULAR ATROPHY (SMA) TYPE 3'] 
 </t>
         </is>
       </c>
@@ -6586,7 +6591,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t xml:space="preserve">['LATE-ONSET POMPE DISEASE (ACID Α- GLUCOSIDASE [GAA] DEFICIENCY)'] 
+          <t xml:space="preserve">['POMPE DISEASE (ACID Α- GLUCOSIDASE [GAA] DEFICIENCY)'] 
 </t>
         </is>
       </c>
@@ -6766,7 +6771,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SOLID TUMORS WITH NEUROTROPHIC TYROSINE RECEPTOR KINASE (NTRK) GENE FUSION'] 
+          <t xml:space="preserve">['SOLID TUMOURS WITH A NEUROTROPHIC TYROSINE RECEPTOR KINASE (NTRK) GENE FUSION'] 
 </t>
         </is>
       </c>
@@ -6946,7 +6951,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'JUVENILE IDIOPATHIC ARTHRITIS', 'ENTHESITIS-RELATED ARTHRITIS', 'ANKYLOSING SPONDYLITIS (AS)', 'AXIAL SPONDYLOARTHRITIS WITHOUT RADIOGRAPHIC EVIDENCE OF AS', 'PSORIATIC ARTHRITIS', 'PSORIASIS', 'PAEDIATRIC PLAQUE PSORIASIS', 'HIDRADENITIS SUPPURATIVA (HS)', 'CROHN’S DISEASE', 'PAEDIATRIC CROHN'S DISEASE', 'PAEDIATRIC ULCERATIVE COLITIS', 'ULCERATIVE COLITIS', 'UVEITIS', 'PAEDIATRIC UVEITIS'] 
+          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'JUVENILE IDIOPATHIC ARTHRITIS', 'ENTHESITIS-RELATED ARTHRITIS', 'ANKYLOSING SPONDYLITIS (AS)', 'AXIAL SPONDYLOARTHRITIS WITHOUT RADIOGRAPHIC EVIDENCE OF AS', 'PSORIATIC ARTHRITIS', 'PSORIASIS (PREVENTATIVE)', 'HIDRADENITIS SUPPURATIVA (HS)', 'CROHN’S DISEASE', 'ULCERATIVE COLITIS', 'UVEITIS', 'PAEDIATRIC UVEITIS'] 
 </t>
         </is>
       </c>
@@ -6964,7 +6969,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'JUVENILE IDIOPATHIC ARTHRITIS', 'ENTHESITIS-RELATED ARTHRITIS', 'ANKYLOSING SPONDYLITIS (AS)', 'AXIAL SPONDYLOARTHRITIS WITHOUT RADIOGRAPHIC EVIDENCE OF AS', 'PSORIATIC ARTHRITIS', 'PSORIASIS', 'PAEDIATRIC PLAQUE PSORIASIS', 'HIDRADENITIS SUPPURATIVA (HS)', 'CROHN’S DISEASE', 'PAEDIATRIC CROHN'S DISEASE', 'PAEDIATRIC ULCERATIVE COLITIS', 'ULCERATIVE COLITIS', 'UVEITIS', 'PAEDIATRIC UVEITIS'] 
+          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'JUVENILE IDIOPATHIC ARTHRITIS', 'ENTHESITIS-RELATED ARTHRITIS', 'ANKYLOSING SPONDYLITIS (AS)', 'AXIAL SPONDYLOARTHRITIS WITHOUT RADIOGRAPHIC EVIDENCE OF AS', 'PSORIATIC ARTHRITIS', 'PSORIASIS (PREVENTATIVE)', 'HIDRADENITIS SUPPURATIVA (HS)', 'CROHN’S DISEASE', 'ULCERATIVE COLITIS', 'UVEITIS', 'PAEDIATRIC PLAQUE PSORIASIS (PREVENTATIVE)', 'PAEDIATRIC CROHN'S DISEASE', 'PAEDIATRIC ULCERATIVE COLITIS'] 
 </t>
         </is>
       </c>
@@ -7000,7 +7005,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t xml:space="preserve">['GROWTH HORMONE DEFICIENCY', 'TURNER SYNDROME (PREVENTATIVE)', 'CHRONIC RENAL INSUFFICIENCY (PREVENTATIVE)', 'SHORT STATURE (PREVENTATIVE)', 'PRADER-WILLI SYNDROME', 'GROWTH HORMONE DEFICIENCY'] 
+          <t xml:space="preserve">['GROWTH HORMONE DEFICIENCY (GH DEFICIENCY)', 'TURNER SYNDROME (PREVENTATIVE)', 'CHRONIC RENAL INSUFFICIENCY (PREVENTATIVE)', 'SHORT STATURE (PREVENTATIVE)', 'PRADER-WILLI SYNDROME (PWS)', 'GROWTH HORMONE DEFICIENCY (GH DEFICIENCY)'] 
 </t>
         </is>
       </c>
@@ -7036,7 +7041,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS'] 
+          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -7072,7 +7077,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t xml:space="preserve">['VON WILLEBRAND DISEASE (VWD) - TREATMENT OF HAEMORRHAGE', 'VON WILLEBRAND DISEASE (VWD) - TREATMENT OF SURGICAL BLEEDING', 'VON WILLEBRAND DISEASE (VWD) - PREVENTION OF SURGICAL BLEEDING (PREVENTATIVE)'] 
+          <t xml:space="preserve">['VON WILLEBRAND DISEASE (VWD) (TREATMENT)', 'VON WILLEBRAND DISEASE (VWD) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -7126,7 +7131,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ALOPECIA AREATA (SEVERE)'] 
+          <t xml:space="preserve">['ALOPECIA AREATA'] 
 </t>
         </is>
       </c>
@@ -7162,7 +7167,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PERIPHERAL NEUROPATHIC PAIN', 'CENTRAL NEUROPATHIC PAIN', 'PARTIAL SEIZURES (PREVENTATIVE)', 'GENERALISED ANXIETY DISORDER'] 
+          <t xml:space="preserve">['PERIPHERAL NEUROPATHIC PAIN', 'CENTRAL NEUROPATHIC PAIN', 'PARTIAL SEIZURES', 'GENERALISED ANXIETY DISORDER'] 
 </t>
         </is>
       </c>
@@ -7252,8 +7257,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CANCER (PREVENTATIVE)'] 
-</t>
+          <t>['CANCER (PREVENTATIVE)']</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -7288,7 +7292,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RELAPSING REMITTING MULTIPLE SCLEROSIS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MULTIPLE SCLEROSIS (MS)'] 
 </t>
         </is>
       </c>
@@ -7378,7 +7382,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t xml:space="preserve">['INFLUENZA A VIRUS H5 SUBTYPE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['INFLUENZA A (H5N1) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -7414,7 +7418,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS'] 
 </t>
         </is>
       </c>
@@ -7450,7 +7454,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC HEART FAILURE (SYMPTOMATIC)', 'CHRONIC HEART FAILURE WITH LEFT VENTRICULAR SYSTOLIC DYSFUNCTION (SYMPTOMATIC)', 'CHRONIC HEART FAILURE WITH REDUCED EJECTION FRACTION (SYMPTOMATIC)'] 
+          <t xml:space="preserve">['CHRONIC HEART FAILURE WITH LEFT VENTRICULAR SYSTOLIC DYSFUNCTION (PREVENTATIVE)', 'CHRONIC HEART FAILURE WITH REDUCED EJECTION FRACTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -7558,7 +7562,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SEVERE HAEMOPHILIA A (CONGENITAL FACTOR VIII DEFICIENCY) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['SEVERE HAEMOPHILIA A (CONGENITAL FACTOR VIII DEFICIENCY)'] 
 </t>
         </is>
       </c>
@@ -7594,7 +7598,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HIV-1 INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS TYPE 1 (HIV-1) INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -7612,7 +7616,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t xml:space="preserve">['METASTATIC CARCINOMA OF THE COLON OR RECTUM', 'METASTATIC BREAST CANCER', 'METASTATIC BREAST CANCER', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NON SMALL CELL LUNG CANCER (NSCLC) OTHER THAN PREDOMINANTLY SQUAMOUS CELL HISTOLOGY', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NSCLC WITH EPIDERMAL GROWTH FACTOR RECEPTOR (EGFR) ACTIVATING MUTATIONS', 'ADVANCED AND/OR METASTATIC RENAL CELL CANCER', 'ADVANCED (INTERNATIONAL FEDERATION OF GYNECOLOGY AND OBSTETRICS (FIGO) STAGES III B, III C AND IV) EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'FIRST RECURRENCE OF PLATINUM SENSITIVE EPITHELIAL OVARIAN, FALLOPIAN TUBE OR PRIMARY PERITONEAL CANCER', 'PLATINUM RESISTANT RECURRENT EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'PERSISTENT, RECURRENT, OR METASTATIC CARCINOMA OF THE CERVIX'] 
+          <t xml:space="preserve">['METASTATIC CARCINOMA OF THE COLON OR RECTUM', 'METASTATIC BREAST CANCER', 'METASTATIC BREAST CANCER', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NON SMALL CELL LUNG CANCER (NSCLC)', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NSCLC WITH EPIDERMAL GROWTH FACTOR RECEPTOR (EGFR) ACTIVATING MUTATIONS', 'ADVANCED AND/OR METASTATIC RENAL CELL CANCER', 'ADVANCED (INTERNATIONAL FEDERATION OF GYNECOLOGY AND OBSTETRICS (FIGO) STAGES III B, III C AND IV) EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'FIRST RECURRENCE OF PLATINUM SENSITIVE EPITHELIAL OVARIAN, FALLOPIAN TUBE OR PRIMARY PERITONEAL CANCER', 'PLATINUM RESISTANT RECURRENT EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'PERSISTENT, RECURRENT, OR METASTATIC CARCINOMA OF THE CERVIX'] 
 </t>
         </is>
       </c>
@@ -7648,7 +7652,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t xml:space="preserve">['METASTATIC HORMONE SENSITIVE PROSTATE CANCER (MHSPC) (PREVENTATIVE)', 'METASTATIC CASTRATION RESISTANT PROSTATE CANCER (MCRPC)', 'METASTATIC CASTRATION RESISTANT PROSTATE CANCER (MCRPC)'] 
+          <t xml:space="preserve">['METASTATIC HORMONE SENSITIVE PROSTATE CANCER (MHSPC) (PREVENTATIVE)', 'METASTATIC CASTRATION RESISTANT PROSTATE CANCER (MCRPC) (PREVENTATIVE)', 'METASTATIC CASTRATION RESISTANT PROSTATE CANCER (MCRPC) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -7666,7 +7670,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t xml:space="preserve">['COLORECTAL CANCER', 'GASTRIC CANCER'] 
+          <t xml:space="preserve">['COLORECTAL CANCER', 'GASTRIC CANCER', 'ADENOCARCINOMA OF THE GASTROESOPHAGEAL JUNCTION'] 
 </t>
         </is>
       </c>
@@ -7828,7 +7832,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'JUVENILE IDIOPATHIC ARTHRITIS', 'PSORIATIC ARTHRITIS', 'ANKYLOSING SPONDYLITIS', 'NON-RADIOGRAPHIC AXIAL SPONDYLOARTHRITIS', 'PLAQUE PSORIASIS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'JUVENILE IDIOPATHIC ARTHRITIS', 'PSORIATIC ARTHRITIS', 'ANKYLOSING SPONDYLITIS', 'NON-RADIOGRAPHIC AXIAL SPONDYLOARTHRITIS', 'PLAQUE PSORIASIS'] 
 </t>
         </is>
       </c>
@@ -7846,7 +7850,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MYCOSIS FUNGOIDES', 'SÉZARY SYNDROME'] 
+          <t xml:space="preserve">['MYCOSIS FUNGOIDES (MF)', 'SÉZARY SYNDROME (SS)'] 
 </t>
         </is>
       </c>
@@ -7882,7 +7886,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BREAST CANCER (METASTATIC)', 'OVARIAN CANCER (ADVANCED)', 'MULTIPLE MYELOMA', 'KAPOSI’S SARCOMA'] 
+          <t xml:space="preserve">['BREAST CANCER (SPREAD TO OTHER PARTS OF THE BODY)', 'ADVANCED OVARIAN CANCER', 'MULTIPLE MYELOMA', 'KAPOSI’S SARCOMA (IN PATIENTS WITH AIDS)'] 
 </t>
         </is>
       </c>
@@ -7918,7 +7922,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t xml:space="preserve">['METASTATIC BREAST CANCER', 'ADVANCED OVARIAN CANCER', 'MULTIPLE MYELOMA', "AIDS-RELATED KAPOSI’S SARCOMA (KS)"] 
+          <t xml:space="preserve">['METASTATIC BREAST CANCER', 'ADVANCED OVARIAN CANCER', 'MULTIPLE MYELOMA', 'AIDS-RELATED KAPOSI’S SARCOMA (KS)'] 
 </t>
         </is>
       </c>
@@ -7936,7 +7940,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ASTHMA (PREVENTATIVE)', 'CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD)'] 
+          <t xml:space="preserve">['ASTHMA (PREVENTATIVE)', 'COPD (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -7990,7 +7994,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PRIMARY IMMUNE THROMBOCYTOPENIA (ITP)', 'CHRONIC HEPATITIS C VIRUS (HCV) INFECTION', 'ACQUIRED SEVERE APLASTIC ANAEMIA (SAA)'] 
+          <t xml:space="preserve">['PRIMARY IMMUNE THROMBOCYTOPENIA (ITP)', 'CHRONIC HEPATITIS C VIRUS (HCV) INFECTION (PREVENTATIVE)', 'ACQUIRED SEVERE APLASTIC ANAEMIA (SAA)'] 
 </t>
         </is>
       </c>
@@ -8008,7 +8012,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MELANOMA (PREVENTATIVE)', 'NON-SMALL CELL LUNG CANCER (NSCLC)'] 
+          <t xml:space="preserve">['MELANOMA', 'MELANOMA (PREVENTATIVE)', 'NON-SMALL CELL LUNG CANCER (NSCLC)'] 
 </t>
         </is>
       </c>
@@ -8080,7 +8084,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t xml:space="preserve">['GASTROINTESTINAL STROMAL TUMOUR (GIST)'] 
+          <t xml:space="preserve">['ADVANCED GASTROINTESTINAL STROMAL TUMOUR (GIST)'] 
 </t>
         </is>
       </c>
@@ -8134,7 +8138,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'PSORIATIC ARTHRITIS', 'NON-RADIOGRAPHIC AXIAL SPONDYLOARTHRITIS (NR-AXSPA)', 'ANKYLOSING SPONDYLITIS (AS, RADIOGRAPHIC AXIAL SPONDYLOARTHRITIS)', 'ATOPIC DERMATITIS', 'ULCERATIVE COLITIS', 'CROHN’S DISEASE'] 
+          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'PSORIATIC ARTHRITIS', 'NON-RADIOGRAPHIC AXIAL SPONDYLOARTHRITIS', 'ANKYLOSING SPONDYLITIS', 'ATOPIC DERMATITIS', 'ULCERATIVE COLITIS', 'CROHN’S DISEASE'] 
 </t>
         </is>
       </c>
@@ -8152,7 +8156,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t xml:space="preserve">['METASTATIC BREAST CANCER', 'LOCALLY RECURRENT BREAST CANCER', 'LOCALLY ADVANCED BREAST CANCER (PREVENTATIVE)', 'INFLAMMATORY BREAST CANCER (PREVENTATIVE)', 'EARLY STAGE BREAST CANCER AT HIGH RISK OF RECURRENCE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['METASTATIC BREAST CANCER', 'LOCALLY RECURRENT BREAST CANCER', 'EARLY STAGE BREAST CANCER (PREVENTATIVE)', 'INFLAMMATORY BREAST CANCER (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -8260,7 +8264,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CRYOPYRIN-ASSOCIATED PERIODIC SYNDROMES (CAPS) INCLUDING: MUCKLE-WELLS SYNDROME (MWS), NEONATAL-ONSET MULTISYSTEM INFLAMMATORY DISEASE (NOMID) / CHRONIC INFANTILE NEUROLOGICAL, CUTANEOUS, ARTICULAR SYNDROME (CINCA), SEVERE FORMS OF FAMILIAL COLD AUTOINFLAMMATORY SYNDROME (FCAS) / FAMILIAL COLD URTICARIA (FCU) PRESENTING WITH SIGNS AND SYMPTOMS BEYOND COLD-INDUCED URTICARIAL SKIN RASH.', 'TUMOUR NECROSIS FACTOR RECEPTOR ASSOCIATED PERIODIC SYNDROME (TRAPS)', 'HYPERIMMUNOGLOBULIN D SYNDROME (HIDS)/MEVALONATE KINASE DEFICIENCY (MKD)', 'FAMILIAL MEDITERRANEAN FEVER (FMF) (PREVENTATIVE)', 'STILL’S DISEASE INCLUDING ADULT-ONSET STILL’S DISEASE (AOSD) AND SYSTEMIC JUVENILE IDIOPATHIC ARTHRITIS (SJIA)', 'GOUTY ARTHRITIS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['CRYOPYRIN-ASSOCIATED PERIODIC SYNDROMES (CAPS) INCLUDING: MUCKLE-WELLS SYNDROME (MWS), NEONATAL-ONSET MULTISYSTEM INFLAMMATORY DISEASE (NOMID) / CHRONIC INFANTILE NEUROLOGICAL, CUTANEOUS, ARTICULAR SYNDROME (CINCA), SEVERE FORMS OF FAMILIAL COLD AUTOINFLAMMATORY SYNDROME (FCAS) / FAMILIAL COLD URTICARIA (FCU) PRESENTING WITH SIGNS AND SYMPTOMS BEYOND COLD-INDUCED URTICARIAL SKIN RASH', 'TUMOUR NECROSIS FACTOR RECEPTOR ASSOCIATED PERIODIC SYNDROME (TRAPS)', 'HYPERIMMUNOGLOBULIN D SYNDROME (HIDS)/MEVALONATE KINASE DEFICIENCY (MKD)', 'FAMILIAL MEDITERRANEAN FEVER (FMF) (PREVENTATIVE)', 'STILL’S DISEASE INCLUDING ADULT-ONSET STILL’S DISEASE (AOSD) AND SYSTEMIC JUVENILE IDIOPATHIC ARTHRITIS (SJIA)', 'GOUTY ARTHRITIS'] 
 </t>
         </is>
       </c>
@@ -8404,7 +8408,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t xml:space="preserve">['COLON CANCER', 'COLORECTAL CANCER', 'GASTRIC CANCER', 'BREAST CANCER'] 
+          <t xml:space="preserve">['COLON CANCER (PREVENTATIVE)', 'COLORECTAL CANCER', 'GASTRIC CANCER', 'BREAST CANCER'] 
 </t>
         </is>
       </c>
@@ -8476,7 +8480,8 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>['HIGH BLOOD PRESSURE (PREVENTATIVE)']</t>
+          <t xml:space="preserve">['HIGH BLOOD PRESSURE (PREVENTATIVE)'] 
+</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -8583,7 +8588,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HER2-POSITIVE LOCALLY ADVANCED OR METASTATIC BREAST CANCER (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HER2‑POSITIVE LOCALLY ADVANCED OR METASTATIC BREAST CANCER (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -8601,7 +8606,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ANEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE (CRF) (PREVENTATIVE)', 'ANEMIA OF RENAL ORIGIN (PREVENTATIVE)', 'ANEMIA ASSOCIATED WITH CHEMOTHERAPY (PREVENTATIVE)', 'THROMBOEMBOLIC EVENTS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ANEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE (CRF) (PREVENTATIVE)', 'ANEMIA OF RENAL ORIGIN (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -8619,7 +8624,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HIGHLY ACTIVE RELAPSING REMITTING MULTIPLE SCLEROSIS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HIGHLY ACTIVE RELAPSING REMITTING MULTIPLE SCLEROSIS'] 
 </t>
         </is>
       </c>
@@ -8637,7 +8642,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ANOVULATION (INCLUDING POLYCYSTIC OVARIAN SYNDROME)', 'SEVERE LH AND FSH DEFICIENCY', 'CONGENITAL OR ACQUIRED HYPOGONADOTROPIC HYPOGONADISM'] 
+          <t xml:space="preserve">['ANOVULATION', 'POLYCYSTIC OVARIAN SYNDROME', 'SEVERE LH AND FSH DEFICIENCY', 'HYPOGONADOTROPIC HYPOGONADISM (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -8655,7 +8660,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARKINSON\'S DISEASE (PD)'] 
+          <t xml:space="preserve">['PARKINSON'S DISEASE'] 
 </t>
         </is>
       </c>
@@ -8709,7 +8714,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS'] 
 </t>
         </is>
       </c>
@@ -8727,7 +8732,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS'] 
+          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -8763,7 +8768,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ESSENTIAL HYPERTENSION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ESSENTIAL HYPERTENSION'] 
 </t>
         </is>
       </c>
@@ -8853,7 +8858,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t xml:space="preserve">['OPIOID DEPENDENCE'] 
+          <t xml:space="preserve">['OPIOID DEPENDENCE (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -9033,7 +9038,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PLAQUE PSORIASIS (MODERATE TO SEVERE)'] 
+          <t xml:space="preserve">['PLAQUE PSORIASIS'] 
 </t>
         </is>
       </c>
@@ -9069,7 +9074,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MALIGNANT DISEASES', 'NON-MALIGNANT DISEASES'] 
+          <t xml:space="preserve">['MALIGNANT DISEASES', 'NON-MALIGNANT DISEASES (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -9087,7 +9092,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t xml:space="preserve">['GAUCHER DISEASE (TYPE-1)'] 
+          <t xml:space="preserve">['TYPE-1 GAUCHER DISEASE'] 
 </t>
         </is>
       </c>
@@ -9141,8 +9146,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t xml:space="preserve">['OBSTRUCTIVE HYPERTROPHIC CARDIOMYOPATHY (PREVENTATIVE)'] 
-</t>
+          <t>['OBSTRUCTIVE HYPERTROPHIC CARDIOMYOPATHY (PREVENTATIVE)']</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -9177,7 +9181,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HYPERPHOSPHATAEMIA', 'RENAL BONE DISEASE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HYPERPHOSPHATAEMIA (PREVENTATIVE)','RENAL BONE DISEASE (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -9213,7 +9217,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'JUVENILE IDIOPATHIC ARTHRITIS', 'PSORIATIC ARTHRITIS', 'ANKYLOSING SPONDYLITIS (AS)', 'NON‑RADIOGRAPHIC AXIAL SPONDYLOARTHRITIS', 'PLAQUE PSORIASIS'] 
+          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'JUVENILE IDIOPATHIC ARTHRITIS', 'PSORIATIC ARTHRITIS', 'ANKYLOSING SPONDYLITIS (AS)', 'NON‑RADIOGRAPHIC AXIAL SPONDYLOARTHRITIS', 'PLAQUE PSORIASIS (PREVENTATIVE)', 'PAEDIATRIC PLAQUE PSORIASIS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -9231,7 +9235,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t xml:space="preserve">['LEUKEMIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HAEMATOPOIETIC PROGENITOR CELL TRANSPLANTATION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -9267,7 +9271,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HIV 1 INFECTION'] 
+          <t xml:space="preserve">['HIV 1 INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -9285,7 +9289,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HIV-1 INFECTION'] 
+          <t xml:space="preserve">['HIV-1 INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -9429,7 +9433,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ALLERGIC RHINITIS (PREVENTATIVE)', 'URTICARIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ALLERGIC RHINITIS', 'URTICARIA'] 
 </t>
         </is>
       </c>
@@ -9483,7 +9487,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ATHEROTHROMBOTIC EVENTS (PREVENTATIVE)', 'CORONARY ARTERY DISEASE (PREVENTATIVE)', 'SYMPTOMATIC PERIPHERAL ARTERY DISEASE (PREVENTATIVE)', 'VENOUS THROMBOEMBOLISM (PREVENTATIVE)', 'DEEP VEIN THROMBOSIS', 'PULMONARY EMBOLISM', 'RECURRENT DVT (PREVENTATIVE)', 'RECURRENT PE (PREVENTATIVE)', 'STROKE (PREVENTATIVE)', 'SYSTEMIC EMBOLISM (PREVENTATIVE)', 'NON-VALVULAR ATRIAL FIBRILLATION (PREVENTATIVE)', 'CONGESTIVE HEART FAILURE (PREVENTATIVE)', 'HYPERTENSION (PREVENTATIVE)', 'DIABETES MELLITUS (PREVENTATIVE)', 'PRIOR STROKE (PREVENTATIVE)', 'TRANSIENT ISCHAEMIC ATTACK (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ATHEROTHROMBOTIC EVENTS (PREVENTATIVE)', 'ACUTE CORONARY SYNDROME (ACS) (PREVENTATIVE)', 'CORONARY ARTERY DISEASE (CAD) (PREVENTATIVE)', 'SYMPTOMATIC PERIPHERAL ARTERY DISEASE (PAD) (PREVENTATIVE)', 'VENOUS THROMBOEMBOLISM (VTE) (PREVENTATIVE)', 'DEEP VEIN THROMBOSIS (DVT)', 'PULMONARY EMBOLISM (PE)', 'RECURRENT DVT (PREVENTATIVE)', 'RECURRENT PE (PREVENTATIVE)', 'STROKE (PREVENTATIVE)', 'SYSTEMIC EMBOLISM (PREVENTATIVE)', 'NON-VALVULAR ATRIAL FIBRILLATION (PREVENTATIVE)', 'CONGESTIVE HEART FAILURE (PREVENTATIVE)', 'HYPERTENSION (PREVENTATIVE)', 'DIABETES MELLITUS (PREVENTATIVE)', 'PRIOR STROKE (PREVENTATIVE)', 'TRANSIENT ISCHAEMIC ATTACK (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -9519,7 +9523,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CELLULITIS', 'IMPETIGO', 'ERYSIPELAS', 'FOLLICULITIS', 'FURUNCULOSIS', 'CARBUNCULOSIS', 'ABSCESS'] 
+          <t xml:space="preserve">['CELLULITIS', 'ERYSIPELAS', 'IMPETIGO', 'FOLLICULITIS', 'FURUNCULOSIS', 'CARBUNCLE', 'ABSCESS', 'PARONYCHIA', 'HIDRADENITIS SUPPURATIVA', 'PILONIDAL CYST INFECTION'] 
 </t>
         </is>
       </c>
@@ -9573,7 +9577,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SICKLE-CELL SYNDROME (PREVENTATIVE)', 'VASO-OCCLUSIVE CRISES (PREVENTATIVE)', 'ACUTE CHEST SYNDROME (PREVENTATIVE)'] 
+          <t xml:space="preserve">['SICKLE-CELL SYNDROME (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -9591,7 +9595,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t xml:space="preserve">['GROWTH HORMONE DEFICIENCY (PAEDIATRIC GHD)', 'GROWTH HORMONE DEFICIENCY (ADULT GHD)'] 
+          <t xml:space="preserve">['GROWTH HORMONE DEFICIENCY (PAEDIATRIC GHD) (PREVENTATIVE)', 'GROWTH HORMONE DEFICIENCY (ADULT GHD) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -9627,7 +9631,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MYELOFIBROSIS', 'POLYCYTHAEMIA VERA', 'GRAFT VERSUS HOST DISEASE'] 
+          <t xml:space="preserve">['MYELOFIBROSIS', 'POLYCYTHEMIA VERA', 'GRAFT VERSUS HOST DISEASE'] 
 </t>
         </is>
       </c>
@@ -9645,7 +9649,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t xml:space="preserve">['EPILEPSY'] 
+          <t xml:space="preserve">['EPILEPSY (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -9699,7 +9703,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ULCERATIVE COLITIS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ULCERATIVE COLITIS'] 
 </t>
         </is>
       </c>
@@ -9735,7 +9739,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS'] 
+          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -9753,7 +9757,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t xml:space="preserve">['INHERITED RETINAL DYSTROPHY CAUSED BY CONFIRMED BIALLELIC RPE65 MUTATIONS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['INHERITED RETINAL DYSTROPHY (CAUSED BY CONFIRMED BIALLELIC RPE65 MUTATIONS)'] 
 </t>
         </is>
       </c>
@@ -9771,7 +9775,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CYSTIC FIBROSIS (CF)'] 
+          <t xml:space="preserve">['CYSTIC FIBROSIS'] 
 </t>
         </is>
       </c>
@@ -9789,7 +9793,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PROSTATE CANCER (METASTATIC, HORMONE REFRACTORY)'] 
+          <t xml:space="preserve">['HORMONE REFRACTORY METASTATIC PROSTATE CANCER'] 
 </t>
         </is>
       </c>
@@ -9897,7 +9901,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t xml:space="preserve">['VENOUS THROMBOEMBOLISM (PREVENTATIVE)', 'DEEP VEIN THROMBOSIS', 'PULMONARY EMBOLISM', 'UNSTABLE ANGINA', 'NON Q WAVE MYOCARDIAL INFARCTION', 'ACUTE ST SEGMENT ELEVATION MYOCARDIAL INFARCTION (STEMI)'] 
+          <t xml:space="preserve">['VENOUS THROMBOEMBOLISM (PREVENTATIVE)', 'DEEP VEIN THROMBOSIS', 'PULMONARY EMBOLISM', 'UNSTABLE ANGINA', 'NON Q WAVE MYOCARDIAL INFARCTION', 'ACUTE ST SEGMENT ELEVATION MYOCARDIAL INFARCTION (STEMI)', 'BLOOD CLOT PREVENTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -9969,7 +9973,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t xml:space="preserve">['COMPLICATED URINARY TRACT INFECTION (CUTI)', 'PYELONEPHRITIS', 'COMPLICATED INTRA-ABDOMINAL INFECTION (CIAI)', 'HOSPITAL-ACQUIRED PNEUMONIA (HAP)', 'VENTILATOR ASSOCIATED PNEUMONIA (VAP)', 'BACTERAEMIA (ASSOCIATED WITH CUTI, CIAI, HAP, VAP)'] 
+          <t xml:space="preserve">['COMPLICATED URINARY TRACT INFECTION (CUTI)', 'PYELONEPHRITIS', 'COMPLICATED INTRA-ABDOMINAL INFECTION (CIAI)', 'HOSPITAL-ACQUIRED PNEUMONIA (HAP)', 'VENTILATOR ASSOCIATED PNEUMONIA (VAP)', 'BACTERAEMIA (ASSOCIATED WITH CUTI, CIAI OR HAP)', 'INFECTIONS DUE TO AEROBIC GRAM-NEGATIVE ORGANISMS (LIMITED TREATMENT OPTIONS)'] 
 </t>
         </is>
       </c>
@@ -10005,7 +10009,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CYSTIC FIBROSIS'] 
+          <t xml:space="preserve">['CYSTIC FIBROSIS (CF)'] 
 </t>
         </is>
       </c>
@@ -10023,7 +10027,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t xml:space="preserve">['METASTATIC CARCINOMA OF THE COLON OR RECTUM', 'METASTATIC BREAST CANCER', 'METASTATIC BREAST CANCER', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NON SMALL CELL LUNG CANCER', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NON SQUAMOUS NON SMALL CELL LUNG CANCER WITH EPIDERMAL GROWTH FACTOR RECEPTOR (EGFR) ACTIVATING MUTATIONS', 'ADVANCED AND/OR METASTATIC RENAL CELL CANCER', 'ADVANCED (INTERNATIONAL FEDERATION OF GYNECOLOGY AND OBSTETRICS (FIGO) STAGES III B, III C AND IV) EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'FIRST RECURRENCE OF PLATINUM SENSITIVE EPITHELIAL OVARIAN, FALLOPIAN TUBE OR PRIMARY PERITONEAL CANCER', 'PLATINUM RESISTANT RECURRENT EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'PERSISTENT, RECURRENT, OR METASTATIC CARCINOMA OF THE CERVIX.'] 
+          <t xml:space="preserve">['METASTATIC CARCINOMA OF THE COLON OR RECTUM', 'METASTATIC BREAST CANCER', 'METASTATIC BREAST CANCER', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NON SMALL CELL LUNG CANCER', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NON SQUAMOUS NON SMALL CELL LUNG CANCER', 'ADVANCED AND/OR METASTATIC RENAL CELL CANCER', 'ADVANCED (INTERNATIONAL FEDERATION OF GYNECOLOGY AND OBSTETRICS (FIGO) STAGES III B, III C AND IV) EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'FIRST RECURRENCE OF PLATINUM SENSITIVE EPITHELIAL OVARIAN, FALLOPIAN TUBE OR PRIMARY PERITONEAL CANCER', 'PLATINUM RESISTANT RECURRENT EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'PERSISTENT, RECURRENT, OR METASTATIC CARCINOMA OF THE CERVIX'] 
 </t>
         </is>
       </c>
@@ -10041,7 +10045,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ANEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE (CRF) (ADULT AND PAEDIATRIC)', 'ANEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE (CRF) ON HEMODIALYSIS (ADULT AND PAEDIATRIC)', 'ANEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE (CRF) ON PERITONEAL DIALYSIS (ADULT)', 'ANEMIA OF RENAL ORIGIN (ADULT)', 'ANEMIA ASSOCIATED WITH CHEMOTHERAPY (ADULT)', 'ANEMIA ASSOCIATED WITH MAJOR ELECTIVE SURGERY (ADULT) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ANEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE (CRF) (ADULT AND PAEDIATRIC)', 'ANEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE (CRF) (ADULT AND PAEDIATRIC ON HAEMODIALYSIS)', 'ANEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE (CRF) (ADULT ON PERITONEAL DIALYSIS)', 'ANEMIA OF RENAL ORIGIN (ADULT WITH RENAL INSUFFICIENCY NOT YET UNDERGOING DIALYSIS)', 'ANEMIA (ADULT PATIENTS RECEIVING CHEMOTHERAPY FOR SOLID TUMOURS, MALIGNANT LYMPHOMA OR MULTIPLE MYELOMA) (PREVENTATIVE)', 'ANEMIA (ADULT PATIENTS RECEIVING CHEMOTHERAPY FOR SOLID TUMOURS, MALIGNANT LYMPHOMA OR MULTIPLE MYELOMA) (PREVENTATIVE)', 'THROMBOEMBOLIC EVENTS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -10077,7 +10081,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HAEMOPHILIA A (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HAEMOPHILIA A (CONGENITAL FACTOR VIII DEFICIENCY) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -10095,7 +10099,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t xml:space="preserve">['GAUCHER DISEASE TYPE 1', 'NIEMANN-PICK TYPE C DISEASE'] 
+          <t xml:space="preserve">['TYPE 1 GAUCHER DISEASE', 'NIEMANN-PICK TYPE C DISEASE'] 
 </t>
         </is>
       </c>
@@ -10149,7 +10153,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t xml:space="preserve">['DIFFERENTIATED THYROID CARCINOMA (DTC)', 'HEPATOCELLULAR CARCINOMA (HCC)'] 
+          <t xml:space="preserve">['DIFFERENTIATED (PAPILLARY/FOLLICULAR/HÜRTHLE CELL) THYROID CARCINOMA (DTC)', 'HEPATOCELLULAR CARCINOMA (HCC)'] 
 </t>
         </is>
       </c>
@@ -10185,7 +10189,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CONGESTIVE CARDIAC FAILURE', 'HEPATIC CIRRHOSIS WITH ASCITES AND OEDEMA', 'ASCITES (MALIGNANT)', 'NEPHROTIC SYNDROME', 'PRIMARY ALDOSTERONISM', 'ESSENTIAL HYPERTENSION'] 
+          <t xml:space="preserve">['CONGESTIVE CARDIAC FAILURE', 'HEPATIC CIRRHOSIS WITH ASCITES AND OEDEMA', 'MALIGNANT ASCITES', 'NEPHROTIC SYNDROME', 'PRIMARY ALDOSTERONISM', 'ESSENTIAL HYPERTENSION'] 
 </t>
         </is>
       </c>
@@ -10203,7 +10207,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARKINSON\'S DISEASE', 'RESTLESS-LEGS SYNDROME'] 
+          <t xml:space="preserve">['IDIOPATHIC PARKINSON'S DISEASE', 'RESTLESS-LEGS SYNDROME'] 
 </t>
         </is>
       </c>
@@ -10221,7 +10225,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARKINSON'S DISEASE', 'RESTLESS-LEGS SYNDROME'] 
+          <t xml:space="preserve">['PARKINSON\'S DISEASE', 'RESTLESS-LEGS SYNDROME'] 
 </t>
         </is>
       </c>
@@ -10239,7 +10243,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MALIGNANCY (EXCEPT CHRONIC MYELOID LEUKAEMIA AND MYELODYSPLASTIC SYNDROMES)', 'SEVERE CONGENITAL, CYCLIC, OR IDIOPATHIC NEUTROPENIA (PREVENTATIVE)', 'ADVANCED HIV INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MALIGNANCY (WITH THE EXCEPTION OF CHRONIC MYELOID LEUKAEMIA AND MYELODYSPLASTIC SYNDROMES)', 'SEVERE CONGENITAL, CYCLIC, OR IDIOPATHIC NEUTROPENIA (PREVENTATIVE)', 'ADVANCED HIV INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -10275,7 +10279,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t xml:space="preserve">['OBESITY', 'TYPE 2 DIABETES', 'DYSLIPIDAEMIA', 'HYPERTENSION'] 
+          <t xml:space="preserve">['TYPE 2 DIABETES', 'DYSLIPIDAEMIA', 'CONTROLLED HYPERTENSION'] 
 </t>
         </is>
       </c>
@@ -10311,7 +10315,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SCHIZOPHRENIA (MAINTENANCE TREATMENT)'] 
+          <t xml:space="preserve">['SCHIZOPHRENIA (MAINTENANCE)'] 
 </t>
         </is>
       </c>
@@ -10329,7 +10333,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t xml:space="preserve">['GROWTH FAILURE DUE TO INADEQUATE ENDOGENOUS GROWTH HORMONE SECRETION (PREVENTATIVE)', 'GROWTH FAILURE ASSOCIATED WITH TURNER SYNDROME (PREVENTATIVE)', 'GROWTH FAILURE ASSOCIATED WITH CHRONIC RENAL INSUFFICIENCY (PREVENTATIVE)', 'GROWTH HORMONE DEFICIENCY (PREVENTATIVE)'] 
+          <t xml:space="preserve">['GROWTH HORMONE DEFICIENCY (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -10347,7 +10351,8 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>['ACUTE HEPATIC PORPHYRIA (AHP) (PREVENTATIVE)']</t>
+          <t xml:space="preserve">['ACUTE HEPATIC PORPHYRIA (AHP) (PREVENTATIVE)'] 
+</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -10382,7 +10387,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MENINGITIS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MENINGOCOCCAL MENINGITIS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -10579,7 +10584,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CROHN’S DISEASE', 'ULCERATIVE COLITIS', 'PLAQUE PSORIASIS', 'PAEDIATRIC PLAQUE PSORIASIS', 'PSORIATIC ARTHRITIS'] 
+          <t xml:space="preserve">['CROHN’S DISEASE', 'ULCERATIVE COLITIS', 'PLAQUE PSORIASIS', 'PAEDIATRIC PLAQUE PSORIASIS (PREVENTATIVE)', 'PSORIATIC ARTHRITIS'] 
 </t>
         </is>
       </c>
@@ -10597,7 +10602,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MULTICENTRIC CASTLEMAN’S DISEASE (MCD) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MULTICENTRIC CASTLEMAN’S DISEASE (MCD)'] 
 </t>
         </is>
       </c>
@@ -10615,7 +10620,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RENAL CELL CARCINOMA (RCC)'] 
+          <t xml:space="preserve">['ADVANCED RENAL CELL CARCINOMA'] 
 </t>
         </is>
       </c>
@@ -10633,7 +10638,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PRIMARY IMMUNODEFICIENCY SYNDROMES WITH IMPAIRED ANTIBODY PRODUCTION', 'HYPOGAMMAGLOBULINAEMIA (PREVENTATIVE)', 'RECURRENT BACTERIAL INFECTIONS (PREVENTATIVE)', 'CHRONIC LYMPHOCYTIC LEUKAEMIA (CLL)', 'MULTIPLE MYELOMA (MM)', 'ALLOGENEIC HEMATOPOIETIC STEM CELL TRANSPLANTATION (HSCT)']
+          <t xml:space="preserve">['PRIMARY IMMUNODEFICIENCY SYNDROMES WITH IMPAIRED ANTIBODY PRODUCTION', 'HYPOGAMMAGLOBULINAEMIA (PREVENTATIVE)', 'RECURRENT BACTERIAL INFECTIONS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -10669,7 +10674,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t xml:space="preserve">['INVASIVE MENINGOCOCCAL DISEASES CAUSED BY NEISSERIA MENINGITIDIS GROUP A (PREVENTATIVE)', 'INVASIVE MENINGOCOCCAL DISEASES CAUSED BY NEISSERIA MENINGITIDIS GROUP C (PREVENTATIVE)', 'INVASIVE MENINGOCOCCAL DISEASES CAUSED BY NEISSERIA MENINGITIDIS GROUP W-135 (PREVENTATIVE)', 'INVASIVE MENINGOCOCCAL DISEASES CAUSED BY NEISSERIA MENINGITIDIS GROUP Y (PREVENTATIVE)'] 
+          <t xml:space="preserve">['INVASIVE MENINGOCOCCAL DISEASE CAUSED BY NEISSERIA MENINGITIDIS GROUP A (PREVENTATIVE)', 'INVASIVE MENINGOCOCCAL DISEASE CAUSED BY NEISSERIA MENINGITIDIS GROUP C (PREVENTATIVE)', 'INVASIVE MENINGOCOCCAL DISEASE CAUSED BY NEISSERIA MENINGITIDIS GROUP W-135 (PREVENTATIVE)', 'INVASIVE MENINGOCOCCAL DISEASE CAUSED BY NEISSERIA MENINGITIDIS GROUP Y (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -10705,7 +10710,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RHEUMATOID ARTHRITIS (RA)', 'COVID-19', 'CRYOPYRIN-ASSOCIATED PERIODIC SYNDROMES (CAPS)', 'NEONATAL-ONSET MULTISYSTEM INFLAMMATORY DISEASE (NOMID) / CHRONIC INFANTILE NEUROLOGICAL, CUTANEOUS, ARTICULAR SYNDROME (CINCA)', 'MUCKLE-WELLS SYNDROME (MWS)', 'FAMILIAL COLD AUTOINFLAMMATORY SYNDROME (FCAS)', 'FAMILIAL MEDITERRANEAN FEVER (FMF)', 'STILL’S DISEASE', 'SYSTEMIC JUVENILE IDIOPATHIC ARTHRITIS (SJIA)', 'ADULT-ONSET STILL’S DISEASE (AOSD)'] 
+          <t xml:space="preserve">['RHEUMATOID ARTHRITIS (RA)', 'COVID-19', 'CRYOPYRIN-ASSOCIATED PERIODIC SYNDROMES (CAPS)', 'NEONATAL-ONSET MULTISYSTEM INFLAMMATORY DISEASE (NOMID) / CHRONIC INFANTILE NEUROLOGICAL, CUTANEOUS, ARTICULAR SYNDROME (CINCA)', 'MUCKLE-WELLS SYNDROME (MWS)', 'FAMILIAL COLD AUTOINFLAMMATORY SYNDROME (FCAS)', 'FAMILIAL MEDITERRANEAN FEVER (FMF)', "STILL’S DISEASE", 'SYSTEMIC JUVENILE IDIOPATHIC ARTHRITIS (SJIA)', 'ADULT-ONSET STILL’S DISEASE (AOSD)'] 
 </t>
         </is>
       </c>
@@ -10759,7 +10764,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MALIGNANCY (EXCEPT CHRONIC MYELOID LEUKAEMIA AND MYELODYSPLASTIC SYNDROMES) (PREVENTATIVE)', 'SEVERE CONGENITAL, CYCLIC, OR IDIOPATHIC NEUTROPENIA (PREVENTATIVE)', 'ADVANCED HIV INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MALIGNANCY (WITH THE EXCEPTION OF CHRONIC MYELOID LEUKAEMIA AND MYELODYSPLASTIC SYNDROMES) (PREVENTATIVE)', 'FEBRILE NEUTROPENIA (PREVENTATIVE)', 'PROLONGED SEVERE NEUTROPENIA (PREVENTATIVE)', 'SEVERE CONGENITAL NEUTROPENIA', 'CYCLIC NEUTROPENIA', 'IDIOPATHIC NEUTROPENIA', 'INFECTION-RELATED EVENTS (PREVENTATIVE)', 'ADVANCED HIV INFECTION (PREVENTATIVE)', 'BACTERIAL INFECTIONS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -10813,7 +10818,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BREAST CANCER', 'BONE METASTASES', 'PATHOLOGICAL FRACTURES', 'BONE COMPLICATIONS REQUIRING RADIOTHERAPY (PREVENTATIVE)', 'BONE COMPLICATIONS REQUIRING SURGERY (PREVENTATIVE)', 'TUMOUR-INDUCED HYPERCALCAEMIA'] 
+          <t xml:space="preserve">['BREAST CANCER (PREVENTATIVE)', 'BONE METASTASES (PREVENTATIVE)', 'TUMOUR-INDUCED HYPERCALCAEMIA'] 
 </t>
         </is>
       </c>
@@ -10849,7 +10854,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t xml:space="preserve">['VENOUS THROMBOEMBOLIC EVENTS (VTE) (PREVENTATIVE)', 'DEEP-VEIN THROMBOSIS (DVT)', 'PULMONARY EMBOLISM (PE)', 'UNSTABLE ANGINA (UA)', 'NON-ST-SEGMENT-ELEVATION MYOCARDIAL INFARCTION (NSTEMI)', 'ST-SEGMENT-ELEVATION MYOCARDIAL INFARCTION (STEMI)', 'SUPERFICIAL-VEIN THROMBOSIS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['VENOUS THROMBOEMBOLIC EVENTS (VTE) (PREVENTATIVE)', 'DEEP-VEIN THROMBOSIS (DVT)', 'PULMONARY EMBOLISM (PE)', 'UNSTABLE ANGINA', 'NON-ST-SEGMENT-ELEVATION MYOCARDIAL INFARCTION (UA/NSTEMI)', 'ST-SEGMENT-ELEVATION MYOCARDIAL INFARCTION (STEMI)', 'SUPERFICIAL-VEIN THROMBOSIS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -10903,7 +10908,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MULTIPLE SCLEROSIS (RMS) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MULTIPLE SCLEROSIS (RMS)'] 
 </t>
         </is>
       </c>
@@ -10939,7 +10944,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t xml:space="preserve">['DIABETES MELLITUS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['DIABETES MELLITUS (PREVENTATIVE)', 'HYPERGLYCAEMIC COMA', 'KETOACIDOSIS'] 
 </t>
         </is>
       </c>
@@ -10957,7 +10962,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MULTIPLE MYELOMA', 'FOLLICULAR LYMPHOMA'] 
+          <t xml:space="preserve">['MULTIPLE MYELOMA', 'FOLLICULAR LYMPHOMA (GRADE 1-3A)'] 
 </t>
         </is>
       </c>
@@ -11011,7 +11016,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ESSENTIAL HYPERTENSION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ESSENTIAL HYPERTENSION'] 
 </t>
         </is>
       </c>
@@ -11029,7 +11034,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t xml:space="preserve">['LIFE-THREATENING OR UNCONTROLLED BLEEDING', 'EMERGENCY SURGERY/URGENT PROCEDURES'] 
+          <t xml:space="preserve">['EMERGENCY SURGERY/URGENT PROCEDURES (PREVENTATIVE)', 'LIFE-THREATENING OR UNCONTROLLED BLEEDING (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -11083,7 +11088,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t xml:space="preserve">['METHEMOGLOBINEMIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['METHAEMOGLOBINAEMIA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -11209,7 +11214,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t xml:space="preserve">['DIABETES MELLITUS'] 
+          <t xml:space="preserve">['DIABETES MELLITUS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -11227,7 +11232,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t xml:space="preserve">['DIABETES MELLITUS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['DIABETES MELLITUS'] 
 </t>
         </is>
       </c>
@@ -11245,7 +11250,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARTIAL ONSET SEIZURES (PREVENTATIVE)', 'SECONDARY GENERALISATION (PREVENTATIVE)', 'MYOCLONIC SEIZURES (PREVENTATIVE)', 'JUVENILE MYOCLONIC EPILEPSY (PREVENTATIVE)', 'PRIMARY GENERALISED TONIC-CLONIC SEIZURES (PREVENTATIVE)', 'IDIOPATHIC GENERALISED EPILEPSY (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PARTIAL ONSET SEIZURES (PREVENTATIVE)', 'EPILEPSY (PREVENTATIVE)', 'MYOCLONIC SEIZURES (PREVENTATIVE)', 'JUVENILE MYOCLONIC EPILEPSY (PREVENTATIVE)', 'PRIMARY GENERALISED TONIC-CLONIC SEIZURES (PREVENTATIVE)', 'IDIOPATHIC GENERALISED EPILEPSY (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -11317,7 +11322,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ISCHAEMIC STROKE (PREVENTATIVE)', 'PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)', 'ACUTE CORONARY SYNDROME (PREVENTATIVE)', 'UNSTABLE ANGINA (PREVENTATIVE)', 'NON-Q-WAVE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'TRANSIENT ISCHEMIC ATTACK (TIA) (PREVENTATIVE)', 'MINOR ISCHEMIC STROKE (IS) (PREVENTATIVE)', 'ATRIAL FIBRILLATION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ISCHAEMIC STROKE (PREVENTATIVE)', 'PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)', 'ACUTE CORONARY SYNDROME (PREVENTATIVE)', 'UNSTABLE ANGINA (PREVENTATIVE)', 'NON-Q-WAVE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'TRANSIENT ISCHEMIC ATTACK (PREVENTATIVE)', 'MINOR ISCHEMIC STROKE (PREVENTATIVE)', 'ATRIAL FIBRILLATION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -11353,7 +11358,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HYPERTENSION', 'RENAL DISEASE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ESSENTIAL HYPERTENSION', 'RENAL DISEASE (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -11371,7 +11376,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t xml:space="preserve">['X-LINKED HYPOPHOSPHATAEMIA', 'TUMOUR-INDUCED OSTEOMALACIA'] 
+          <t xml:space="preserve">['X-LINKED HYPOPHOSPHATAEMIA', 'FGF23-RELATED HYPOPHOSPHATAEMIA', 'TUMOUR-INDUCED OSTEOMALACIA'] 
 </t>
         </is>
       </c>
@@ -11407,7 +11412,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ENDOGENOUS CUSHING’S SYNDROME (PREVENTATIVE)'] 
+          <t xml:space="preserve">['CUSHING’S SYNDROME (ENDOGENOUS)'] 
 </t>
         </is>
       </c>
@@ -11425,7 +11430,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t xml:space="preserve">['INVASIVE DISEASE CAUSED BY NEISSERIA MENINGITIDIS GROUPS A, C, W135 AND Y (PREVENTATIVE)'] 
+          <t xml:space="preserve">['INVASIVE MENINGOCOCCAL DISEASE CAUSED BY NEISSERIA MENINGITIDIS GROUPS A, C, W135 AND Y (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -11461,7 +11466,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t xml:space="preserve">['EXTERNAL GENITAL AND PERIANAL WARTS (CONDYLOMATA ACUMINATA)', 'BASAL CELL CARCINOMAS (SBCCS)', 'ACTINIC KERATOSES (AKS) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['EXTERNAL GENITAL AND PERIANAL WARTS (CONDYLOMATA ACUMINATA)', 'BASAL CELL CARCINOMA (SBCC)', 'ACTINIC KERATOSES (AKS) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -11569,7 +11574,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ALZHEIMER'S DEMENTIA', 'PARKINSON'S DISEASE'] 
+          <t xml:space="preserve">['ALZHEIMER\'S DEMENTIA', 'PARKINSON\'S DISEASE'] 
 </t>
         </is>
       </c>
@@ -11587,7 +11592,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CYTOMEGALOVIRUS (CMV) INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['CYTOMEGALOVIRUS (CMV) INFECTION (PREVENTATIVE)', 'CYTOMEGALOVIRUS (CMV) DISEASE (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -11605,7 +11610,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD)'] 
+          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -11641,7 +11646,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HIV‑1 INFECTION', 'HEPATITIS B INFECTION'] 
+          <t xml:space="preserve">['HIV-1 INFECTION', 'HEPATITIS B INFECTION'] 
 </t>
         </is>
       </c>
@@ -11731,7 +11736,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD)'] 
 </t>
         </is>
       </c>
@@ -11785,7 +11790,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PULMONARY ARTERIAL HYPERTENSION (WHO FUNCTIONAL CLASS II AND III)', 'PRIMARY PULMONARY HYPERTENSION', 'PULMONARY HYPERTENSION ASSOCIATED WITH CONNECTIVE TISSUE DISEASE', 'PULMONARY HYPERTENSION ASSOCIATED WITH CONGENITAL HEART DISEASE'] 
+          <t xml:space="preserve">['PULMONARY ARTERIAL HYPERTENSION (PAH)', 'PRIMARY PULMONARY HYPERTENSION', 'PULMONARY HYPERTENSION ASSOCIATED WITH CONNECTIVE TISSUE DISEASE', 'PULMONARY HYPERTENSION ASSOCIATED WITH CONGENITAL HEART DISEASE'] 
 </t>
         </is>
       </c>
@@ -11803,7 +11808,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARTIAL-ONSET SEIZURES (PREVENTATIVE)', 'SECONDARY GENERALISATION (PREVENTATIVE)', 'MYOCLONIC SEIZURES (PREVENTATIVE)', 'PRIMARY GENERALISED TONIC-CLONIC SEIZURES (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PARTIAL-ONSET SEIZURES WITH OR WITHOUT SECONDARY GENERALISATION (PREVENTATIVE)', 'MYOCLONIC SEIZURES (PREVENTATIVE)', 'PRIMARY GENERALISED TONIC-CLONIC SEIZURES (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -11821,7 +11826,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t xml:space="preserve">['GASTROINTESTINAL STROMAL TUMOURS (GIST) (PDGFRA D842V MUTATION)'] 
+          <t xml:space="preserve">['GASTROINTESTINAL STROMAL TUMOURS (GIST) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -12055,7 +12060,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MULTIDRUG RESISTANT HIV 1 INFECTION'] 
+          <t xml:space="preserve">['HIV 1 INFECTION'] 
 </t>
         </is>
       </c>
@@ -12073,7 +12078,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARTIAL ONSET SEIZURES (PREVENTATIVE)', 'SECONDARY GENERALISATION (PREVENTATIVE)', 'MYOCLONIC SEIZURES (PREVENTATIVE)', 'PRIMARY GENERALISED TONIC-CLONIC SEIZURES (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PARTIAL ONSET SEIZURES (PREVENTATIVE)', 'SECONDARY GENERALISATION (PREVENTATIVE)', 'MYOCLONIC SEIZURES (PREVENTATIVE)', 'JUVENILE MYOCLONIC EPILEPSY (PREVENTATIVE)', 'PRIMARY GENERALISED TONIC-CLONIC SEIZURES (PREVENTATIVE)', 'IDIOPATHIC GENERALISED EPILEPSY (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -12181,7 +12186,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ATHEROTHROMBOTIC EVENTS (PREVENTATIVE)', 'ACUTE CORONARY SYNDROME (ACS)', 'CORONARY ARTERY DISEASE (CAD)', 'SYMPTOMATIC PERIPHERAL ARTERY DISEASE (PAD)', 'ISCHAEMIC EVENTS (PREVENTATIVE)', 'VENOUS THROMBOEMBOLISM (VTE) (PREVENTATIVE)', 'DEEP VEIN THROMBOSIS (DVT)', 'PULMONARY EMBOLISM (PE)', 'RECURRENT DVT (PREVENTATIVE)', 'RECURRENT PE (PREVENTATIVE)', 'STROKE (PREVENTATIVE)', 'SYSTEMIC EMBOLISM (PREVENTATIVE)', 'NON-VALVULAR ATRIAL FIBRILLATION', 'CONGESTIVE HEART FAILURE', 'HYPERTENSION', 'DIABETES MELLITUS', 'PRIOR STROKE', 'TRANSIENT ISCHAEMIC ATTACK'] 
+          <t xml:space="preserve">['ATHEROTHROMBOTIC EVENTS (PREVENTATIVE)', 'ACUTE CORONARY SYNDROME (ACS) (PREVENTATIVE)', 'CORONARY ARTERY DISEASE (CAD) (PREVENTATIVE)', 'SYMPTOMATIC PERIPHERAL ARTERY DISEASE (PAD) (PREVENTATIVE)', 'VENOUS THROMBOEMBOLISM (VTE) (PREVENTATIVE)', 'DEEP VEIN THROMBOSIS (DVT)', 'PULMONARY EMBOLISM (PE)', 'RECURRENT DVT (PREVENTATIVE)', 'RECURRENT PE (PREVENTATIVE)', 'STROKE (PREVENTATIVE)', 'SYSTEMIC EMBOLISM (PREVENTATIVE)', 'NON-VALVULAR ATRIAL FIBRILLATION (PREVENTATIVE)', 'CONGESTIVE HEART FAILURE (RISK FACTOR)', 'HYPERTENSION (RISK FACTOR)', 'DIABETES MELLITUS (RISK FACTOR)', 'PRIOR STROKE (RISK FACTOR)', 'TRANSIENT ISCHEMIC ATTACK (RISK FACTOR)', 'VENOUS THROMBOEMBOLISM (VTE) (PREVENTATIVE)', 'RECURRENT VTE (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -12271,7 +12276,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t xml:space="preserve">['LOWER RESPIRATORY TRACT DISEASE CAUSED BY RESPIRATORY SYNCYTIAL VIRUS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['LOWER RESPIRATORY TRACT DISEASE (LRTD) CAUSED BY RESPIRATORY SYNCYTIAL VIRUS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -12307,7 +12312,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARTIAL-ONSET SEIZURES WITH OR WITHOUT SECONDARY GENERALISATION (PREVENTATIVE)', 'JUVENILE MYOCLONIC EPILEPSY', 'MYOCLONIC SEIZURES (PREVENTATIVE)', 'IDIOPATHIC GENERALISED EPILEPSY', 'PRIMARY GENERALISED TONIC-CLONIC SEIZURES (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PARTIAL-ONSET SEIZURES (PREVENTATIVE)', 'SECONDARY GENERALISATION (PREVENTATIVE)', 'MYOCLONIC SEIZURES (PREVENTATIVE)', 'PRIMARY GENERALISED TONIC-CLONIC SEIZURES (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -12343,7 +12348,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARTIAL-ONSET SEIZURES (PREVENTATIVE)', 'SECONDARY GENERALISATION SEIZURES (PREVENTATIVE)', 'MYOCLONIC SEIZURES (PREVENTATIVE)', 'PRIMARY GENERALISED TONIC-CLONIC SEIZURES (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PARTIAL-ONSET SEIZURES (PREVENTATIVE)', 'SECONDARY GENERALISATION (PREVENTATIVE)', 'MYOCLONIC SEIZURES (PREVENTATIVE)', 'JUVENILE MYOCLONIC EPILEPSY (PREVENTATIVE)', 'PRIMARY GENERALISED TONIC-CLONIC SEIZURES (PREVENTATIVE)', 'IDIOPATHIC GENERALISED EPILEPSY (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -12397,7 +12402,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ALZHEIMER'S DEMENTIA', 'DEMENTIA IN PATIENTS WITH IDIOPATHIC PARKINSON'S DISEASE'] 
+          <t xml:space="preserve">['ALZHEIMER'S DEMENTIA', 'PARKINSON'S DISEASE'] 
 </t>
         </is>
       </c>
@@ -12415,7 +12420,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t xml:space="preserve">['NEUROMUSCULAR BLOCKADE INDUCED BY ROCURONIUM (ADULT)', 'NEUROMUSCULAR BLOCKADE INDUCED BY VECURONIUM (ADULT)', 'NEUROMUSCULAR BLOCKADE INDUCED BY ROCURONIUM (PAEDIATRIC, 2-17 YEARS)'] 
+          <t xml:space="preserve">['NEUROMUSCULAR BLOCKADE (INDUCED BY ROCURONIUM OR VECURONIUM)'] 
 </t>
         </is>
       </c>
@@ -12433,7 +12438,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARTIAL ONSET SEIZURES WITH OR WITHOUT SECONDARY GENERALISATION (PREVENTATIVE)', 'MYOCLONIC SEIZURES (PREVENTATIVE)', 'PRIMARY GENERALISED TONIC-CLONIC SEIZURES (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PARTIAL ONSET SEIZURES (PREVENTATIVE)', 'SECONDARY GENERALISATION SEIZURES (PREVENTATIVE)', 'MYOCLONIC SEIZURES (PREVENTATIVE)', 'PRIMARY GENERALISED TONIC-CLONIC SEIZURES (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -12451,7 +12456,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t xml:space="preserve">['NON-SMALL CELL LUNG CANCER (NSCLC) (EGFR TKI-NAÏVE) (ACTIVATING EGFR MUTATIONS)', 'NON-SMALL CELL LUNG CANCER (NSCLC) (SQUAMOUS HISTOLOGY) (PROGRESSING ON OR AFTER PLATINUM-BASED CHEMOTHERAPY)'] 
+          <t xml:space="preserve">['NON-SMALL CELL LUNG CANCER (NSCLC) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -12469,7 +12474,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARTIAL-ONSET SEIZURES (PREVENTATIVE)', 'SECONDARY GENERALISATION SEIZURES (PREVENTATIVE)', 'MYOCLONIC SEIZURES (PREVENTATIVE)', 'PRIMARY GENERALISED TONIC-CLONIC SEIZURES (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PARTIAL-ONSET SEIZURES WITH OR WITHOUT SECONDARY GENERALISATION (PREVENTATIVE)', 'JUVENILE MYOCLONIC EPILEPSY', 'MYOCLONIC SEIZURES (PREVENTATIVE)', 'IDIOPATHIC GENERALISED EPILEPSY', 'PRIMARY GENERALISED TONIC-CLONIC SEIZURES (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -12487,7 +12492,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t xml:space="preserve">['INVASIVE ASPERGILLOSIS', 'FUSARIOSIS', 'CHROMOBLASTOMYCOSIS', 'MYCETOMA', 'COCCIDIOIDOMYCOSIS', 'OROPHARYNGEAL CANDIDIASIS', 'INVASIVE FUNGAL INFECTIONS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['INVASIVE ASPERGILLOSIS', 'FUSARIOSIS', 'CHROMOBLASTOMYCOSIS', 'MYCETOMA', 'COCCIDIOIDOMYCOSIS', 'OROPHARYNGEAL CANDIDIASIS', 'INVASIVE FUNGAL INFECTIONS (PREVENTATIVE)', 'ACUTE MYELOGENOUS LEUKAEMIA (AML) (PREVENTATIVE)', 'MYELODYSPLASTIC SYNDROMES (MDS) (PREVENTATIVE)', 'HEMATOPOIETIC STEM CELL TRANSPLANT (HSCT) (PREVENTATIVE)', 'GRAFT VERSUS HOST DISEASE (GVHD) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -12505,7 +12510,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t xml:space="preserve">['GLIOBLASTOMA MULTIFORME (NEWLY DIAGNOSED)', 'GLIOBLASTOMA MULTIFORME (RECURRENT/PROGRESSIVE)', 'ANAPLASTIC ASTROCYTOMA (RECURRENT/PROGRESSIVE)'] 
+          <t xml:space="preserve">['GLIOBLASTOMA MULTIFORME', 'ANAPLASTIC ASTROCYTOMA', 'MALIGNANT GLIOMA'] 
 </t>
         </is>
       </c>
@@ -12523,7 +12528,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CYTOMEGALOVIRUS (CMV) REACTIVATION (PREVENTATIVE)', 'CYTOMEGALOVIRUS (CMV) DISEASE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['CYTOMEGALOVIRUS REACTIVATION (PREVENTATIVE)', 'CYTOMEGALOVIRUS DISEASE (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -12559,7 +12564,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HAEMOPHILIA B (CONGENITAL FACTOR IX DEFICIENCY)'] 
+          <t xml:space="preserve">['HAEMOPHILIA B (CONGENITAL FACTOR IX DEFICIENCY) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -12577,7 +12582,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ANXIETY (PREVENTATIVE)', 'DELIRIUM (PREVENTATIVE)', 'AGITATION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ANXIETY (PREVENTATIVE)', 'DELIRIUM (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -12613,7 +12618,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t xml:space="preserve">['NEOVASCULAR (WET) AGE-RELATED MACULAR DEGENERATION (AMD)', 'DIABETIC MACULAR OEDEMA (DME)', 'PROLIFERATIVE DIABETIC RETINOPATHY (PDR)', 'VISUAL IMPAIRMENT DUE TO MACULAR OEDEMA SECONDARY TO RETINAL VEIN OCCLUSION (BRANCH RVO OR CENTRAL RVO)', 'VISUAL IMPAIRMENT DUE TO CHOROIDAL NEOVASCULARISATION (CNV)'] 
+          <t xml:space="preserve">['NEOVASCULAR (WET) AGE-RELATED MACULAR DEGENERATION (AMD)', 'DIABETIC MACULAR OEDEMA (DME)', 'PROLIFERATIVE DIABETIC RETINOPATHY (PDR)', 'VISUAL IMPAIRMENT DUE TO MACULAR OEDEMA SECONDARY TO RETINAL VEIN OCCLUSION (BRANCH RVO OR CENTRAL RVO)', 'CHOROIDAL NEOVASCULARISATION (CNV)'] 
 </t>
         </is>
       </c>
@@ -12631,7 +12636,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC NEUROLOGICAL DISORDERS'] 
+          <t xml:space="preserve">['CEREBRAL PALSY', 'AUTISM SPECTRUM DISORDER', 'SPINA BIFIDA', 'MUSCULAR DYSTROPHY', 'BRAIN INJURY', 'STROKE'] 
 </t>
         </is>
       </c>
@@ -12649,7 +12654,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t xml:space="preserve">['INVASIVE ASPERGILLOSIS', 'CANDIDAEMIA', 'FLUCONAZOLE-RESISTANT SERIOUS INVASIVE CANDIDA INFECTIONS', 'SERIOUS FUNGAL INFECTIONS CAUSED BY SCEDOSPORIUM SPP.', 'SERIOUS FUNGAL INFECTIONS CAUSED BY FUSARIUM SPP.', 'INVASIVE FUNGAL INFECTIONS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['INVASIVE ASPERGILLOSIS', 'CANDIDAEMIA', 'FLUCONAZOLE-RESISTANT SERIOUS INVASIVE CANDIDA INFECTIONS', 'SERIOUS FUNGAL INFECTIONS CAUSED BY SCEDOSPORIUM SPP. AND FUSARIUM SPP.', 'INVASIVE FUNGAL INFECTIONS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -12775,7 +12780,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SCHIZOPHRENIA'] 
+          <t xml:space="preserve">['SCHIZOPHRENIA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -12829,7 +12834,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t xml:space="preserve">['AROMATIC L AMINO ACID DECARBOXYLASE (AADC) DEFICIENCY'] 
+          <t xml:space="preserve">['AROMATIC L AMINO ACID DECARBOXYLASE (AADC) DEFICIENCY (SEVERE PHENOTYPE)'] 
 </t>
         </is>
       </c>
@@ -12847,7 +12852,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ALZHEIMER'S DEMENTIA', 'PARKINSON'S DISEASE'] 
+          <t xml:space="preserve">['ALZHEIMER\'S DEMENTIA', 'PARKINSON\'S DISEASE'] 
 </t>
         </is>
       </c>
@@ -12865,7 +12870,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ANEMIA (CKD)'] 
+          <t xml:space="preserve">['ANAEMIA ASSOCIATED WITH CHRONIC KIDNEY DISEASE (CKD)'] 
 </t>
         </is>
       </c>
@@ -12901,7 +12906,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t xml:space="preserve">['EPILEPSY (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PARTIAL SEIZURES (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -12937,7 +12942,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t xml:space="preserve">['NEUROENDOCRINE TUMOURS', 'PROSTATE CANCER', 'MICROMETASTASES (PREVENTATIVE)'] 
+          <t xml:space="preserve">['NEUROENDOCRINE TUMORS (NETS)', 'MICROMETASTASES (PREVENTATIVE)', 'LYMPHOMA', 'BREAST CANCER', 'PROSTATE CANCER', 'BONE METASTASES (PAIN RELIEF)', 'SOFT TISSUE SARCOMA'] 
 </t>
         </is>
       </c>
@@ -12991,7 +12996,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS'] 
 </t>
         </is>
       </c>
@@ -13009,7 +13014,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BREAST CANCER (LOCALLY ADVANCED OR METASTATIC)'] 
+          <t xml:space="preserve">['BREAST CANCER (METASTATIC)', 'BREAST CANCER (LOCALLY ADVANCED)'] 
 </t>
         </is>
       </c>
@@ -13027,7 +13032,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CARDIOVASCULAR DISEASE', 'ABNORMALITIES IN CEREBRAL ARTERIES', 'ABNORMALITIES IN EXTRACRANIAL CAROTID ARTERIES', 'ABNORMALITIES IN PERIPHERAL ARTERIES', 'VESICOURETERAL REFLUX (PREVENTATIVE)', 'DIAGNOSTIC/CONTRAST/RADIOLABEL'] 
+          <t xml:space="preserve">['CARDIOVASCULAR DISEASE', 'CEREBRAL ARTERIES ABNORMALITIES (DIAGNOSTIC/CONTRAST/RADIOLABEL)', 'EXTRACRANIAL CAROTID ARTERIES ABNORMALITIES (DIAGNOSTIC/CONTRAST/RADIOLABEL)', 'PERIPHERAL ARTERIES ABNORMALITIES (DIAGNOSTIC/CONTRAST/RADIOLABEL)', 'PORTAL VEIN ASSESSMENT (DIAGNOSTIC/CONTRAST/RADIOLABEL)', 'LIVER LESIONS (DIAGNOSTIC/CONTRAST/RADIOLABEL)', 'BREAST LESIONS (DIAGNOSTIC/CONTRAST/RADIOLABEL)', 'VESICOURETERAL REFLUX (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -13045,7 +13050,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MIGRAINE', 'MIGRAINE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MIGRAINE', 'MIGRAINE WITH AURA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -13099,7 +13104,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t xml:space="preserve">['NEUROTROPHIC KERATITIS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['NEUROTROPHIC KERATITIS'] 
 </t>
         </is>
       </c>
@@ -13117,7 +13122,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PROSTATE CANCER (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PROSTATE CANCER'] 
 </t>
         </is>
       </c>
@@ -13135,7 +13140,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BONE METASTASIS (PREVENTATIVE)', 'TUMOUR-INDUCED HYPERCALCAEMIA'] 
+          <t xml:space="preserve">['ADVANCED MALIGNANCIES INVOLVING BONE (PREVENTATIVE)', 'PATHOLOGICAL FRACTURES (PREVENTATIVE)', 'SPINAL COMPRESSION (PREVENTATIVE)', 'RADIATION OR SURGERY TO BONE (PREVENTATIVE)', 'TUMOUR-INDUCED HYPERCALCAEMIA'] 
 </t>
         </is>
       </c>
@@ -13153,7 +13158,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ERECTILE DYSFUNCTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ERECTILE DYSFUNCTION (ED)'] 
 </t>
         </is>
       </c>
@@ -13171,7 +13176,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ALLERGIC RHINITIS (PREVENTATIVE)', 'URTICARIA'] 
+          <t xml:space="preserve">['ALLERGIC RHINITIS (PREVENTATIVE)', 'URTICARIA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -13189,7 +13194,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS'] 
 </t>
         </is>
       </c>
@@ -13423,7 +13428,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SEVERE LUTEINISING-HORMONE (LH) AND FOLLICLE-STIMULATING-HORMONE DEFICIENCY (PREVENTATIVE)'] 
+          <t xml:space="preserve">['LUTEINISING-HORMONE (LH) DEFICIENCY', 'FOLLICLE-STIMULATING-HORMONE DEFICIENCY'] 
 </t>
         </is>
       </c>
@@ -13459,7 +13464,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS'] 
 </t>
         </is>
       </c>
@@ -13566,7 +13571,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MALIGNANCY (EXCEPT CHRONIC MYELOID LEUKEMIA AND MYELODYSPLASTIC SYNDROMES) (PREVENTATIVE)', 'BONE-MARROW TRANSPLANTATION (PREVENTATIVE)', 'SEVERE CONGENITAL, CYCLIC, OR IDIOPATHIC NEUTROPENIA', 'ADVANCED HIV INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MALIGNANCY (EXCLUDING CHRONIC MYELOID LEUKAEMIA AND MYELODYSPLASTIC SYNDROMES) (PREVENTATIVE)', 'BONE-MARROW TRANSPLANTATION (PREVENTATIVE)', 'SEVERE CONGENITAL, CYCLIC, OR IDIOPATHIC NEUTROPENIA', 'ADVANCED HIV INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -13584,7 +13589,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SEVERE EOSINOPHILIC ASTHMA'] 
+          <t xml:space="preserve">['SEVERE EOSINOPHILIC ASTHMA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -13728,7 +13733,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ACUTE PROMYELOCYTIC LEUKAEMIA (APL)']
+          <t xml:space="preserve">['ACUTE PROMYELOCYTIC LEUKAEMIA (APL) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -13782,7 +13787,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS (HIV-1) INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HIV-1 (HUMAN IMMUNODEFICIENCY VIRUS)'] 
 </t>
         </is>
       </c>
@@ -13800,7 +13805,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t xml:space="preserve">['GASTROESOPHAGEAL REFLUX DISEASE (GERD)'] 
+          <t xml:space="preserve">['GASTROESOPHAGEAL REFLUX DISEASE (GERD) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -13836,7 +13841,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t xml:space="preserve">['GASTROESOPHAGEAL REFLUX DISEASE (GERD)', 'HEARTBURN', 'ACID REGURGITATION'] 
+          <t xml:space="preserve">['GASTROESOPHAGEAL REFLUX DISEASE (GERD)'] 
 </t>
         </is>
       </c>
@@ -13872,7 +13877,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t xml:space="preserve">['INVASIVE DISEASE CAUSED BY STREPTOCOCCUS PNEUMONIAE (PREVENTATIVE)', 'ACUTE OTITIS MEDIA CAUSED BY STREPTOCOCCUS PNEUMONIAE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['INVASIVE PNEUMOCOCCAL DISEASE (PREVENTATIVE)', 'ACUTE OTITIS MEDIA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -13908,7 +13913,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HEPATITIS A (PREVENTATIVE)', 'HEPATITIS B (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HEPATITIS-A (PREVENTATIVE)', 'HEPATITIS-B (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -13926,7 +13931,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PULMONARY ARTERIAL HYPERTENSION (PAH)', 'IDIOPATHIC PAH (IPAH)', 'PAH ASSOCIATED WITH CONNECTIVE TISSUE DISEASE'] 
+          <t xml:space="preserve">['PULMONARY ARTERIAL HYPERTENSION (PAH)'] 
 </t>
         </is>
       </c>
@@ -13944,7 +13949,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t xml:space="preserve">['IRRITABLE BOWEL SYNDROME WITH CONSTIPATION (IBS-C)'] 
+          <t xml:space="preserve">['IRRITABLE-BOWEL SYNDROME WITH CONSTIPATION (IBS-C)'] 
 </t>
         </is>
       </c>
@@ -13980,7 +13985,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MALIGNANCY (EXCEPT CHRONIC MYELOID LEUKEMIA AND MYELODYSPLASTIC SYNDROMES) (PREVENTATIVE)', 'BONE-MARROW TRANSPLANTATION (PREVENTATIVE)', 'SEVERE CONGENITAL, CYCLIC, OR IDIOPATHIC NEUTROPENIA (PREVENTATIVE)', 'ADVANCED HIV INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MALIGNANCY (EXCLUDING CHRONIC MYELOID LEUKEMIA AND MYELODYSPLASTIC SYNDROMES) (PREVENTATIVE)', 'BONE-MARROW TRANSPLANTATION (PREVENTATIVE)', 'SEVERE CONGENITAL, CYCLIC, OR IDIOPATHIC NEUTROPENIA (PREVENTATIVE)', 'ADVANCED HIV INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -13998,7 +14003,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS (HIV-1) INFECTION'] 
+          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS (HIV-1) INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -14016,7 +14021,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CERVICAL PREMALIGNANT LESIONS (PREVENTATIVE)', 'VULVAR PREMALIGNANT LESIONS (PREVENTATIVE)', 'VAGINAL PREMALIGNANT LESIONS (PREVENTATIVE)', 'ANAL PREMALIGNANT LESIONS (PREVENTATIVE)', 'CERVICAL CANCER (PREVENTATIVE)', 'ANAL CANCER (PREVENTATIVE)'] 
+          <t xml:space="preserve">['CERVICAL CANCER (PREVENTATIVE)', 'ANAL CANCER (PREVENTATIVE)', 'PREMALIGNANT ANO-GENITAL LESIONS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -14160,7 +14165,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SECONDARY HYPERPARATHYROIDISM (PREVENTATIVE)', 'PARATHYROID CARCINOMA', 'PRIMARY HYPERPARATHYROIDISM'] 
+          <t xml:space="preserve">['SECONDARY HYPERPARATHYROIDISM (HPT)', 'PARATHYROID CARCINOMA', 'PRIMARY HYPERPARATHYROIDISM (HPT)'] 
 </t>
         </is>
       </c>
@@ -14304,7 +14309,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HAEMOSTASIS', 'TISSUE SEALING', 'CEREBROSPINAL LEAKAGE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HAEMOSTASIS', 'CEREBROSPINAL LEAKAGE (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -14322,7 +14327,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HORMONE DEPENDENT ADVANCED PROSTATE CANCER', 'HIGH-RISK LOCALISED AND LOCALLY ADVANCED HORMONE DEPENDENT PROSTATE CANCER (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PROSTATE CANCER (HORMONE DEPENDENT, ADVANCED)', 'PROSTATE CANCER (HORMONE DEPENDENT, HIGH-RISK LOCALISED)', 'PROSTATE CANCER (HORMONE DEPENDENT, LOCALLY ADVANCED) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -14412,7 +14417,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BLEEDING (PREVENTATIVE)']
+          <t xml:space="preserve">['BLEEDING (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -14430,7 +14435,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BREAST CANCER'] 
+          <t xml:space="preserve">['BREAST CANCER (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -14448,7 +14453,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t xml:space="preserve">['OBESITY (PREVENTATIVE)'] 
+          <t xml:space="preserve">['OBESITY (PREVENTATIVE)']
 </t>
         </is>
       </c>
@@ -14556,7 +14561,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ACID SPHINGOMYELINASE DEFICIENCY (ASMD) (TYPE A/B OR TYPE B)'] 
+          <t xml:space="preserve">['ACID SPHINGOMYELINASE DEFICIENCY (ASMD)'] 
 </t>
         </is>
       </c>
@@ -14628,7 +14633,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t xml:space="preserve">['UTERINE FIBROIDS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['UTERINE FIBROIDS'] 
 </t>
         </is>
       </c>
@@ -14718,7 +14723,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'ANKYLOSING SPONDYLITIS (AS)', 'AXIAL SPONDYLOARTHRITIS WITHOUT RADIOGRAPHIC EVIDENCE OF AS', 'PSORIATIC ARTHRITIS'] 
+          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'ANKYLOSING SPONDYLITIS', 'AXIAL SPONDYLOARTHRITIS WITHOUT RADIOGRAPHIC EVIDENCE OF AS', 'PSORIATIC ARTHRITIS'] 
 </t>
         </is>
       </c>
@@ -14772,7 +14777,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MULTI-DRUG RESISTANT TUBERCULOSIS'] 
+          <t xml:space="preserve">['MULTI-DRUG RESISTANT TUBERCULOSIS (MDR-TB)'] 
 </t>
         </is>
       </c>
@@ -14808,7 +14813,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SECONDARY HYPERPARATHYROIDISM (HPT) (PREVENTATIVE)', 'HYPERCALCAEMIA', 'PARATHYROID CARCINOMA', 'PRIMARY HPT (PREVENTATIVE)'] 
+          <t xml:space="preserve">['SECONDARY HYPERPARATHYROIDISM (HPT) (PREVENTATIVE)', 'HYPERCALCAEMIA'] 
 </t>
         </is>
       </c>
@@ -14826,7 +14831,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HYPERKALAEMIA'] 
+          <t xml:space="preserve">['HYPERKALEMIA'] 
 </t>
         </is>
       </c>
@@ -14880,7 +14885,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t xml:space="preserve">['THERMAL BURNS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['DEEP PARTIAL-THICKNESS THERMAL BURNS', 'FULL-THICKNESS THERMAL BURNS'] 
 </t>
         </is>
       </c>
@@ -14934,7 +14939,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS 1 (HIV-1) INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS 1 (HIV-1) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -15006,7 +15011,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS (HIV) INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HIV INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -15078,7 +15083,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t xml:space="preserve">['UNSTABLE ANGINA (PREVENTATIVE)', 'NON-Q-WAVE MYOCARDIAL INFARCTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['UNSTABLE ANGINA (PREVENTATIVE)', 'NON-Q-WAVE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'MYOCARDIAL INFARCTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -15114,7 +15119,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HYPOXIC RESPIRATORY FAILURE (PREVENTATIVE)', 'PULMONARY HYPERTENSION', 'PERI- AND POST-OPERATIVE PULMONARY HYPERTENSION'] 
+          <t xml:space="preserve">['HYPOXIC RESPIRATORY FAILURE (ASSOCIATED WITH CLINICAL OR ECHOCARDIOGRAPHIC EVIDENCE OF PULMONARY HYPERTENSION) (NEWBORN INFANTS ≥34 WEEKS GESTATION)', 'PULMONARY HYPERTENSION (PERI- AND POST-OPERATIVE) (ADULTS AND NEWBORN INFANTS, INFANTS AND TODDLERS, CHILDREN AND ADOLESCENTS, AGES 0-17 YEARS)'] 
 </t>
         </is>
       </c>
@@ -15132,7 +15137,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PATHOLOGICAL FRACTURES (PREVENTATIVE)', 'SPINAL COMPRESSION (PREVENTATIVE)', 'RADIATION OR SURGERY TO BONE (PREVENTATIVE)', 'TUMOUR-INDUCED HYPERCALCAEMIA', 'TUMOUR-INDUCED HYPERCALCAEMIA (TIH)'] 
+          <t xml:space="preserve">['PATHOLOGICAL FRACTURE (PREVENTATIVE)', 'SPINAL COMPRESSION (PREVENTATIVE)', 'RADIATION OR SURGERY TO BONE (PREVENTATIVE)', 'TUMOUR-INDUCED HYPERCALCAEMIA', 'TUMOUR-INDUCED HYPERCALCAEMIA (TIH)'] 
 </t>
         </is>
       </c>
@@ -15150,7 +15155,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC HYPERURICAEMIA', 'GOUTY ARTHRITIS', 'HYPERURICAEMIA (PREVENTATIVE)', 'TUMOR LYSIS SYNDROME (TLS) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['CHRONIC HYPERURICAEMIA', 'GOUTY ARTHRITIS', 'TUMOR LYSIS SYNDROME (TLS) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -15186,7 +15191,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ROSACEA (SYMPTOMATIC)'] 
+          <t xml:space="preserve">['ROSACEA (FACIAL ERYTHEMA)']
 </t>
         </is>
       </c>
@@ -15204,7 +15209,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ACUTE MYELOID LEUKAEMIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ACUTE MYELOID LEUKEMIA (AML)'] 
 </t>
         </is>
       </c>
@@ -15276,7 +15281,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t xml:space="preserve">['NEOVASCULAR (WET) AGE-RELATED MACULAR DEGENERATION (AMD)', 'DIABETIC MACULAR OEDEMA (DME)', 'PROLIFERATIVE DIABETIC RETINOPATHY (PDR)', 'MACULAR OEDEMA SECONDARY TO RETINAL VEIN OCCLUSION (BRANCH RVO OR CENTRAL RVO)', 'CHOROIDAL NEOVASCULARISATION (CNV)'] 
+          <t xml:space="preserve">['AGE-RELATED MACULAR DEGENERATION (WET)', 'DIABETIC MACULAR OEDEMA', 'PROLIFERATIVE DIABETIC RETINOPATHY', 'MACULAR OEDEMA SECONDARY TO RETINAL VEIN OCCLUSION (BRANCH RVO OR CENTRAL RVO)', 'CHOROIDAL NEOVASCULARISATION (CNV)'] 
 </t>
         </is>
       </c>
@@ -15312,7 +15317,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t xml:space="preserve">['COMPLICATED INTRA ABDOMINAL INFECTIONS', 'ACUTE PYELONEPHRITIS', 'COMPLICATED URINARY TRACT INFECTIONS', 'HOSPITAL-ACQUIRED PNEUMONIA (HAP)', 'VENTILATOR ASSOCIATED PNEUMONIA (VAP)'] 
+          <t xml:space="preserve">['COMPLICATED INTRA-ABDOMINAL INFECTIONS', 'ACUTE PYELONEPHRITIS', 'COMPLICATED URINARY TRACT INFECTIONS', 'HOSPITAL-ACQUIRED PNEUMONIA (HAP)', 'VENTILATOR ASSOCIATED PNEUMONIA (VAP)'] 
 </t>
         </is>
       </c>
@@ -15348,7 +15353,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MULTIPLE SCLEROSIS (RELAPSING REMITTING)', 'ULCERATIVE COLITIS'] 
+          <t xml:space="preserve">['MULTIPLE SCLEROSIS', 'ULCERATIVE COLITIS'] 
 </t>
         </is>
       </c>
@@ -15492,7 +15497,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t xml:space="preserve">['METASTATIC CARCINOMA OF THE COLON', 'METASTATIC CARCINOMA OF THE RECTUM', 'METASTATIC BREAST CANCER', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NON-SMALL CELL LUNG CANCER', 'ADVANCED AND/OR METASTATIC RENAL CELL CANCER', 'ADVANCED (INTERNATIONAL FEDERATION OF GYNECOLOGY AND OBSTETRICS (FIGO) STAGES III B, III C AND IV) EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'FIRST RECURRENCE OF PLATINUM-SENSITIVE EPITHELIAL OVARIAN, FALLOPIAN TUBE OR PRIMARY PERITONEAL CANCER', 'PLATINUM-RESISTANT RECURRENT EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'PERSISTENT, RECURRENT, OR METASTATIC CARCINOMA OF THE CERVIX'] 
+          <t xml:space="preserve">['METASTATIC CARCINOMA OF THE COLON OR RECTUM', 'METASTATIC BREAST CANCER', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NON-SMALL CELL LUNG CANCER OTHER THAN PREDOMINANTLY SQUAMOUS CELL HISTOLOGY', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NON-SQUAMOUS NON-SMALL CELL LUNG CANCER WITH EPIDERMAL GROWTH FACTOR RECEPTOR (EGFR) ACTIVATING MUTATIONS', 'ADVANCED AND/OR METASTATIC RENAL CELL CANCER', 'ADVANCED (INTERNATIONAL FEDERATION OF GYNECOLOGY AND OBSTETRICS (FIGO) STAGES III B, III C AND IV) EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'FIRST RECURRENCE OF PLATINUM-SENSITIVE EPITHELIAL OVARIAN, FALLOPIAN TUBE OR PRIMARY PERITONEAL CANCER', 'PLATINUM-RESISTANT RECURRENT EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'PERSISTENT, RECURRENT, OR METASTATIC CARCINOMA OF THE CERVIX'] 
 </t>
         </is>
       </c>
@@ -15510,7 +15515,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PULMONARY ARTERIAL HYPERTENSION (WHO FUNCTIONAL CLASS II AND III)', 'PRIMARY PULMONARY HYPERTENSION', 'PULMONARY HYPERTENSION ASSOCIATED WITH CONNECTIVE TISSUE DISEASE', 'PULMONARY HYPERTENSION ASSOCIATED WITH CONGENITAL HEART DISEASE'] 
+          <t xml:space="preserve">['PULMONARY ARTERIAL HYPERTENSION (WHO FUNCTIONAL CLASS II AND III)', 'PRIMARY PULMONARY HYPERTENSION', 'PULMONARY HYPERTENSION ASSOCIATED WITH CONNECTIVE TISSUE DISEASE', 'PULMONARY ARTERIAL HYPERTENSION (PRIMARY)', 'PULMONARY HYPERTENSION ASSOCIATED WITH CONGENITAL HEART DISEASE'] 
 </t>
         </is>
       </c>
@@ -15546,7 +15551,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS', 'CHRONIC HEART FAILURE WITH REDUCED EJECTION FRACTION', 'CHRONIC KIDNEY DISEASE'] 
+          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS', 'HEART FAILURE (CHRONIC, REDUCED EJECTION FRACTION)', 'CHRONIC KIDNEY DISEASE'] 
 </t>
         </is>
       </c>
@@ -15636,7 +15641,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'JUVENILE IDIOPATHIC ARTHRITIS (JIA)', 'PSORIASIS', 'PSORIATIC ARTHRITIS', 'ACUTE LYMPHOBLASTIC LEUKAEMIA (ALL)'] 
+          <t xml:space="preserve">['ACTIVE RHEUMATOID ARTHRITIS', 'JUVENILE IDIOPATHIC ARTHRITIS (JIA) (PREVENTATIVE)', 'PSORIASIS (PREVENTATIVE)', 'PSORIATIC ARTHRITIS', 'ACUTE LYMPHOBLASTIC LEUKAEMIA (ALL) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -15690,7 +15695,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HYPERKALAEMIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HYPERKALEMIA'] 
 </t>
         </is>
       </c>
@@ -15762,7 +15767,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t xml:space="preserve">['COLON CANCER (PREVENTATIVE)', 'COLORECTAL CANCER', 'GASTRIC CANCER', 'BREAST CANCER'] 
+          <t xml:space="preserve">['COLON CANCER (PREVENTATIVE)', 'METASTATIC COLORECTAL CANCER', 'ADVANCED GASTRIC CANCER', 'LOCALLY ADVANCED OR METASTATIC BREAST CANCER', 'LOCALLY ADVANCED OR METASTATIC BREAST CANCER'] 
 </t>
         </is>
       </c>
@@ -15780,7 +15785,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ENDOMETRIOSIS (PREVENTATIVE)', 'DYSMENORRHEA (PREVENTATIVE)', 'POLYCYSTIC OVARY SYNDROME (PCOS) (PREVENTATIVE)', 'OVARIAN CYSTS (PREVENTATIVE)', 'ECTOPIC PREGNANCY (PREVENTATIVE)', 'UTERINE FIBROIDS (PREVENTATIVE)', 'PELVIC INFLAMMATORY DISEASE (PID) (PREVENTATIVE)', 'ACNE (PREVENTATIVE)', 'HIRSUTISM (PREVENTATIVE)', 'PREMENSTRUAL DYSPHORIC DISORDER (PMDD) (PREVENTATIVE)', 'ENDOMETRIAL CANCER (PREVENTATIVE)', 'OVARIAN CANCER (PREVENTATIVE)', 'COLORECTAL CANCER (PREVENTATIVE)', 'BREAST CANCER (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ACNE (PREVENTATIVE)', 'ENDOMETRIOSIS (PREVENTATIVE)', 'DYSMENORRHEA (PREVENTATIVE)', 'OVARIAN CYSTS (PREVENTATIVE)', 'ECTOPIC PREGNANCY (PREVENTATIVE)', 'PELVIC INFLAMMATORY DISEASE (PREVENTATIVE)', 'UTERINE FIBROIDS (PREVENTATIVE)', 'CANCER OF THE OVARY, ENDOMETRIUM, AND COLON (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -15798,7 +15803,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BREAST CANCER (PREVENTATIVE)', 'LUNG CANCER (PREVENTATIVE)', 'COLORECTAL CANCER (PREVENTATIVE)', 'OVARIAN CANCER (PREVENTATIVE)', 'NON-HODGKIN LYMPHOMA (PREVENTATIVE)', 'MULTIPLE MYELOMA (PREVENTATIVE)', 'SMALL-CELL LUNG CANCER (PREVENTATIVE)', 'GASTRIC CANCER (PREVENTATIVE)', 'HEAD AND NECK CANCER (PREVENTATIVE)', 'ACUTE LYMPHOBLASTIC LEUKEMIA (PREVENTATIVE)', 'ACUTE MYELOID LEUKEMIA (PREVENTATIVE)', 'HODGKIN LYMPHOMA (PREVENTATIVE)', 'BLADDER CANCER (PREVENTATIVE)', 'CERVICAL CANCER (PREVENTATIVE)', 'MELANOMA (PREVENTATIVE)', 'RENAL CELL CARCINOMA (PREVENTATIVE)', 'PANCREATIC CANCER (PREVENTATIVE)', 'ESOPHAGEAL CANCER (PREVENTATIVE)', 'THYROID CANCER (PREVENTATIVE)', 'LIVER CANCER (PREVENTATIVE)', 'UTERINE CANCER (PREVENTATIVE)', 'PROSTATE CANCER (PREVENTATIVE)', 'BRAIN CANCER (PREVENTATIVE)'] 
+          <t xml:space="preserve">['BREAST CANCER (PREVENTATIVE)', 'LUNG CANCER (PREVENTATIVE)', 'COLORECTAL CANCER (PREVENTATIVE)', 'LYMPHOMA (PREVENTATIVE)', 'MULTIPLE MYELOMA (PREVENTATIVE)', 'NON-HODGKIN LYMPHOMA (PREVENTATIVE)', 'OVARIAN CANCER (PREVENTATIVE)', 'GASTRIC CANCER (PREVENTATIVE)', 'HEAD AND NECK CANCER (PREVENTATIVE)', 'MALIGNANT MELANOMA (PREVENTATIVE)', 'PANCREATIC CANCER (PREVENTATIVE)', 'PROSTATE CANCER (PREVENTATIVE)', 'RENAL CELL CARCINOMA (PREVENTATIVE)', 'ACUTE LYMPHOBLASTIC LEUKEMIA (PREVENTATIVE)', 'ACUTE MYELOID LEUKEMIA (PREVENTATIVE)', 'SMALL CELL LUNG CANCER (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -15834,7 +15839,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RELAPSING FORMS OF MULTIPLE SCLEROSIS (RMS) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['RELAPSING FORMS OF MULTIPLE SCLEROSIS (RMS)'] 
 </t>
         </is>
       </c>
@@ -15852,7 +15857,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PH+ ACUTE LYMPHOBLASTIC LEUKAEMIA (ALL) WITH RESISTANCE OR INTOLERANCE TO PRIOR THERAPY', 'PH+ ACUTE LYMPHOBLASTIC LEUKAEMIA (ALL) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PH+ ACUTE LYMPHOBLASTIC LEUKAEMIA (ALL) WITH RESISTANCE OR INTOLERANCE TO PRIOR THERAPY', 'PH+ ALL (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -15888,7 +15893,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HAEMATOLOGICAL DISEASES (PREVENTATIVE)']
+          <t xml:space="preserve">['HAEMATOLOGICAL DISEASES (PREVENTATIVE)', 'SOLID TUMOURS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -15924,7 +15929,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SMALLPOX (PREVENTATIVE)', 'MONKEYPOX (PREVENTATIVE)', 'DISEASE CAUSED BY VACCINIA VIRUS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['SMALLPOX (PREVENTATIVE)', 'MONKEYPOX (PREVENTATIVE)', 'VACCINIA VIRUS DISEASE (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -15978,7 +15983,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t xml:space="preserve">['FEMALE INFERTILITY (PREVENTATIVE)', 'ANOVULATION', 'POLYCYSTIC OVARIAN SYNDROME (PCOS)', 'HYPOGONADOTROPHIC HYPOGONADISM'] 
+          <t xml:space="preserve">['ANOVULATION', 'POLYCYSTIC OVARIAN SYNDROME (PCOS)', 'INFERTILITY (PREVENTATIVE)', 'HYPOGONADOTROPHIC HYPOGONADISM'] 
 </t>
         </is>
       </c>
@@ -16014,7 +16019,8 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>['ACUTE BACTERIAL SKIN AND SKIN STRUCTURE INFECTIONS (ABSSSI)']</t>
+          <t xml:space="preserve">['ACUTE BACTERIAL SKIN AND SKIN STRUCTURE INFECTIONS (ABSSSI)'] 
+</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -16031,7 +16037,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BREAST CANCER (PREVENTATIVE)', 'LUNG CANCER (PREVENTATIVE)', 'LYMPHOMA (PREVENTATIVE)', 'MULTIPLE MYELOMA (PREVENTATIVE)', 'NON-HODGKIN’S LYMPHOMA (PREVENTATIVE)', 'OVARIAN CANCER (PREVENTATIVE)', 'SMALL CELL LUNG CANCER (PREVENTATIVE)', 'COLORECTAL CANCER (PREVENTATIVE)', 'GASTROINTESTINAL CANCER (PREVENTATIVE)', 'HEAD AND NECK CANCER (PREVENTATIVE)', 'ACUTE LYMPHOBLASTIC LEUKEMIA (PREVENTATIVE)', 'ACUTE MYELOID LEUKEMIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ACUTE MYELOID LEUKEMIA (PREVENTATIVE)', 'ACUTE LYMPHOBLASTIC LEUKEMIA (PREVENTATIVE)', 'NON-HODGKIN LYMPHOMA (PREVENTATIVE)', 'HODGKIN LYMPHOMA (PREVENTATIVE)', 'MULTIPLE MYELOMA (PREVENTATIVE)', 'BREAST CANCER (PREVENTATIVE)', 'OVARIAN CANCER (PREVENTATIVE)', 'LUNG CANCER (PREVENTATIVE)', 'COLORECTAL CANCER (PREVENTATIVE)', 'GASTRIC CANCER (PREVENTATIVE)', 'HEAD AND NECK CANCER (PREVENTATIVE)', 'BLADDER CANCER (PREVENTATIVE)', 'KIDNEY CANCER (PREVENTATIVE)', 'MELANOMA (PREVENTATIVE)', 'SARCOMA (PREVENTATIVE)', 'BRAIN CANCER (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -16085,7 +16091,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SECONDARY HYPERPARATHYROIDISM (PREVENTATIVE)', 'PARATHYROID CARCINOMA', 'PRIMARY HYPERPARATHYROIDISM'] 
+          <t xml:space="preserve">['SECONDARY HYPERPARATHYROIDISM (HPT) (PREVENTATIVE)', 'PARATHYROID CARCINOMA', 'PRIMARY HYPERPARATHYROIDISM'] 
 </t>
         </is>
       </c>
@@ -16103,7 +16109,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ACUTE PROMYELOCYTIC LEUKEMIA (APL) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ACUTE PROMYELOCYTIC LEUKAEMIA (APL) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -16121,7 +16127,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC IRON OVERLOAD (PREVENTATIVE)', 'BETA THALASSAEMIA MAJOR'] 
+          <t xml:space="preserve">['CHRONIC IRON OVERLOAD (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -16193,7 +16199,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t xml:space="preserve">['METASTATIC BREAST CANCER', 'EARLY BREAST CANCER', 'METASTATIC GASTRIC CANCER']
+          <t xml:space="preserve">['METASTATIC BREAST CANCER', 'EARLY BREAST CANCER', 'METASTATIC GASTRIC CANCER'] 
 </t>
         </is>
       </c>
@@ -16283,7 +16289,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t xml:space="preserve">['EARLY BREAST CANCER (EBC) (PREVENTATIVE)', 'METASTATIC BREAST CANCER (MBC)']
+          <t xml:space="preserve">['EARLY BREAST CANCER (EBC) (PREVENTATIVE)', 'METASTATIC BREAST CANCER (MBC)'] 
 </t>
         </is>
       </c>
@@ -16337,7 +16343,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARTIAL-ONSET SEIZURES (PREVENTATIVE)', 'SECONDARY GENERALISATION (PREVENTATIVE)', 'MYOCLONIC SEIZURES (PREVENTATIVE)', 'PRIMARY GENERALISED TONIC-CLONIC SEIZURES (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PARTIAL-ONSET SEIZURES WITH OR WITHOUT SECONDARY GENERALISATION (PREVENTATIVE)', 'JUVENILE MYOCLONIC EPILEPSY (PREVENTATIVE)', 'PRIMARY GENERALISED TONIC-CLONIC SEIZURES (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -16355,7 +16361,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t xml:space="preserve">['OBESITY', 'BARDET BIEDL SYNDROME (BBS) (PREVENTATIVE)', 'PRO-OPIOMELANOCORTIN (POMC) DEFICIENCY (PREVENTATIVE)', 'PCSK1 DEFICIENCY (PREVENTATIVE)', 'LEPTIN RECEPTOR (LEPR) DEFICIENCY (PREVENTATIVE)'] 
+          <t xml:space="preserve">['OBESITY (PREVENTATIVE)', 'BARDET-BIEDL SYNDROME', 'PRO-OPIOMELANOCORTIN (POMC) DEFICIENCY (INCLUDING PCSK1 DEFICIENCY)', 'LEPTIN RECEPTOR (LEPR) DEFICIENCY'] 
 </t>
         </is>
       </c>
@@ -16391,7 +16397,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS (HIV) INFECTION'] 
+          <t xml:space="preserve">['HIV INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -16409,7 +16415,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HAEMOPHILIA A (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HAEMOPHILIA A (CONGENITAL FACTOR VIII DEFICIENCY) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -16553,7 +16559,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t xml:space="preserve">['METASTATIC BASAL CELL CARCINOMA', 'LOCALLY ADVANCED BASAL CELL CARCINOMA'] 
+          <t xml:space="preserve">['BASAL CELL CARCINOMA (METASTATIC, SYMPTOMATIC)', 'BASAL CELL CARCINOMA (LOCALLY ADVANCED)'] 
 </t>
         </is>
       </c>
@@ -16589,7 +16595,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PERIPHERAL NEUROPATHIC PAIN', 'CENTRAL NEUROPATHIC PAIN', 'PARTIAL SEIZURES (ADJUNCTIVE THERAPY)', 'GENERALISED ANXIETY DISORDER (GAD)'] 
+          <t xml:space="preserve">['PERIPHERAL NEUROPATHIC PAIN', 'CENTRAL NEUROPATHIC PAIN', 'PARTIAL SEIZURES', 'GENERALISED ANXIETY DISORDER (GAD)'] 
 </t>
         </is>
       </c>
@@ -16643,7 +16649,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t xml:space="preserve">['METASTATIC CARCINOMA OF THE COLON OR RECTUM', 'METASTATIC BREAST CANCER', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NON-SMALL CELL LUNG CANCER OTHER THAN PREDOMINANTLY SQUAMOUS CELL HISTOLOGY', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NON-SQUAMOUS NON-SMALL CELL LUNG CANCER WITH EPIDERMAL GROWTH FACTOR RECEPTOR (EGFR) ACTIVATING MUTATIONS', 'ADVANCED AND/OR METASTATIC RENAL CELL CANCER', 'ADVANCED (INTERNATIONAL FEDERATION OF GYNECOLOGY AND OBSTETRICS (FIGO) STAGES III B, III C AND IV) EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'FIRST RECURRENCE OF PLATINUM-SENSITIVE EPITHELIAL OVARIAN, FALLOPIAN TUBE OR PRIMARY PERITONEAL CANCER', 'PLATINUM-RESISTANT RECURRENT EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'PERSISTENT, RECURRENT, OR METASTATIC CARCINOMA OF THE CERVIX'] 
+          <t xml:space="preserve">['METASTATIC CARCINOMA OF THE COLON OR RECTUM', 'METASTATIC BREAST CANCER', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NON-SMALL CELL LUNG CANCER OTHER THAN PREDOMINANTLY SQUAMOUS CELL HISTOLOGY', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NON-SQUAMOUS NON-SMALL CELL LUNG CANCER WITH EPIDERMAL GROWTH FACTOR RECEPTOR (EGFR) ACTIVATING MUTATIONS', 'ADVANCED AND/OR METASTATIC RENAL CELL CANCER', 'ADVANCED (INTERNATIONAL FEDERATION OF GYNECOLOGY AND OBSTETRICS (FIGO) STAGES III B, III C AND IV) EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'FIRST RECURRENCE OF PLATINUM-SENSITIVE EPITHELIAL OVARIAN, FALLOPIAN TUBE OR PRIMARY PERITONEAL CANCER', 'PLATINUM-RESISTANT RECURRENT EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'PERSISTENT, RECURRENT, OR METASTATIC CARCINOMA OF THE CERVIX.'] 
 </t>
         </is>
       </c>
@@ -16715,7 +16721,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ANEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE (CRF) (PREVENTATIVE)', 'ANEMIA IN ADULT PATIENTS WITH NON-MYELOID MALIGNANCIES (PREVENTATIVE)'] 
+          <t xml:space="preserve">['SYMPTOMATIC ANAEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE (CRF) (ADULT AND PAEDIATRIC PATIENTS)', 'SYMPTOMATIC ANAEMIA IN ADULT PATIENTS WITH NON-MYELOID MALIGNANCIES RECEIVING CHEMOTHERAPY', 'THROMBOEMBOLIC EVENTS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -16733,7 +16739,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ACUTE LYMPHOBLASTIC LEUKAEMIA (ALL)'] 
+          <t xml:space="preserve">['ACUTE LYMPHOBLASTIC LEUKEMIA (ALL) (RELAPSED OR REFRACTORY)'] 
 </t>
         </is>
       </c>
@@ -16787,7 +16793,7 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SCHIZOPHRENIA', 'MANIC EPISODE', 'BIPOLAR DISORDER (PREVENTATIVE)'] 
+          <t xml:space="preserve">['SCHIZOPHRENIA', 'BIPOLAR DISORDER (PREVENTATIVE)', 'MANIC EPISODE'] 
 </t>
         </is>
       </c>
@@ -16823,7 +16829,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HIGH RISK METASTATIC HORMONE SENSITIVE PROSTATE CANCER (MHSPC) (PREVENTATIVE)', 'METASTATIC CASTRATION RESISTANT PROSTATE CANCER (MCRPC)'] 
+          <t xml:space="preserve">['PROSTATE CANCER (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -16895,8 +16901,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t xml:space="preserve">['GLIOBLASTOMA MULTIFORME', 'ANAPLASTIC ASTROCYTOMA'] 
-</t>
+          <t>['GLIOBLASTOMA MULTIFORME', 'ANAPLASTIC ASTROCYTOMA']</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
@@ -16931,7 +16936,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC PULMONARY INFECTIONS DUE TO PSEUDOMONAS AERUGINOSA (PREVENTATIVE)', 'CYSTIC FIBROSIS'] 
+          <t xml:space="preserve">['CHRONIC PULMONARY INFECTIONS DUE TO PSEUDOMONAS AERUGINOSA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -16949,7 +16954,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HIV-1 INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS (HIV 1) INFECTION'] 
 </t>
         </is>
       </c>
@@ -16967,7 +16972,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HIV-1 INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS 1 (HIV-1) INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -16985,7 +16990,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HAEMOPHILIA A (CONGENITAL FACTOR-VIII DEFICIENCY) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HAEMOPHILIA A (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -17075,7 +17080,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t xml:space="preserve">['IRON OVERLOAD', 'THALASSAEMIA MAJOR', 'CARDIAC OVERLOAD (PREVENTATIVE)'] 
+          <t xml:space="preserve">['THALASSEMIA MAJOR (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -17111,7 +17116,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CONGENITAL HAEMOPHILIA (WITH INHIBITORS TO COAGULATION FACTORS VIII OR IX) (PREVENTATIVE)', 'CONGENITAL HAEMOPHILIA (HIGH ANAMNESTIC RESPONSE TO FACTOR-VIII OR FACTOR-IX ADMINISTRATION) (PREVENTATIVE)', 'ACQUIRED HAEMOPHILIA', 'CONGENITAL FACTOR-VII DEFICIENCY', "GLANZMANN'S THROMBASTHENIA (WITH ANTIBODIES TO PLATELET GLYCOPROTEIN (GP) IIB-IIIA AND / OR HUMAN LEUCOCYTE ANTIGENS (HLA)) (PREVENTATIVE)", "GLANZMANN’S THROMBASTHENIA (WITH PAST OR PRESENT REFRACTORINESS TO PLATELET TRANSFUSIONS) (PREVENTATIVE)"] 
+          <t xml:space="preserve">['CONGENITAL HAEMOPHILIA WITH INHIBITORS TO COAGULATION FACTORS VIII OR IX (PREVENTATIVE)', 'CONGENITAL HAEMOPHILIA (PREVENTATIVE)', 'ACQUIRED HAEMOPHILIA', 'CONGENITAL FACTOR-VII DEFICIENCY', "GLANZMANN'S THROMBASTHENIA WITH ANTIBODIES TO PLATELET GLYCOPROTEIN (GP) IIB-IIIA AND / OR HUMAN LEUCOCYTE ANTIGENS (HLA) (PREVENTATIVE)", "GLANZMANN’S THROMBASTHENIA (PREVENTATIVE)"] 
 </t>
         </is>
       </c>
@@ -17129,7 +17134,8 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>['FEBRILE NEUTROPENIA (PREVENTATIVE)']</t>
+          <t xml:space="preserve">['FEBRILE NEUTROPENIA (PREVENTATIVE)'] 
+</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
@@ -17146,7 +17152,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BREAST CANCER (PREVENTATIVE)', 'LUNG CANCER (PREVENTATIVE)', 'COLORECTAL CANCER (PREVENTATIVE)', 'GASTRIC CANCER (PREVENTATIVE)', 'OVARIAN CANCER (PREVENTATIVE)', 'NON-SMALL CELL LUNG CANCER (PREVENTATIVE)', 'SMALL CELL LUNG CANCER (PREVENTATIVE)', 'HEAD AND NECK CANCER (PREVENTATIVE)', 'MULTIPLE MYELOMA (PREVENTATIVE)', 'LYMPHOMA (PREVENTATIVE)', 'ACUTE LYMPHOBLASTIC LEUKEMIA (PREVENTATIVE)', 'ACUTE MYELOID LEUKEMIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['BREAST CANCER (PREVENTATIVE)', 'LUNG CANCER (PREVENTATIVE)', 'LYMPHOMA (PREVENTATIVE)', 'NON-SMALL CELL LUNG CANCER (PREVENTATIVE)', 'OVARIAN CANCER (PREVENTATIVE)', 'COLORECTAL CANCER (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -17200,7 +17206,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD)']
+          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD)'] 
 </t>
         </is>
       </c>
@@ -17254,7 +17260,8 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>['ESSENTIAL HYPERTENSION (PREVENTATIVE)']</t>
+          <t xml:space="preserve">['ESSENTIAL HYPERTENSION (PREVENTATIVE)'] 
+</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
@@ -17289,7 +17296,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARTIAL SEIZURES (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PARTIAL SEIZURES (PREVENTATIVE)', 'EPILEPSY (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -17325,7 +17332,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t xml:space="preserve">['LENNOX GASTAUT SYNDROME (PREVENTATIVE)'] 
+          <t xml:space="preserve">['LENNOX GASTAUT SYNDROME'] 
 </t>
         </is>
       </c>
@@ -17397,7 +17404,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ANGIOKERATOMA CORPORIS DIFFUSUM (PREVENTATIVE)', 'CARDIOMYOPATHY (PREVENTATIVE)', 'COARSE FACIAL FEATURES (PREVENTATIVE)', 'HEPATOSPLENOMEGALY (PREVENTATIVE)', 'HYPOTONIA (PREVENTATIVE)', 'INTELLECTUAL DISABILITY (PREVENTATIVE)', 'JOINT STIFFNESS (PREVENTATIVE)', 'SKELETAL ABNORMALITIES (PREVENTATIVE)', 'SHORT STATURE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['SKELETAL ABNORMALITIES', 'CARDIOMYOPATHY', 'LIVER DYSFUNCTION', 'GASTROINTESTINAL DYSFUNCTION', 'DEVELOPMENTAL DELAY (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -17415,8 +17422,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ALZHEIMER'S DEMENTIA', 'PARKINSON'S DISEASE'] 
-</t>
+          <t>['ALZHEIMER'S DEMENTIA', 'PARKINSON'S DISEASE']</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -17505,7 +17511,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t xml:space="preserve">['WILSON\'S DISEASE'] 
+          <t xml:space="preserve">['WILSON'S DISEASE'] 
 </t>
         </is>
       </c>
@@ -17523,7 +17529,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HYPERPHENYLALANINAEMIA (HPA) (PREVENTATIVE)', 'PHENYLKETONURIA (PKU) (PREVENTATIVE)', 'TETRAHYDROBIOPTERIN (BH4) DEFICIENCY (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HYPERPHENYLALANINAEMIA (HPA) (PREVENTATIVE)', 'PHENYLKETONURIA (PKU)', 'TETRAHYDROBIOPTERIN (BH4) DEFICIENCY'] 
 </t>
         </is>
       </c>
@@ -17631,7 +17637,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC KIDNEY DISEASE (STAGE 3 AND 4) (PREVENTATIVE)', 'ALBUMINURIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['CHRONIC KIDNEY DISEASE (STAGE 3 AND 4 WITH ALBUMINURIA) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -17649,7 +17655,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HIV-1 INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HIV-1 INFECTION'] 
 </t>
         </is>
       </c>
@@ -17703,7 +17709,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ENDOMETRIOSIS (PREVENTATIVE)', 'OVARIAN CYSTS (PREVENTATIVE)', 'PELVIC INFLAMMATORY DISEASE (PREVENTATIVE)', 'UTERINE FIBROIDS (PREVENTATIVE)', 'ECTOPIC PREGNANCY (PREVENTATIVE)', 'CANCER (PREVENTATIVE)', 'ACNE', 'HIRSUTISM', 'MENSTRUAL IRREGULARITIES', 'PREMENSTRUAL SYNDROME (PMS)'] 
+          <t xml:space="preserve">['UNWANTED PREGNANCY (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -17793,7 +17799,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PULMONARY ARTERIAL HYPERTENSION (PAH)', 'SCLERODERMA (PREVENTATIVE)', 'CONGENITAL SYSTEMIC-TO-PULMONARY SHUNTS (PREVENTATIVE)', 'EISENMENGER'S PHYSIOLOGY (PREVENTATIVE)', 'SYSTEMIC SCLEROSIS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PULMONARY ARTERIAL HYPERTENSION (PAH) (WHO FUNCTIONAL CLASS III)', 'PRIMARY (IDIOPATHIC AND FAMILIAL) PAH', 'PAH SECONDARY TO SCLERODERMA WITHOUT SIGNIFICANT INTERSTITIAL PULMONARY DISEASE', 'PAH ASSOCIATED WITH CONGENITAL SYSTEMIC-TO-PULMONARY SHUNTS AND EISENMENGER'S PHYSIOLOGY', 'PAH (WHO FUNCTIONAL CLASS II)', 'SYSTEMIC SCLEROSIS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -17811,7 +17817,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PULMONARY ARTERIAL HYPERTENSION (PAH) (PRIMARY (IDIOPATHIC AND FAMILIAL))', 'PULMONARY ARTERIAL HYPERTENSION (PAH) (SECONDARY TO SCLERODERMA WITHOUT SIGNIFICANT INTERSTITIAL PULMONARY DISEASE)', 'PULMONARY ARTERIAL HYPERTENSION (PAH) (ASSOCIATED WITH CONGENITAL SYSTEMIC-TO-PULMONARY SHUNTS AND EISENMENGER’S PHYSIOLOGY)', 'DIGITAL ULCERS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PULMONARY ARTERIAL HYPERTENSION (PAH)', 'SCLERODERMA (PREVENTATIVE)', 'CONGENITAL SYSTEMIC-TO-PULMONARY SHUNTS', 'EISENMENGER’S PHYSIOLOGY'] 
 </t>
         </is>
       </c>
@@ -17829,7 +17835,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PROLIFERATING INFANTILE HAEMANGIOMA (PREVENTATIVE)', 'LIFE- OR FUNCTION-THREATENING HAEMANGIOMA', 'ULCERATED HAEMANGIOMA WITH PAIN AND/OR LACK OF RESPONSE TO SIMPLE WOUND CARE MEASURES', 'HAEMANGIOMA WITH A RISK OF PERMANENT SCARS OR DISFIGUREMENT'] 
+          <t xml:space="preserve">['PROLIFERATING INFANTILE HAEMANGIOMA (PREVENTATIVE)', 'LIFE- OR FUNCTION-THREATENING HAEMANGIOMA (PREVENTATIVE)', 'ULCERATED HAEMANGIOMA (PREVENTATIVE)', 'HAEMANGIOMA WITH A RISK OF PERMANENT SCARS OR DISFIGUREMENT (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -17847,7 +17853,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PERIPHERAL NEUROPATHIC PAIN', 'CENTRAL NEUROPATHIC PAIN', 'PARTIAL SEIZURES (WITH OR WITHOUT SECONDARY GENERALISATION)', 'GENERALISED ANXIETY DISORDER'] 
+          <t xml:space="preserve">['PERIPHERAL NEUROPATHIC PAIN', 'CENTRAL NEUROPATHIC PAIN', 'PARTIAL SEIZURES (PREVENTATIVE)', 'GENERALISED ANXIETY DISORDER'] 
 </t>
         </is>
       </c>
@@ -17901,7 +17907,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HIV-1 INFECTION'] 
+          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS (HIV-1) INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -17937,7 +17943,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS 1 (HIV-1) INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS 1 (HIV 1) INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -17955,7 +17961,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS TYPE 1 (HIV-1) INFECTION'] 
+          <t xml:space="preserve">['HIV-1 INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -18063,7 +18069,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ANXIETY (PREVENTATIVE)', 'AGITATION', 'PAIN', 'PROCEDURAL SEDATION'] 
+          <t xml:space="preserve">['ANXIETY (PREVENTATIVE)', 'AGITATION (PREVENTATIVE)', 'PAIN (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -18081,7 +18087,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t xml:space="preserve">['POLYCYTHAEMIA VERA'] 
+          <t xml:space="preserve">['POLYCYTHAEMIA VERA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -18135,7 +18141,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TRANSPLANT REJECTION (PREVENTATIVE)', 'TRANSPLANT REJECTION'] 
+          <t xml:space="preserve">['TRANSPLANT REJECTION (PREVENTATIVE)', 'ALLOGRAFT REJECTION'] 
 </t>
         </is>
       </c>
@@ -18207,7 +18213,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ADRENAL CORTICAL CARCINOMA (UNRESECTABLE, METASTATIC OR RELAPSED)'] 
+          <t xml:space="preserve">['ADRENAL CORTICAL CARCINOMA'] 
 </t>
         </is>
       </c>
@@ -18279,7 +18285,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t xml:space="preserve">['OSTEOPOROSIS', 'OSTEOPOROSIS (PREVENTATIVE)', 'PAGET\'S DISEASE OF THE BONE'] 
+          <t xml:space="preserve">['OSTEOPOROSIS (PREVENTATIVE)', 'OSTEOPOROSIS (PREVENTATIVE)', 'OSTEOPOROSIS (PREVENTATIVE)', 'OSTEOPOROSIS (PREVENTATIVE)', 'OSTEOPOROSIS', 'OSTEOPOROSIS', 'PAGET'S DISEASE OF THE BONE'] 
 </t>
         </is>
       </c>
@@ -18369,7 +18375,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARKINSON’S DISEASE (END-OF-DOSE MOTOR FLUCTUATIONS)'] 
+          <t xml:space="preserve">['PARKINSON’S DISEASE'] 
 </t>
         </is>
       </c>
@@ -18423,7 +18429,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BLEEDING (PREVENTATIVE)'] 
+          <t xml:space="preserve">['BLEEDING DISORDERS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -18459,8 +18465,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD)'] 
-</t>
+          <t>['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD)']</t>
         </is>
       </c>
       <c r="C1003" t="inlineStr">
@@ -18477,7 +18482,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'JUVENILE IDIOPATHIC ARTHRITIS', 'POLYARTICULAR JUVENILE IDIOPATHIC ARTHRITIS', 'ENTHESITIS-RELATED ARTHRITIS', 'ANKYLOSING SPONDYLITIS (AS)', 'AXIAL SPONDYLOARTHRITIS WITHOUT RADIOGRAPHIC EVIDENCE OF AS', 'PSORIATIC ARTHRITIS', 'PSORIASIS', 'PAEDIATRIC PLAQUE PSORIASIS', 'HIDRADENITIS SUPPURATIVA (HS)', 'CROHN’S DISEASE', 'PAEDIATRIC CROHN'S DISEASE', 'ULCERATIVE COLITIS', 'PAEDIATRIC ULCERATIVE COLITIS', 'UVEITIS', 'PAEDIATRIC UVEITIS'] 
+          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'JUVENILE IDIOPATHIC ARTHRITIS', 'POLYARTICULAR JUVENILE IDIOPATHIC ARTHRITIS', 'ENTHESITIS-RELATED ARTHRITIS', 'ANKYLOSING SPONDYLITIS (AS)', 'AXIAL SPONDYLOARTHRITIS WITHOUT RADIOGRAPHIC EVIDENCE OF AS', 'PSORIATIC ARTHRITIS', 'PSORIASIS', 'PAEDIATRIC PLAQUE PSORIASIS (PREVENTATIVE)', 'HIDRADENITIS SUPPURATIVA (HS)', 'CROHN’S DISEASE', 'PAEDIATRIC CROHN'S DISEASE (PREVENTATIVE)', 'ULCERATIVE COLITIS', 'PAEDIATRIC ULCERATIVE COLITIS (PREVENTATIVE)', 'UVEITIS', 'PAEDIATRIC UVEITIS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -18495,7 +18500,7 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t xml:space="preserve">['OVERACTIVE BLADDER SYNDROME']
+          <t xml:space="preserve">['OVERACTIVE BLADDER SYNDROME (OAB)'] 
 </t>
         </is>
       </c>
@@ -18531,7 +18536,7 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TRANSPLANT REJECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['TRANSPLANT REJECTION (PREVENTATIVE)']
 </t>
         </is>
       </c>
@@ -18585,7 +18590,7 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t xml:space="preserve">['EPILEPSY', 'GENERALISED ANXIETY DISORDER'] 
+          <t xml:space="preserve">['EPILEPSY', 'GENERALISED ANXIETY DISORDER (GAD)'] 
 </t>
         </is>
       </c>
@@ -18603,7 +18608,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t xml:space="preserve">['METASTATIC CARCINOMA OF THE COLON OR RECTUM', 'METASTATIC BREAST CANCER', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NON-SMALL CELL LUNG CANCER OTHER THAN PREDOMINANTLY SQUAMOUS CELL HISTOLOGY', 'ADVANCED AND/OR METASTATIC RENAL CELL CANCER', 'ADVANCED (INTERNATIONAL FEDERATION OF GYNECOLOGY AND OBSTETRICS (FIGO) STAGES IIIB, IIIC AND IV) EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'FIRST RECURRENCE OF PLATINUM-SENSITIVE EPITHELIAL OVARIAN, FALLOPIAN TUBE OR PRIMARY PERITONEAL CANCER', 'PLATINUM-RESISTANT RECURRENT EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'PERSISTENT, RECURRENT, OR METASTATIC CARCINOMA OF THE CERVIX.'] 
+          <t xml:space="preserve">['METASTATIC CARCINOMA OF THE COLON OR RECTUM', 'METASTATIC BREAST CANCER', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NON-SMALL CELL LUNG CANCER OTHER THAN PREDOMINANTLY SQUAMOUS CELL HISTOLOGY', 'ADVANCED AND/OR METASTATIC RENAL CELL CANCER', 'ADVANCED (INTERNATIONAL FEDERATION OF GYNECOLOGY AND OBSTETRICS (FIGO) STAGES IIIB, IIIC AND IV) EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'FIRST RECURRENCE OF PLATINUM-SENSITIVE EPITHELIAL OVARIAN, FALLOPIAN TUBE OR PRIMARY PERITONEAL CANCER', 'PLATINUM-RESISTANT RECURRENT EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'PERSISTENT, RECURRENT, OR METASTATIC CARCINOMA OF THE CERVIX'] 
 </t>
         </is>
       </c>
@@ -18621,7 +18626,7 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BREAST CANCER AND BONE METASTASES (PREVENTATIVE)', 'TUMOUR INDUCED HYPERCALCAEMIA WITH OR WITHOUT METASTASES', 'OSTEOPOROSIS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['BREAST CANCER WITH BONE METASTASES (PREVENTATIVE)', 'TUMOUR INDUCED HYPERCALCAEMIA', 'OSTEOPOROSIS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -18801,7 +18806,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ANOVULATION', 'POLYCYSTIC OVARIAN DISEASE (PCOD)', 'HYPOGONADOTROPHIC HYPOGONADISM (PREVENTATIVE)', 'CONGENITAL HYPOGONADOTROPHIC HYPOGONADISM (PREVENTATIVE)', 'ACQUIRED HYPOGONADOTROPHIC HYPOGONADISM (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ANOVULATION (INCLUDING POLYCYSTIC OVARIAN DISEASE, PCOD)', 'SEVERE LH AND FSH DEFICIENCY', 'HYPOGONADOTROPHIC HYPOGONADISM (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -18909,7 +18914,7 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t xml:space="preserve">PLEASE PROVIDE ME WITH THE THERAPEUTIC INDICATIONS LIST YOU ARE REFERRING TO. I NEED THE ACTUAL TEXT FROM THE PRODUCT INFORMATION DOCUMENT TO UNDERSTAND WHICH DISEASES ARE TREATED. 
+          <t xml:space="preserve">PLEASE PROVIDE THE THERAPEUTIC INDICATIONS LIST. I NEED THE LIST OF INDICATIONS TO IDENTIFY THE DISEASES TREATED. 
 </t>
         </is>
       </c>
@@ -19052,7 +19057,7 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC MYELOID LEUKAEMIA (CML)', 'PHILADELPHIA CHROMOSOME POSITIVE ACUTE LYMPHOBLASTIC LEUKAEMIA (PH+ ALL)', 'MYELODYSPLASTIC/MYELOPROLIFERATIVE DISEASES (MDS/MPD)', 'HYPEREOSINOPHILIC SYNDROME (HES)', 'CHRONIC EOSINOPHILIC LEUKAEMIA (CEL)', 'DERMATOFIBROSARCOMA PROTUBERANS (DFSP)', 'MALIGNANT GASTROINTESTINAL STROMAL TUMOURS (GIST)'] 
+          <t xml:space="preserve">['CHRONIC MYELOID LEUKEMIA (CML)', 'PHILADELPHIA CHROMOSOME POSITIVE ACUTE LYMPHOBLASTIC LEUKAEMIA (PH+ ALL)', 'MYELODYSPLASTIC/MYELOPROLIFERATIVE DISEASES (MDS/MPD)', 'HYPEREOSINOPHILIC SYNDROME (HES)', 'CHRONIC EOSINOPHILIC LEUKAEMIA (CEL)', 'DERMATOFIBROSARCOMA PROTUBERANS (DFSP)', 'MALIGNANT GASTROINTESTINAL STROMAL TUMOURS (GIST)'] 
 </t>
         </is>
       </c>
@@ -19070,7 +19075,7 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TYPE 2 DIABETES (NIDDM)'] 
+          <t xml:space="preserve">['TYPE-2 DIABETES (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -19466,7 +19471,7 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CONGENITAL HAEMOPHILIA WITH HIGH-RESPONDING INHIBITORS TO COAGULATION FACTORS VIII OR IX (PREVENTATIVE)', 'CONGENITAL HAEMOPHILIA WITH LOW TITRE INHIBITORS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['CONGENITAL HAEMOPHILIA (PREVENTATIVE)', 'CONGENITAL HAEMOPHILIA WITH HIGH-RESPONDING INHIBITORS TO COAGULATION FACTORS VIII OR IX (PREVENTATIVE)', 'CONGENITAL HAEMOPHILIA WITH LOW TITRE INHIBITORS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -19484,7 +19489,7 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HOSPITAL-ACQUIRED PNEUMONIA (HAP)', 'VENTILATOR ASSOCIATED PNEUMONIA (VAP)', 'BACTERAEMIA (ASSOCIATED WITH HAP OR VAP)', 'INFECTIONS DUE TO AEROBIC GRAM-NEGATIVE ORGANISMS (LIMITED TREATMENT OPTIONS)'] 
+          <t xml:space="preserve">['HOSPITAL-ACQUIRED PNEUMONIA (HAP)', 'VENTILATOR ASSOCIATED PNEUMONIA (VAP)', 'BACTERAEMIA', 'INFECTIONS DUE TO AEROBIC GRAM-NEGATIVE ORGANISMS'] 
 </t>
         </is>
       </c>
@@ -19574,7 +19579,7 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD)', 'EXACERBATIONS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -19592,7 +19597,7 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TRANSITIONAL-CELL CARCINOMA OF THE UROTHELIAL TRACT (ADVANCED OR METASTATIC)'] 
+          <t xml:space="preserve">['ADVANCED OR METASTATIC TRANSITIONAL-CELL CARCINOMA OF THE UROTHELIAL TRACT'] 
 </t>
         </is>
       </c>
@@ -19610,7 +19615,7 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BREAST CANCER AND BONE METASTASES (PREVENTATIVE)', 'OSTEOPOROSIS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['BREAST CANCER WITH BONE METASTASES (PREVENTATIVE)', 'OSTEOPOROSIS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -19664,7 +19669,7 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD)']
+          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD)'] 
 </t>
         </is>
       </c>
@@ -19754,7 +19759,7 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MYOCARDIAL INFARCTION', 'ISCHAEMIC STROKE', 'PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)', 'UNSTABLE ANGINA', 'NON-Q-WAVE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ATRIAL FIBRILLATION (PREVENTATIVE)', 'STROKE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MYOCARDIAL INFARCTION', 'ISCHAEMIC STROKE', 'PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)', 'UNSTABLE ANGINA (PREVENTATIVE)', 'NON-Q-WAVE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ATRIAL FIBRILLATION (PREVENTATIVE)', 'STROKE (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -19862,7 +19867,7 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ANAEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE (CRF)', 'ANAEMIA IN ADULT CANCER PATIENTS WITH NON-MYELOID MALIGNANCIES (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ANEMIA (CRF)', 'ANEMIA (CANCER)'] 
 </t>
         </is>
       </c>
@@ -19898,7 +19903,7 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ESSENTIAL HYPERTENSION (PREVENTATIVE)']
+          <t xml:space="preserve">['ESSENTIAL HYPERTENSION'] 
 </t>
         </is>
       </c>
@@ -19934,7 +19939,8 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>['CANCER (PREVENTATIVE)']</t>
+          <t xml:space="preserve">['CANCER', 'BREAKTHROUGH PAIN'] 
+</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
@@ -19951,7 +19957,7 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t xml:space="preserve">['UNPLANNED PREGNANCY (PREVENTATIVE)'] 
+          <t xml:space="preserve">['UNINTENDED PREGNANCY (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -20005,7 +20011,7 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HAEMOPHILIA A (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HAEMOPHILIA A (CONGENITAL FACTOR-VIII DEFICIENCY) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -20041,7 +20047,7 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t xml:space="preserve">['WILSON’S DISEASE']
+          <t xml:space="preserve">['WILSON’S DISEASE'] 
 </t>
         </is>
       </c>
@@ -20077,7 +20083,7 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CANCER PAIN (CHRONIC)'] 
+          <t xml:space="preserve">['CHRONIC CANCER PAIN (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -20095,7 +20101,7 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ERYTHROPOIETIC PROTOPORPHYRIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ERYTHROPOIETIC PROTOPORPHYRIA (EPP) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -20131,7 +20137,7 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HYPERTENSION', 'ATHEROTHROMBOTIC CARDIOVASCULAR DISEASE (PREVENTATIVE)', 'CORONARY HEART DISEASE (PREVENTATIVE)', 'STROKE (PREVENTATIVE)', 'PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)', 'TYPE-2 DIABETES MELLITUS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HYPERTENSION', 'ATHEROTHROMBOTIC CARDIOVASCULAR DISEASE (PREVENTATIVE)', 'CORONARY HEART DISEASE (PREVENTATIVE)', 'STROKE (PREVENTATIVE)', 'PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)', 'TYPE-2 DIABETES MELLITUS WITH DOCUMENTED TARGET-ORGAN DAMAGE (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -20149,7 +20155,7 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t xml:space="preserve">['OPIOID-INDUCED CONSTIPATION (OIC)'] 
+          <t xml:space="preserve">['OPIOID-INDUCED CONSTIPATION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -20203,7 +20209,7 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t xml:space="preserve">['COLON CANCER', 'COLORECTAL CANCER', 'GASTRIC CANCER', 'BREAST CANCER'] 
+          <t xml:space="preserve">['COLON CANCER (PREVENTATIVE)', 'COLORECTAL CANCER', 'GASTRIC CANCER', 'BREAST CANCER'] 
 </t>
         </is>
       </c>
@@ -20275,7 +20281,7 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TYPE-2-DIABETES-MELLITUS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['TYPE-2-DIABETES-MELLITUS'] 
 </t>
         </is>
       </c>
@@ -20311,7 +20317,7 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MELANOMA (ADVANCED, UNRESECTABLE OR METASTATIC)'] 
+          <t xml:space="preserve">['MELANOMA (ADVANCED)'] 
 </t>
         </is>
       </c>
@@ -20365,7 +20371,7 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HAEMOPHILIA B (CONGENITAL FACTOR-IX DEFICIENCY) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HAEMOPHILIA B (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -20563,7 +20569,7 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PROSTATE CANCER (ADVANCED, HORMONE-DEPENDENT)', 'PROSTATE CANCER (HIGH-RISK LOCALISED, HORMONE DEPENDENT)', 'PROSTATE CANCER (LOCALLY ADVANCED, HORMONE DEPENDENT)'] 
+          <t xml:space="preserve">['PROSTATE CANCER (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -20581,7 +20587,7 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MIGRAINE'] 
+          <t xml:space="preserve">['MIGRAINE (ACUTE)'] 
 </t>
         </is>
       </c>
@@ -20599,7 +20605,7 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t xml:space="preserve">['INFLUENZA A (H5N1) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['INFLUENZA A VIRUS SUBTYPE H5N1 (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -20635,7 +20641,7 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PLAQUE PSORIASIS'] 
+          <t xml:space="preserve">['PLAQUE PSORIASIS (MODERATE TO SEVERE)'] 
 </t>
         </is>
       </c>
@@ -20653,7 +20659,7 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t xml:space="preserve">['POST-OPERATIVE PAIN (PREVENTATIVE)'] 
+          <t xml:space="preserve">['POST-OPERATIVE PAIN'] 
 </t>
         </is>
       </c>
@@ -20671,7 +20677,7 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t xml:space="preserve">['POLYCYSTIC OVARY SYNDROME (PCOS)', 'CONGENITAL ADRENAL HYPERPLASIA', 'CUSHING SYNDROME', 'ANDROGEN-SECRETING TUMORS (E.G., OVARIAN OR ADRENAL TUMORS)', 'IDIOPATHIC HIRSUTISM'] 
+          <t xml:space="preserve">['POLYCYSTIC OVARY SYNDROME (PCOS)', 'CONGENITAL ADRENAL HYPERPLASIA', 'CUSHING SYNDROME', 'ANDROGEN-SECRETING TUMORS', 'HYPERPROLACTINEMIA', 'IDIOPATHIC HIRSUTISM', 'MEDICATIONS (E.G., ANABOLIC STEROIDS, MINOXIDIL) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -20707,7 +20713,7 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'CROHN'S DISEASE', 'ULCERATIVE COLITIS', 'ANKYLOSING SPONDYLITIS', 'PSORIATIC ARTHRITIS', 'PSORIASIS'] 
+          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'CROHN\'S DISEASE', 'ULCERATIVE COLITIS', 'ANKYLOSING SPONDYLITIS', 'PSORIATIC ARTHRITIS', 'PSORIASIS'] 
 </t>
         </is>
       </c>
@@ -20815,7 +20821,7 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t xml:space="preserve">['INFLAMMATION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['POSTOPERATIVE OCULAR INFLAMMATION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -20833,7 +20839,7 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ESSENTIAL HYPERTENSION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ESSENTIAL HYPERTENSION'] 
 </t>
         </is>
       </c>
@@ -20851,7 +20857,7 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ESSENTIAL HYPERTENSION'] 
+          <t xml:space="preserve">['ESSENTIAL HYPERTENSION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -20905,7 +20911,7 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SEVERE LUTEINISING-HORMONE (LH) AND FSH DEFICIENCY (PREVENTATIVE)'] 
+          <t xml:space="preserve">['LUTEINISING-HORMONE (LH) AND FSH DEFICIENCY (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -20923,7 +20929,7 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PAROXYSMAL NOCTURNAL HAEMOGLOBINURIA (PNH)']
+          <t xml:space="preserve">['PAROXYSMAL NOCTURNAL HAEMOGLOBINURIA (PNH)'] 
 </t>
         </is>
       </c>
@@ -20977,7 +20983,7 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ESTROGEN RECEPTOR POSITIVE, LOCALLY ADVANCED OR METASTATIC BREAST CANCER (POSTMENOPAUSAL WOMEN)']
+          <t xml:space="preserve">['ESTROGEN RECEPTOR POSITIVE, LOCALLY ADVANCED OR METASTATIC BREAST CANCER (PREVENTATIVE)', 'ESTROGEN RECEPTOR POSITIVE, LOCALLY ADVANCED OR METASTATIC BREAST CANCER (PREVENTATIVE)', 'ESTROGEN RECEPTOR POSITIVE, LOCALLY ADVANCED OR METASTATIC BREAST CANCER (PREVENTATIVE)', 'ESTROGEN RECEPTOR POSITIVE, LOCALLY ADVANCED OR METASTATIC BREAST CANCER (PREVENTATIVE)', 'ESTROGEN RECEPTOR POSITIVE, LOCALLY ADVANCED OR METASTATIC BREAST CANCER (PREVENTATIVE)', 'ESTROGEN RECEPTOR POSITIVE, LOCALLY ADVANCED OR METASTATIC BREAST CANCER (PREVENTATIVE)', 'HR-POSITIVE, HER2-NEGATIVE LOCALLY ADVANCED OR METASTATIC BREAST CANCER', 'HR-POSITIVE, HER2-NEGATIVE LOCALLY ADVANCED OR METASTATIC BREAST CANCER', 'HR-POSITIVE, HER2-NEGATIVE LOCALLY ADVANCED OR METASTATIC BREAST CANCER', 'HR-POSITIVE, HER2-NEGATIVE LOCALLY ADVANCED OR METASTATIC BREAST CANCER'] 
 </t>
         </is>
       </c>
@@ -21085,7 +21091,7 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARKINSON’S DISEASE (END-OF-DOSE MOTOR FLUCTUATIONS)'] 
+          <t xml:space="preserve">['PARKINSON’S DISEASE'] 
 </t>
         </is>
       </c>
@@ -21103,7 +21109,7 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD) (PREVENTATIVE)', 'CHRONIC BRONCHITIS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -21139,7 +21145,7 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS TYPE 1 (HIV-1) INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HUMAN-IMMUNODEFICIENCY-VIRUS-TYPE-1 INFECTION (HIV-1)'] 
 </t>
         </is>
       </c>
@@ -21247,7 +21253,7 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TYPE 1 DIABETES MELLITUS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['TYPE 1 DIABETES MELLITUS'] 
 </t>
         </is>
       </c>
@@ -21301,7 +21307,7 @@
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t xml:space="preserve">['STABLE ANGINA PECTORIS'] 
+          <t xml:space="preserve">['STABLE ANGINA PECTORIS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -21373,7 +21379,7 @@
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MAJOR DEPRESSIVE DISORDER'] 
+          <t xml:space="preserve">['MAJOR DEPRESSIVE DISORDER (MDD)'] 
 </t>
         </is>
       </c>
@@ -21445,7 +21451,7 @@
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MYOCARDIAL INFARCTION', 'ISCHEMIC STROKE (PREVENTATIVE)', 'PERIPHERAL ARTERIAL DISEASE', 'ACUTE CORONARY SYNDROME (PREVENTATIVE)', 'UNSTABLE ANGINA (PREVENTATIVE)', 'NON-Q-WAVE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'TRANSIENT ISCHAEMIC ATTACK (PREVENTATIVE)', 'MINOR ISCHAEMIC STROKE (PREVENTATIVE)', 'ATRIAL FIBRILLATION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MYOCARDIAL INFARCTION', 'ISCHEMIC STROKE (PREVENTATIVE)', 'PERIPHERAL ARTERIAL DISEASE', 'ACUTE CORONARY SYNDROME', 'UNSTABLE ANGINA (PREVENTATIVE)', 'NON-Q-WAVE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'TRANSIENT ISCHAEMIC ATTACK (TIA) (PREVENTATIVE)', 'MINOR ISCHAEMIC STROKE (IS) (PREVENTATIVE)', 'ATRIAL FIBRILLATION (PREVENTATIVE)']
 </t>
         </is>
       </c>
@@ -21661,7 +21667,7 @@
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PRURITUS (CHRONIC KIDNEY DISEASE)'] 
+          <t xml:space="preserve">['PRURITUS ASSOCIATED WITH CHRONIC KIDNEY DISEASE (CKD)'] 
 </t>
         </is>
       </c>
@@ -21715,7 +21721,7 @@
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PREMATURE LUTEINISING HORMONE (LH) SURGES (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PREMATURE LH SURGES (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -21733,7 +21739,7 @@
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC HEPATITIS B', 'ACTIVE VIRAL REPLICATION (PREVENTATIVE)', 'ACTIVE LIVER INFLAMMATION', 'FIBROSIS'] 
+          <t xml:space="preserve">['CHRONIC HEPATITIS B', 'ACTIVE VIRAL REPLICATION', 'ACTIVE LIVER INFLAMMATION', 'FIBROSIS'] 
 </t>
         </is>
       </c>
@@ -21751,7 +21757,7 @@
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARTIAL THICKNESS WOUNDS'] 
+          <t xml:space="preserve">['DIABETIC FOOT ULCERS', 'VENOUS LEG ULCERS', 'PRESSURE ULCERS', 'PARTIAL THICKNESS BURNS'] 
 </t>
         </is>
       </c>
@@ -21805,7 +21811,7 @@
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t xml:space="preserve">['IRON OVERLOAD (PREVENTATIVE)']
+          <t xml:space="preserve">['IRON OVERLOAD (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -21823,7 +21829,7 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC LYMPHOCYTIC LEUKEMIA (CLL)', 'FOLLICULAR LYMPHOMA (FL)'] 
+          <t xml:space="preserve">['CHRONIC LYMPHOCYTIC LEUKAEMIA (CLL)', 'FOLLICULAR LYMPHOMA (FL)'] 
 </t>
         </is>
       </c>
@@ -21859,7 +21865,7 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HIV-1 INFECTION'] 
+          <t xml:space="preserve">['HIV-1 INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -22003,7 +22009,7 @@
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC MYELOID LEUKAEMIA (CML)', 'PHILADELPHIA CHROMOSOME POSITIVE ACUTE LYMPHOBLASTIC LEUKAEMIA (PH+ ALL)', 'MYELODYSPLASTIC/MYELOPROLIFERATIVE DISEASES (MDS/MPD)', 'HYPEREOSINOPHILIC SYNDROME (HES)', 'CHRONIC EOSINOPHILIC LEUKAEMIA (CEL)', 'DERMATOFIBROSARCOMA PROTUBERANS (DFSP)']
+          <t xml:space="preserve">['CHRONIC MYELOID LEUKAEMIA (CML)', 'PHILADELPHIA CHROMOSOME POSITIVE ACUTE LYMPHOBLASTIC LEUKAEMIA (PH+ ALL)', 'MYELODYSPLASTIC/MYELOPROLIFERATIVE DISEASES (MDS/MPD)', 'PLATELET-DERIVED GROWTH FACTOR RECEPTOR (PDGFR) GENE RE-ARRANGEMENTS', 'HYPEREOSINOPHILIC SYNDROME (HES)', 'CHRONIC EOSINOPHILIC LEUKAEMIA (CEL)', 'FIP1L1-PDGFR REARRANGEMENT', 'DERMATOFIBROSARCOMA PROTUBERANS (DFSP)'] 
 </t>
         </is>
       </c>
@@ -22093,7 +22099,7 @@
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MYOCARDIAL INFARCTION', 'ISCHAEMIC STROKE', 'PERIPHERAL ARTERIAL DISEASE', 'UNSTABLE ANGINA', 'NON-Q-WAVE MYOCARDIAL INFARCTION', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'TRANSIENT ISCHAEMIC ATTACK (TIA) (PREVENTATIVE)', 'MINOR ISCHAEMIC STROKE (IS) (PREVENTATIVE)', 'ATHEROTHROMBOTIC EVENTS (PREVENTATIVE)', 'THROMBOEMBOLIC EVENTS (PREVENTATIVE)', 'STROKE (PREVENTATIVE)']
+          <t xml:space="preserve">['MYOCARDIAL INFARCTION', 'ISCHAEMIC STROKE', 'PERIPHERAL ARTERIAL DISEASE', 'ACUTE CORONARY SYNDROME (PREVENTATIVE)', 'UNSTABLE ANGINA (PREVENTATIVE)', 'NON-Q-WAVE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'TRANSIENT ISCHAEMIC ATTACK (PREVENTATIVE)', 'MINOR ISCHAEMIC STROKE (PREVENTATIVE)', 'ATRIAL FIBRILLATION (PREVENTATIVE)', 'STROKE (PREVENTATIVE)']
 </t>
         </is>
       </c>
@@ -22219,7 +22225,7 @@
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PRIMARY IMMUNODEFICIENCY SYNDROMES WITH IMPAIRED ANTIBODY PRODUCTION', 'HYPOGAMMAGLOBULINAEMIA (PREVENTATIVE)', 'RECURRENT BACTERIAL INFECTIONS (PREVENTATIVE)', 'CHRONIC LYMPHOCYTIC LEUKAEMIA', 'PLATEAU-PHASE-MULTIPLE-MYELOMA', 'CONGENITAL AIDS', 'PRIMARY IMMUNE THROMBOCYTOPENIA (ITP)', 'GUILLAIN BARRÉ SYNDROME', 'KAWASAKI DISEASE', 'MULTIFOCAL MOTOR NEUROPATHY (MMN)'] 
+          <t xml:space="preserve">['PRIMARY IMMUNODEFICIENCY SYNDROMES WITH IMPAIRED ANTIBODY PRODUCTION', 'HYPOGAMMAGLOBULINAEMIA AND RECURRENT BACTERIAL INFECTIONS IN PATIENTS WITH CHRONIC LYMPHOCYTIC LEUKAEMIA (PREVENTATIVE)', 'HYPOGAMMAGLOBULINAEMIA AND RECURRENT BACTERIAL INFECTIONS IN PLATEAU-PHASE-MULTIPLE-MYELOMA PATIENTS (PREVENTATIVE)', 'HYPOGAMMAGLOBULINAEMIA IN PATIENTS AFTER ALLOGENEIC HAEMATOPOIETIC-STEM-CELL TRANSPLANTATION (HSCT)', 'CONGENITAL AIDS AND RECURRENT BACTERIAL INFECTIONS', 'PRIMARY IMMUNE THROMBOCYTOPENIA (ITP)', 'GUILLAIN BARRÉ SYNDROME', 'KAWASAKI DISEASE', 'MULTIFOCAL MOTOR NEUROPATHY (MMN)'] 
 </t>
         </is>
       </c>
@@ -22399,7 +22405,7 @@
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ISCHAEMIC STROKE (PREVENTATIVE)', 'PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)', 'UNSTABLE ANGINA (PREVENTATIVE)', 'NON-Q-WAVE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ATRIAL FIBRILLATION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MYOCARDIAL INFARCTION', 'ISCHAEMIC STROKE', 'PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)', 'UNSTABLE ANGINA', 'NON-Q-WAVE MYOCARDIAL INFARCTION', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION', 'ATRIAL FIBRILLATION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -22435,7 +22441,7 @@
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MYOCARDIAL INFARCTION', 'ISCHAEMIC STROKE (PREVENTATIVE)', 'PERIPHERAL ARTERIAL DISEASE', 'ACUTE CORONARY SYNDROME (PREVENTATIVE)', 'UNSTABLE ANGINA (PREVENTATIVE)', 'NON-Q-WAVE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ATRIAL FIBRILLATION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MYOCARDIAL INFARCTION', 'ISCHAEMIC STROKE (PREVENTATIVE)', 'PERIPHERAL ARTERIAL DISEASE', 'UNSTABLE ANGINA (PREVENTATIVE)', 'NON-Q-WAVE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ATRIAL FIBRILLATION (PREVENTATIVE)', 'STROKE (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -22471,7 +22477,7 @@
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ALLERGIC RHINITIS (PREVENTATIVE)', 'URTICARIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ALLERGIC RHINITIS', 'URTICARIA'] 
 </t>
         </is>
       </c>
@@ -22561,7 +22567,7 @@
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t xml:space="preserve">['METASTATIC COLORECTAL CANCER', 'SQUAMOUS CELL CANCER OF THE HEAD AND NECK'] 
+          <t xml:space="preserve">['METASTATIC COLORECTAL CANCER', 'SQUAMOUS CELL CANCER OF THE HEAD AND NECK', 'LOCALLY ADVANCED SQUAMOUS CELL CANCER OF THE HEAD AND NECK (PREVENTATIVE)', 'RECURRENT AND/OR METASTATIC SQUAMOUS CELL CANCER OF THE HEAD AND NECK'] 
 </t>
         </is>
       </c>
@@ -22723,7 +22729,7 @@
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARKINSON’S DISEASE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PARKINSON’S DISEASE'] 
 </t>
         </is>
       </c>
@@ -22741,7 +22747,7 @@
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t xml:space="preserve">['VON WILLEBRAND DISEASE (VWD) (PREVENTATIVE)', 'HAEMORRHAGE (PREVENTATIVE)', 'SURGICAL BLEEDING (PREVENTATIVE)', 'HAEMOPHILIA A (PREVENTATIVE)'] 
+          <t xml:space="preserve">['VON WILLEBRAND DISEASE (PREVENTATIVE)', 'VON WILLEBRAND DISEASE', 'HAEMOPHILIA A (PREVENTATIVE)', 'HAEMOPHILIA A'] 
 </t>
         </is>
       </c>
@@ -22795,7 +22801,7 @@
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'CROHN’S DISEASE', 'ULCERATIVE COLITIS', 'ANKYLOSING SPONDYLITIS', 'PSORIATIC ARTHRITIS', 'PSORIASIS'] 
+          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'CROHN’S DISEASE (PEDIATRIC)', 'CROHN’S DISEASE', 'ULCERATIVE COLITIS (PEDIATRIC)', 'ULCERATIVE COLITIS', 'ANKYLOSING SPONDYLITIS', 'PSORIATIC ARTHRITIS', 'PSORIASIS'] 
 </t>
         </is>
       </c>
@@ -22831,7 +22837,7 @@
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MULTIPLE SCLEROSIS (MS)'] 
+          <t xml:space="preserve">['MULTIPLE SCLEROSIS (MS)']
 </t>
         </is>
       </c>
@@ -22885,7 +22891,7 @@
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ACUTE PROMYELOCYTIC LEUKAEMIA (APL) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ACUTE PROMYELOCYTIC LEUKAEMIA (APL)'] 
 </t>
         </is>
       </c>
@@ -22903,7 +22909,7 @@
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PRIMARY HYPERCHOLESTEROLAEMIA (PREVENTATIVE)', 'MIXED DYSLIPIDAEMIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PRIMARY HYPERCHOLESTEROLAEMIA (HETEROZYGOUS FAMILIAL AND NON-FAMILIAL)', 'MIXED DYSLIPIDAEMIA', 'HYPERLIPIDEMIA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -22939,7 +22945,7 @@
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SCHIZOPHRENIA', 'BIPOLAR I DISORDER (MANIC EPISODES)', 'BIPOLAR I DISORDER (PREVENTATIVE)'] 
+          <t xml:space="preserve">['SCHIZOPHRENIA', 'BIPOLAR I DISORDER (MANIC EPISODES)', 'BIPOLAR I DISORDER (MANIC EPISODES, PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -22957,7 +22963,7 @@
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PRIMARY HYPERCHOLESTEROLAEMIA (HETEROZYGOUS FAMILIAL AND NON FAMILIAL)', 'MIXED DYSLIPIDAEMIA'] 
+          <t xml:space="preserve">['PRIMARY HYPERCHOLESTEROLAEMIA (PREVENTATIVE)', 'MIXED DYSLIPIDAEMIA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -22993,7 +22999,8 @@
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>LLM failed to extract indications</t>
+          <t xml:space="preserve">['COMPLICATED SKIN AND SOFT-TISSUE INFECTIONS (CSSTI)', 'RIGHT-SIDED INFECTIVE ENDOCARDITIS (RIE) DUE TO STAPHYLOCOCCUS AUREUS', 'STAPHYLOCOCCUS AUREUS BACTERAEMIA (SAB)'] 
+</t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
@@ -23028,7 +23035,8 @@
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>['BENIGN PROSTATIC HYPERPLASIA (BPH) (PREVENTATIVE)']</t>
+          <t xml:space="preserve">['BENIGN PROSTATIC HYPERPLASIA (BPH)'] 
+</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
@@ -23045,7 +23053,7 @@
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t xml:space="preserve">['DIABETES MELLITUS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['DIABETES MELLITUS (TYPE 1)', 'DIABETES MELLITUS (TYPE 2)', 'DIABETIC KETOACIDOSIS', 'HYPERGLYCEMIA', 'DIABETIC NEPHROPATHY', 'DIABETIC NEUROPATHY', 'DIABETIC RETINOPATHY', 'DIABETIC FOOT', 'GESTATIONAL DIABETES MELLITUS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -23099,7 +23107,7 @@
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BREAST CANCER (PREVENTATIVE)', 'LUNG CANCER (PREVENTATIVE)', 'LYMPHOMA (PREVENTATIVE)', 'MULTIPLE MYELOMA (PREVENTATIVE)', 'OVARIAN CANCER (PREVENTATIVE)', 'COLORECTAL CANCER (PREVENTATIVE)', 'HEAD AND NECK CANCER (PREVENTATIVE)', 'STOMACH CANCER (PREVENTATIVE)', 'PANCREATIC CANCER (PREVENTATIVE)', 'ACUTE MYELOID LEUKEMIA (PREVENTATIVE)', 'NON-HODGKIN LYMPHOMA (PREVENTATIVE)', 'HODGKIN LYMPHOMA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['BREAST CANCER (PREVENTATIVE)', 'LUNG CANCER (PREVENTATIVE)', 'OVARIAN CANCER (PREVENTATIVE)', 'NON-HODGKIN’S LYMPHOMA (PREVENTATIVE)', 'MULTIPLE MYELOMA (PREVENTATIVE)', 'ACUTE LYMPHOBLASTIC LEUKAEMIA (ALL) (PREVENTATIVE)', 'ACUTE MYELOID LEUKAEMIA (AML) (PREVENTATIVE)', 'SMALL CELL LUNG CANCER (PREVENTATIVE)', 'HEAD AND NECK CANCER (PREVENTATIVE)', 'GASTRIC CANCER (PREVENTATIVE)', 'COLORECTAL CANCER (PREVENTATIVE)', 'HODGKIN’S LYMPHOMA (PREVENTATIVE)', 'LYMPHOMA (PREVENTATIVE)', 'LYMPHOBLASTIC LYMPHOMA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -23117,7 +23125,7 @@
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PRE-TERM BIRTH (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PRETERM BIRTH (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -23153,7 +23161,7 @@
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t xml:space="preserve">['GLIOBLASTOMA MULTIFORME (PREVENTATIVE)', 'ANAPLASTIC ASTROCYTOMA'] 
+          <t xml:space="preserve">['GLIOBLASTOMA MULTIFORME', 'ANAPLASTIC ASTROCYTOMA', 'MALIGNANT GLIOMA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -23207,7 +23215,7 @@
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ACTINIC KERATOSIS (PREVENTATIVE)', 'FIELD CANCERIZATION (PREVENTATIVE)', 'BASAL CELL CARCINOMA'] 
+          <t xml:space="preserve">['ACTINIC KERATOSIS (PREVENTATIVE)', 'BASAL CELL CARCINOMA', 'FIELD CANCERIZATION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -23243,7 +23251,7 @@
       </c>
       <c r="B1269" t="inlineStr">
         <is>
-          <t xml:space="preserve">['UNSTABLE ANGINA (PREVENTATIVE)', 'NON-Q-WAVE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'MYOCARDIAL INFARCTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MYOCARDIAL INFARCTION (PREVENTATIVE)', 'UNSTABLE ANGINA', 'NON-Q-WAVE MYOCARDIAL INFARCTION'] 
 </t>
         </is>
       </c>
@@ -23261,7 +23269,7 @@
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HYPERTENSION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ESSENTIAL HYPERTENSION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -23297,7 +23305,7 @@
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t xml:space="preserve">['GLIOBLASTOMA MULTIFORME (PREVENTATIVE)', 'ANAPLASTIC ASTROCYTOMA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['GLIOBLASTOMA MULTIFORME', 'ANAPLASTIC ASTROCYTOMA'] 
 </t>
         </is>
       </c>
@@ -23315,7 +23323,7 @@
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RELAPSED OR REFRACTORY CD22-POSITIVE B CELL PRECURSOR ACUTE LYMPHOBLASTIC LEUKAEMIA (ALL)', 'PHILADELPHIA CHROMOSOME POSITIVE (PH+) RELAPSED OR REFRACTORY B CELL PRECURSOR ALL'] 
+          <t xml:space="preserve">['ACUTE LYMPHOBLASTIC LEUKAEMIA (ALL)'] 
 </t>
         </is>
       </c>
@@ -23351,7 +23359,7 @@
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARTIAL-ONSET SEIZURES (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PARTIAL-ONSET SEIZURES (PREVENTATIVE)', 'SECONDARY GENERALIZED SEIZURES (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -23369,7 +23377,7 @@
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TRANSPLANT REJECTION (PREVENTATIVE)', 'RHEUMATOID ARTHRITIS', 'AUTO-IMMUNE HEPATITIS', 'SYSTEMIC LUPUS ERYTHEMATOSUS', 'DERMATOMYOSITIS', 'POLYARTERITIS NODOSA', 'PEMPHIGUS VULGARIS', 'BULLOUS PEMPHIGOID', 'BEHÇET’S DISEASE', 'REFRACTORY AUTO-IMMUNE HAEMOLYTIC ANAEMIA', 'CHRONIC REFRACTORY IDIOPATHIC THROMBOCYTOPENIC PURPURA', 'CROHN’S DISEASE', 'ULCERATIVE COLITIS', 'MULTIPLE SCLEROSIS', 'GENERALISED MYASTHENIA GRAVIS'] 
+          <t xml:space="preserve">['TRANSPLANT REJECTION (PREVENTATIVE)', 'RHEUMATOID ARTHRITIS', 'AUTO-IMMUNE HEPATITIS', 'SYSTEMIC LUPUS ERYTHEMATOSUS', 'DERMATOMYOSITIS', 'POLYARTERITIS NODOSA', 'PEMPHIGUS VULGARIS', 'BULLOUS PEMPHIGOID', 'BEHÇET’S DISEASE', 'REFRACTORY AUTO-IMMUNE HAEMOLYTIC ANAEMIA', 'CHRONIC REFRACTORY IDIOPATHIC THROMBOCYTOPENIC PURPURA', 'CROHN’S DISEASE', 'ULCERATIVE COLITIS', 'RELAPSING MULTIPLE SCLEROSIS', 'GENERALISED MYASTHENIA GRAVIS'] 
 </t>
         </is>
       </c>
@@ -23405,7 +23413,7 @@
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t xml:space="preserve">['EARLY BREAST CANCER (PREVENTATIVE)', 'LOCALLY ADVANCED BREAST CANCER', 'INFLAMMATORY BREAST CANCER', 'METASTATIC BREAST CANCER', 'LOCALLY RECURRENT BREAST CANCER'] 
+          <t xml:space="preserve">['EARLY BREAST CANCER (EBC) (PREVENTATIVE)', 'HER2-POSITIVE, LOCALLY ADVANCED, INFLAMMATORY, OR EARLY STAGE BREAST CANCER AT HIGH RISK OF RECURRENCE (PREVENTATIVE)', 'METASTATIC BREAST CANCER (MBC) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -23423,7 +23431,7 @@
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t xml:space="preserve">['GAUCHER DISEASE TYPE 1', 'NIEMANN-PICK DISEASE TYPE C'] 
+          <t xml:space="preserve">['GAUCHER DISEASE TYPE-1', 'NIEMANN-PICK TYPE-C DISEASE'] 
 </t>
         </is>
       </c>
@@ -23459,7 +23467,7 @@
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ERECTILE DYSFUNCTION'] 
+          <t xml:space="preserve">['ERECTILE DYSFUNCTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -23513,7 +23521,7 @@
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RESTLESS LEGS SYNDROME', "PARKINSON'S DISEASE"] 
+          <t xml:space="preserve">['RESTLESS-LEGS SYNDROME', 'PARKINSON’S DISEASE'] 
 </t>
         </is>
       </c>
@@ -23531,7 +23539,8 @@
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>['GLIOBLASTOMA MULTIFORME', 'ANAPLASTIC ASTROCYTOMA']</t>
+          <t xml:space="preserve">['GLIOBLASTOMA MULTIFORME', 'ANAPLASTIC ASTROCYTOMA'] 
+</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr">
@@ -23584,7 +23593,7 @@
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC HEPATITIS B VIRUS (HBV) INFECTION'] 
+          <t xml:space="preserve">['CHRONIC HEPATITIS B VIRUS (HBV) INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -23620,7 +23629,7 @@
       </c>
       <c r="B1290" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PREMATURE BIRTH (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PRE-TERM BIRTH (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -23674,7 +23683,7 @@
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PATHOLOGICAL FRACTURES (PREVENTATIVE)', 'SPINAL COMPRESSION (PREVENTATIVE)', 'RADIATION OR SURGERY TO BONE (PREVENTATIVE)', 'TUMOUR-INDUCED HYPERCALCAEMIA (PREVENTATIVE)', 'TUMOUR-INDUCED HYPERCALCAEMIA'] 
+          <t xml:space="preserve">['PATHOLOGICAL FRACTURES (PREVENTATIVE)', 'SPINAL COMPRESSION (PREVENTATIVE)', 'TUMOUR-INDUCED HYPERCALCAEMIA', 'TUMOUR-INDUCED HYPERCALCAEMIA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -23692,7 +23701,7 @@
       </c>
       <c r="B1294" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TYPE-2 DIABETES (PREVENTATIVE)'] 
+          <t xml:space="preserve">['TYPE-2 DIABETES (NON-INSULIN-DEPENDENT DIABETES MELLITUS (NIDDM))', 'HYPERGLYCEMIA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -23710,7 +23719,7 @@
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HUMAN-IMMUNODEFICIENCY-VIRUS-1 (HIV-1) INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HUMAN-IMMUNODEFICIENCY-VIRUS-1 (HIV-1) INFECTION'] 
 </t>
         </is>
       </c>
@@ -23728,7 +23737,7 @@
       </c>
       <c r="B1296" t="inlineStr">
         <is>
-          <t xml:space="preserve">['OSTEOPOROSIS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['OSTEOPOROSIS (PREVENTATIVE)', 'FRACTURES (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -23818,7 +23827,7 @@
       </c>
       <c r="B1301" t="inlineStr">
         <is>
-          <t xml:space="preserve">['GASTROESOPHAGEAL REFLUX DISEASE (GERD) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['GASTROESOPHAGEAL REFLUX DISEASE (GERD)']
 </t>
         </is>
       </c>
@@ -23980,7 +23989,7 @@
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MALIGNANCY (WITH THE EXCEPTION OF CHRONIC MYELOID LEUKAEMIA AND MYELODYSPLASTIC SYNDROMES) (PREVENTATIVE)', 'SEVERE CONGENITAL, CYCLIC, OR IDIOPATHIC NEUTROPENIA', 'ADVANCED HIV INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MALIGNANCY (EXCEPT CHRONIC MYELOID LEUKEMIA AND MYELODYSPLASTIC SYNDROMES) (PREVENTATIVE)', 'MYELOABLATIVE THERAPY FOLLOWED BY BONE MARROW TRANSPLANTATION (PREVENTATIVE)', 'SEVERE CONGENITAL, CYCLIC, OR IDIOPATHIC NEUTROPENIA', 'ADVANCED HIV INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -24106,7 +24115,7 @@
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TYPE-2 DIABETES', 'NON-INSULIN-DEPENDENT DIABETES MELLITUS (NIDDM)'] 
+          <t xml:space="preserve">['TYPE 2 DIABETES (NIDDM) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -24196,7 +24205,7 @@
       </c>
       <c r="B1322" t="inlineStr">
         <is>
-          <t xml:space="preserve">['UREA CYCLE DISORDERS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ORNITHINE TRANSCARBAMYLASE DEFICIENCY (OTC DEFICIENCY)', 'CARBAMOYL PHOSPHATE SYNTHETASE I DEFICIENCY (CPS1 DEFICIENCY)', 'ARGININOSUCCINATE SYNTHETASE DEFICIENCY (ASS DEFICIENCY)', 'ARGININOSUCCINATE LYASE DEFICIENCY (ASL DEFICIENCY)', 'ARGINASE DEFICIENCY', 'CITRULLINEMIA TYPE I', 'HYPERORNITHINEMIA-HYPERAMMONEMIA-HOMOCITRULLINURIA SYNDROME (HHH SYNDROME)'] 
 </t>
         </is>
       </c>
@@ -24250,7 +24259,7 @@
       </c>
       <c r="B1325" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ASTHMA', 'COPD (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ASTHMA', 'COPD'] 
 </t>
         </is>
       </c>
@@ -24340,7 +24349,7 @@
       </c>
       <c r="B1330" t="inlineStr">
         <is>
-          <t xml:space="preserve">['METASTATIC CARCINOMA OF THE COLON OR RECTUM', 'METASTATIC BREAST CANCER', 'METASTATIC BREAST CANCER', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NON-SMALL CELL LUNG CANCER', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NON-SQUAMOUS NON-SMALL CELL LUNG CANCER', 'ADVANCED AND/OR METASTATIC RENAL CELL CANCER', 'ADVANCED (INTERNATIONAL FEDERATION OF GYNECOLOGY AND OBSTETRICS (FIGO) STAGES IIIB, IIIC AND IV) EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'FIRST RECURRENCE OF PLATINUM-SENSITIVE EPITHELIAL OVARIAN, FALLOPIAN TUBE OR PRIMARY PERITONEAL CANCER', 'PERSISTENT, RECURRENT, OR METASTATIC CARCINOMA OF THE CERVIX'] 
+          <t xml:space="preserve">['METASTATIC CARCINOMA OF THE COLON', 'METASTATIC CARCINOMA OF THE RECTUM', 'METASTATIC BREAST CANCER', 'UNRESECTABLE ADVANCED, METASTATIC OR RECURRENT NON-SMALL CELL LUNG CANCER', 'ADVANCED AND/OR METASTATIC RENAL CELL CANCER', 'ADVANCED (INTERNATIONAL FEDERATION OF GYNECOLOGY AND OBSTETRICS (FIGO) STAGES IIIB, IIIC AND IV) EPITHELIAL OVARIAN, FALLOPIAN TUBE, OR PRIMARY PERITONEAL CANCER', 'FIRST RECURRENCE OF PLATINUM-SENSITIVE EPITHELIAL OVARIAN, FALLOPIAN TUBE OR PRIMARY PERITONEAL CANCER', 'PERSISTENT, RECURRENT, OR METASTATIC CARCINOMA OF THE CERVIX'] 
 </t>
         </is>
       </c>
@@ -24358,7 +24367,7 @@
       </c>
       <c r="B1331" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MULTIPLE MYELOMA', 'MALIGNANT LYMPHOMA (HODGKIN, NON-HODGKIN LYMPHOMA)', 'ACUTE LYMPHOBLASTIC AND MYELOBLASTIC LEUKEMIA', 'CHILDHOOD NEUROBLASTOMA', 'OVARIAN CANCER', 'MAMMARY ADENOCARCINOMA', 'MALIGNANT HAEMATOLOGICAL DISEASES (PREVENTATIVE)', 'NON-MALIGNANT HAEMATOLOGICAL DISEASES (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MULTIPLE MYELOMA', 'MALIGNANT LYMPHOMA (HODGKIN, NON-HODGKIN LYMPHOMA)', 'ACUTE LYMPHOBLASTIC AND MYELOBLASTIC LEUKEMIA', 'CHILDHOOD NEUROBLASTOMA', 'OVARIAN CANCER', 'MAMMARY ADENOCARCINOMA', 'HAEMATOLOGICAL DISEASES (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -24376,7 +24385,7 @@
       </c>
       <c r="B1332" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ERECTILE DYSFUNCTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ERECTILE DYSFUNCTION (ED)'] 
 </t>
         </is>
       </c>
@@ -24394,7 +24403,7 @@
       </c>
       <c r="B1333" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARKINSON\'S DISEASE', 'RESTLESS LEGS SYNDROME'] 
+          <t xml:space="preserve">['PARKINSON'S DISEASE', 'RESTLESS LEGS SYNDROME'] 
 </t>
         </is>
       </c>
@@ -24412,7 +24421,7 @@
       </c>
       <c r="B1334" t="inlineStr">
         <is>
-          <t xml:space="preserve">['INFANTILE SPASMS (WEST'S SYNDROME)', 'RESISTANT PARTIAL EPILEPSY (FOCAL ONSET SEIZURES) WITH OR WITHOUT SECONDARY GENERALISATION'] 
+          <t xml:space="preserve">['INFANTILE SPASMS (WEST'S SYNDROME)', 'RESISTANT PARTIAL EPILEPSY (FOCAL ONSET SEIZURES) WITH OR WITHOUT SECONDARY GENERALISATION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -24448,7 +24457,8 @@
       </c>
       <c r="B1336" t="inlineStr">
         <is>
-          <t>['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD)']</t>
+          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD)'] 
+</t>
         </is>
       </c>
       <c r="C1336" t="inlineStr">
@@ -24573,7 +24583,7 @@
       </c>
       <c r="B1343" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARKINSON’S DISEASE (PD)'] 
+          <t xml:space="preserve">['PARKINSON’S DISEASE'] 
 </t>
         </is>
       </c>
@@ -24609,7 +24619,7 @@
       </c>
       <c r="B1345" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'JUVENILE IDIOPATHIC ARTHRITIS', 'ENTHESITIS-RELATED ARTHRITIS', 'ANKYLOSING SPONDYLITIS (AS)', 'AXIAL SPONDYLOARTHRITIS WITHOUT RADIOGRAPHIC EVIDENCE OF AS', 'PSORIATIC ARTHRITIS', 'PSORIASIS', 'PAEDIATRIC PLAQUE PSORIASIS (PREVENTATIVE)', 'HIDRADENITIS SUPPURATIVA', 'CROHN’S DISEASE', 'PAEDIATRIC CROHN'S DISEASE', 'ULCERATIVE COLITIS', 'UVEITIS', 'ADOLESCENT HIDRADENITIS SUPPURATIVA (PREVENTATIVE)', 'PAEDIATRIC UVEITIS'] 
+          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'JUVENILE IDIOPATHIC ARTHRITIS', 'ENTHESITIS-RELATED ARTHRITIS', 'ANKYLOSING SPONDYLITIS (AS)', 'AXIAL SPONDYLOARTHRITIS WITHOUT RADIOGRAPHIC EVIDENCE OF AS', 'PSORIATIC ARTHRITIS', 'PSORIASIS', 'PAEDIATRIC PLAQUE PSORIASIS', 'HIDRADENITIS SUPPURATIVA', 'CROHN’S DISEASE', 'PAEDIATRIC CROHN'S DISEASE', 'ULCERATIVE COLITIS', 'UVEITIS', 'ADOLESCENT HIDRADENITIS SUPPURATIVA', 'PAEDIATRIC UVEITIS'] 
 </t>
         </is>
       </c>
@@ -24681,7 +24691,7 @@
       </c>
       <c r="B1349" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MULTIPLE MYELOMA (PREVENTATIVE)', 'BREAST CANCER (PREVENTATIVE)', 'PROSTATE CANCER (PREVENTATIVE)', 'LUNG CANCER (PREVENTATIVE)', 'BONE METASTASIS (PREVENTATIVE)', 'HYPERCALCAEMIA'] 
+          <t xml:space="preserve">['MULTIPLE MYELOMA (PREVENTATIVE)', 'BREAST CANCER (PREVENTATIVE)', 'PROSTATE CANCER (PREVENTATIVE)', 'LUNG CANCER (PREVENTATIVE)', 'MYELOMATOSIS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -24699,7 +24709,7 @@
       </c>
       <c r="B1350" t="inlineStr">
         <is>
-          <t xml:space="preserve">['OPEN-ANGLE GLAUCOMA (PREVENTATIVE)', 'OCULAR HYPERTENSION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['OPEN-ANGLE GLAUCOMA', 'OCULAR HYPERTENSION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -24717,7 +24727,7 @@
       </c>
       <c r="B1351" t="inlineStr">
         <is>
-          <t xml:space="preserve">['INFLUENZA A', 'INFLUENZA B'] 
+          <t xml:space="preserve">['INFLUENZA A VIRUS INFECTION', 'INFLUENZA B VIRUS INFECTION'] 
 </t>
         </is>
       </c>
@@ -24807,7 +24817,7 @@
       </c>
       <c r="B1356" t="inlineStr">
         <is>
-          <t xml:space="preserve">['DIABETES MELLITUS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['DIABETES MELLITUS (TYPE 1)', 'DIABETES MELLITUS (TYPE 2)'] 
 </t>
         </is>
       </c>
@@ -24825,7 +24835,8 @@
       </c>
       <c r="B1357" t="inlineStr">
         <is>
-          <t>['DIABETES MELLITUS (PREVENTATIVE)']</t>
+          <t xml:space="preserve">['DIABETES MELLITUS'] 
+</t>
         </is>
       </c>
       <c r="C1357" t="inlineStr">
@@ -24842,7 +24853,7 @@
       </c>
       <c r="B1358" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SECONDARY HYPERPARATHYROIDISM (SHPT)'] 
+          <t xml:space="preserve">['SECONDARY HYPERPARATHYROIDISM (SHPT) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -24878,7 +24889,7 @@
       </c>
       <c r="B1360" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD)'] 
 </t>
         </is>
       </c>
@@ -24896,7 +24907,7 @@
       </c>
       <c r="B1361" t="inlineStr">
         <is>
-          <t xml:space="preserve">['DIABETES MELLITUS TYPE 1 (PREVENTATIVE)', 'DIABETES MELLITUS TYPE 2'] 
+          <t xml:space="preserve">['DIABETES MELLITUS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -24932,7 +24943,7 @@
       </c>
       <c r="B1363" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HYPERTENSION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ESSENTIAL HYPERTENSION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -24986,7 +24997,7 @@
       </c>
       <c r="B1366" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -25004,7 +25015,7 @@
       </c>
       <c r="B1367" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD)'] 
+          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -25022,7 +25033,7 @@
       </c>
       <c r="B1368" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD)'] 
+          <t xml:space="preserve">['CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -25148,7 +25159,7 @@
       </c>
       <c r="B1375" t="inlineStr">
         <is>
-          <t xml:space="preserve">['INVASIVE CANDIDIASIS', 'INVASIVE ASPERGILLOSIS (PREVENTATIVE)', 'CANDIDIASIS (PREVENTATIVE)', 'ASPERGILLUS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['INVASIVE CANDIDIASIS', 'INVASIVE ASPERGILLOSIS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -25166,7 +25177,7 @@
       </c>
       <c r="B1376" t="inlineStr">
         <is>
-          <t xml:space="preserve">['FOLLICULAR LYMPHOMA', 'DIFFUSE LARGE B CELL NON HODGKIN’S LYMPHOMA', 'GRANULOMATOSIS WITH POLYANGIITIS (WEGENER’S) (GPA)', 'MICROSCOPIC POLYANGIITIS (MPA)'] 
+          <t xml:space="preserve">['FOLLICULAR LYMPHOMA', 'DIFFUSE LARGE B CELL NON HODGKIN’S LYMPHOMA', 'GRANULOMATOSIS WITH POLYANGIITIS', 'MICROSCOPIC POLYANGIITIS'] 
 </t>
         </is>
       </c>
@@ -25184,7 +25195,7 @@
       </c>
       <c r="B1377" t="inlineStr">
         <is>
-          <t xml:space="preserve">['GASTROINTESTINAL STROMAL TUMOUR (GIST)', 'METASTATIC RENAL CELL CARCINOMA (MRCC)', 'PANCREATIC NEUROENDOCRINE TUMOURS (PNET)'] 
+          <t xml:space="preserve">['GASTROINTESTINAL STROMAL TUMOUR (GIST)', 'RENAL CELL CARCINOMA (MRCC)', 'PANCREATIC NEUROENDOCRINE TUMOURS (PNET)'] 
 </t>
         </is>
       </c>
@@ -25292,7 +25303,7 @@
       </c>
       <c r="B1383" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HEART FAILURE (SYMPTOMATIC)'] 
+          <t xml:space="preserve">['CHRONIC HEART FAILURE (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -25310,7 +25321,7 @@
       </c>
       <c r="B1384" t="inlineStr">
         <is>
-          <t xml:space="preserve">['NON SMALL CELL LUNG CANCER (NSCLC)'] 
+          <t xml:space="preserve">['NON SMALL CELL LUNG CANCER (NSCLC) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -25328,7 +25339,7 @@
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ACUTE MYELOID LEUKEMIA (AML)'] 
+          <t xml:space="preserve">['ACUTE MYELOID LEUKAEMIA (AML)'] 
 </t>
         </is>
       </c>
@@ -25418,7 +25429,7 @@
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PATHOLOGICAL FRACTURES (PREVENTATIVE)', 'SPINAL COMPRESSION (PREVENTATIVE)', 'RADIATION OR SURGERY TO BONE (PREVENTATIVE)', 'TUMOUR-INDUCED HYPERCALCAEMIA', 'TUMOUR-INDUCED HYPERCALCAEMIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PATHOLOGICAL FRACTURES (PREVENTATIVE)', 'SPINAL COMPRESSION (PREVENTATIVE)', 'TUMOUR-INDUCED HYPERCALCAEMIA', 'RADIATION OR SURGERY TO BONE (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -25454,7 +25465,7 @@
       </c>
       <c r="B1392" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ACUTE MYELOID LEUKAEMIA (AML)'] 
+          <t xml:space="preserve">['ACUTE MYELOID LEUKEMIA (AML)'] 
 </t>
         </is>
       </c>
@@ -25472,7 +25483,7 @@
       </c>
       <c r="B1393" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SEVERE HYPOGLYCEMIA (PREVENTATIVE)', 'DIABETES MELLITUS'] 
+          <t xml:space="preserve">['SEVERE HYPOGLYCAEMIA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -25508,7 +25519,7 @@
       </c>
       <c r="B1395" t="inlineStr">
         <is>
-          <t xml:space="preserve">['FOLLICULAR LYMPHOMA'] 
+          <t xml:space="preserve">['FOLLICULAR LYMPHOMA', 'RITUXIMAB RELAPSED OR REFRACTORY CD20+ FOLLICULAR B-CELL NON-HODGKIN'S LYMPHOMA (NHL)'] 
 </t>
         </is>
       </c>
@@ -25544,7 +25555,7 @@
       </c>
       <c r="B1397" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SEVERE THROMBOCYTOPENIA (PREVENTATIVE)', 'CHRONIC LIVER DISEASE', 'PRIMARY CHRONIC IMMUNE THROMBOCYTOPENIA (ITP)'] 
+          <t xml:space="preserve">['THROMBOCYTOPENIA (PREVENTATIVE)', 'CHRONIC LIVER DISEASE', 'PRIMARY CHRONIC IMMUNE THROMBOCYTOPENIA (ITP)'] 
 </t>
         </is>
       </c>
@@ -25598,7 +25609,7 @@
       </c>
       <c r="B1400" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC-HEPATITIS-C (CHC) GENOTYPE-1 INFECTION', 'CHRONIC-HEPATITIS-C (CHC) INFECTION', 'CHRONIC-HEPATITIS-C (CHC) INFECTION'] 
+          <t xml:space="preserve">['CHRONIC-HEPATITIS-C (CHC) GENOTYPE-1 INFECTION', 'CHRONIC-HEPATITIS-C (CHC) INFECTION', 'HEPATITIS-C-VIRUS RNA (HCV-RNA) POSITIVE', 'CLINICALLY STABLE HIV CO-INFECTION'] 
 </t>
         </is>
       </c>
@@ -25616,7 +25627,7 @@
       </c>
       <c r="B1401" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PRIMARY HYPERCHOLESTEROLAEMIA', 'FAMILIAL HYPERCHOLESTEROLAEMIA'] 
+          <t xml:space="preserve">['PRIMARY HYPERCHOLESTEROLAEMIA', 'FAMILIAL HYPERCHOLESTEROLAEMIA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -25652,7 +25663,7 @@
       </c>
       <c r="B1403" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HEMATOPOIETIC PROGENITOR CELL TRANSPLANTATION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HEMATOPOIETIC MALIGNANCIES (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -25670,7 +25681,7 @@
       </c>
       <c r="B1404" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BASAL CELL CARCINOMA (BCC)'] 
+          <t xml:space="preserve">['BASAL CELL CARCINOMA (BCC)']
 </t>
         </is>
       </c>
@@ -25724,7 +25735,7 @@
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t xml:space="preserve">['IRRITABLE BOWEL SYNDROME WITH DIARRHOEA (IBS D)'] 
+          <t xml:space="preserve">['IRRITABLE BOWEL SYNDROME WITH DIARRHOEA (IBS-D)'] 
 </t>
         </is>
       </c>
@@ -25760,7 +25771,7 @@
       </c>
       <c r="B1409" t="inlineStr">
         <is>
-          <t xml:space="preserve">['INFLUENZA A (H5N1) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['INFLUENZA A H5N1 (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -25814,7 +25825,7 @@
       </c>
       <c r="B1412" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BREAST CANCER (PREVENTATIVE)', 'LUNG CANCER (PREVENTATIVE)', 'OVARIAN CANCER (PREVENTATIVE)', 'MULTIPLE MYELOMA (PREVENTATIVE)', 'NON-HODGKIN LYMPHOMA (PREVENTATIVE)', 'HODGKIN LYMPHOMA (PREVENTATIVE)', 'ACUTE MYELOID LEUKEMIA (PREVENTATIVE)', 'SMALL CELL LUNG CANCER (PREVENTATIVE)', 'GASTRIC CANCER (PREVENTATIVE)', 'COLORECTAL CANCER (PREVENTATIVE)', 'HEAD AND NECK CANCER (PREVENTATIVE)', 'ACUTE LYMPHOBLASTIC LEUKEMIA (PREVENTATIVE)', 'CHRONIC LYMPHOCYTIC LEUKEMIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['BREAST CANCER (PREVENTATIVE)', 'LUNG CANCER (PREVENTATIVE)', 'OVARIAN CANCER (PREVENTATIVE)', 'NON-SMALL CELL LUNG CANCER (PREVENTATIVE)', 'HEAD AND NECK CANCER (PREVENTATIVE)', 'GASTROINTESTINAL CANCER (PREVENTATIVE)', 'MULTIPLE MYELOMA (PREVENTATIVE)', 'LYMPHOMA (PREVENTATIVE)', 'ACUTE MYELOID LEUKEMIA (PREVENTATIVE)', 'HODGKIN LYMPHOMA (PREVENTATIVE)', 'ACUTE LYMPHOBLASTIC LEUKEMIA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -25832,7 +25843,7 @@
       </c>
       <c r="B1413" t="inlineStr">
         <is>
-          <t xml:space="preserve">['UTERINE FIBROIDS'] 
+          <t xml:space="preserve">['UTERINE FIBROIDS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -25886,7 +25897,7 @@
       </c>
       <c r="B1416" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ISCHAEMIC STROKE (PREVENTATIVE)', 'PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)', 'UNSTABLE ANGINA (PREVENTATIVE)', 'NON-Q WAVE-MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ST-SEGMENT-ELEVATION ACUTE MYOCARDIAL INFARCTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ISCHAEMIC STROKE (PREVENTATIVE)', 'PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)', 'UNSTABLE ANGINA', 'NON-Q WAVE-MYOCARDIAL INFARCTION', 'ST-SEGMENT-ELEVATION ACUTE MYOCARDIAL INFARCTION'] 
 </t>
         </is>
       </c>
@@ -25904,7 +25915,7 @@
       </c>
       <c r="B1417" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC-HEPATITIS-C (CHC) GENOTYPE-1 INFECTION'] 
+          <t xml:space="preserve">['CHRONIC-HEPATITIS-C (CHC) GENOTYPE-1 INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -25958,7 +25969,7 @@
       </c>
       <c r="B1420" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC HEPATITIS B (PREVENTATIVE)'] 
+          <t xml:space="preserve">['CHRONIC HEPATITIS B'] 
 </t>
         </is>
       </c>
@@ -25976,7 +25987,7 @@
       </c>
       <c r="B1421" t="inlineStr">
         <is>
-          <t xml:space="preserve">['KAPOSI'S SARCOMA (KS)'] 
+          <t xml:space="preserve">['KAPOSI'S SARCOMA (KS) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -26030,7 +26041,7 @@
       </c>
       <c r="B1424" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARKINSON'S DISEASE'] 
+          <t xml:space="preserve">['PARKINSON'S DISEASE']
 </t>
         </is>
       </c>
@@ -26101,7 +26112,7 @@
       </c>
       <c r="B1428" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ANEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE', 'ANEMIA OF RENAL ORIGIN (PREVENTATIVE)', 'ANEMIA ASSOCIATED WITH CHEMOTHERAPY (PREVENTATIVE)', 'ANEMIA (PREVENTATIVE)', 'ANEMIA (PREVENTATIVE)', 'ANEMIA (PREVENTATIVE)', 'PRIMARY MYELODYSPLASTIC SYNDROMES'] 
+          <t xml:space="preserve">['ANEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE', 'ANEMIA OF RENAL ORIGIN', 'ANEMIA ASSOCIATED WITH CHEMOTHERAPY (PREVENTATIVE)', 'ANEMIA (PREVENTATIVE)', 'ANEMIA (PREVENTATIVE)', 'ANEMIA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -26119,7 +26130,7 @@
       </c>
       <c r="B1429" t="inlineStr">
         <is>
-          <t xml:space="preserve">['DIABETES MELLITUS TYPE 1 (PREVENTATIVE)', 'DIABETES MELLITUS TYPE 2', 'DIABETIC NEUROPATHY', 'DIABETIC NEPHROPATHY', 'DIABETIC RETINOPATHY', 'DIABETIC KETOACIDOSIS', 'HYPERGLYCEMIA', 'HYPOGLYCEMIA'] 
+          <t xml:space="preserve">['DIABETES MELLITUS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -26155,7 +26166,7 @@
       </c>
       <c r="B1431" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ADVANCED MALIGNANCIES INVOLVING BONE (PREVENTATIVE)', 'PATHOLOGICAL FRACTURES (PREVENTATIVE)', 'SPINAL COMPRESSION (PREVENTATIVE)', 'TUMOUR-INDUCED HYPERCALCAEMIA', 'RADIATION OR SURGERY TO BONE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PATHOLOGICAL FRACTURES (PREVENTATIVE)', 'SPINAL COMPRESSION (PREVENTATIVE)', 'TUMOUR-INDUCED HYPERCALCAEMIA', 'RADIATION OR SURGERY TO BONE (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -26191,7 +26202,7 @@
       </c>
       <c r="B1433" t="inlineStr">
         <is>
-          <t xml:space="preserve">['INFLUENZA A VIRUS (H5N1) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['INFLUENZA A (H5N1) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -26209,7 +26220,7 @@
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BREAST CANCER', 'MELANOMA', 'LOCALISED SQUAMOUS CELL CARCINOMA OF THE ORAL CAVITY'] 
+          <t xml:space="preserve">['BREAST CANCER', 'MELANOMA', 'SQUAMOUS CELL CARCINOMA OF THE ORAL CAVITY (LOCALIZED)'] 
 </t>
         </is>
       </c>
@@ -26245,7 +26256,7 @@
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t xml:space="preserve">['DIABETES MELLITUS TYPE 1 (PREVENTATIVE)', 'DIABETES MELLITUS TYPE 2', 'DIABETIC KETOACIDOSIS', 'HYPERGLYCEMIC HYPEROSMOLAR STATE', 'DIABETIC NEUROPATHY', 'DIABETIC NEPHROPATHY', 'DIABETIC RETINOPATHY'] 
+          <t xml:space="preserve">['DIABETES MELLITUS (TYPE 1)', 'DIABETES MELLITUS (TYPE 2)', 'DIABETIC KETOACIDOSIS', 'HYPERGLYCEMIA', 'DIABETIC NEPHROPATHY', 'DIABETIC RETINOPATHY', 'DIABETIC NEUROPATHY', 'DIABETIC FOOT', 'DIABETIC MACROVASCULAR DISEASE'] 
 </t>
         </is>
       </c>
@@ -26263,7 +26274,7 @@
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t xml:space="preserve">['DIABETES MELLITUS (TYPE 1)', 'DIABETES MELLITUS (TYPE 2)', 'DIABETIC KETOACIDOSIS', 'HYPERGLYCEMIA', 'DIABETIC NEUROPATHY (PREVENTATIVE)', 'DIABETIC NEPHROPATHY (PREVENTATIVE)', 'DIABETIC RETINOPATHY (PREVENTATIVE)', 'DIABETIC FOOT ULCERS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['DIABETES MELLITUS (TYPE 1)', 'DIABETES MELLITUS (TYPE 2)', 'DIABETIC KETOACIDOSIS', 'HYPERGLYCEMIA', 'DIABETIC NEUROPATHY', 'DIABETIC NEPHROPATHY', 'DIABETIC RETINOPATHY', 'DIABETIC FOOT', 'NON-ALCOHOLIC FATTY LIVER DISEASE (NAFLD) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -26299,7 +26310,7 @@
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t xml:space="preserve">['DIABETES MELLITUS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['DIABETES MELLITUS (TYPE 1)', 'DIABETES MELLITUS (TYPE 2)', 'DIABETIC KETOACIDOSIS', 'HYPERGLYCEMIA', 'DIABETIC NEPHROPATHY', 'DIABETIC NEUROPATHY', 'DIABETIC RETINOPATHY', 'DIABETIC FOOT', 'GESTATIONAL DIABETES'] 
 </t>
         </is>
       </c>
@@ -26317,7 +26328,7 @@
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS'] 
+          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -26353,7 +26364,7 @@
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t xml:space="preserve">['AGE-RELATED MACULAR DEGENERATION (AMD)', 'PATHOLOGICAL MYOPIA'] 
+          <t xml:space="preserve">['EXUDATIVE (WET) AGE-RELATED MACULAR DEGENERATION (AMD)', 'SUBFOVEAL CHOROIDAL NEOVASCULARISATION (CNV) SECONDARY TO PATHOLOGICAL MYOPIA'] 
 </t>
         </is>
       </c>
@@ -26371,7 +26382,7 @@
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HYPERURICEMIA (PREVENTATIVE)', 'GOUT'] 
+          <t xml:space="preserve">['HYPERURICAEMIA (PREVENTATIVE)', 'GOUT'] 
 </t>
         </is>
       </c>
@@ -26461,7 +26472,7 @@
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t xml:space="preserve">['FEMALE INFERTILITY (PREVENTATIVE)', 'ANOVULATION', 'POLYCYSTIC OVARIAN DISEASE (PCOD)', 'HYPOGONADOTROPHIC HYPOGONADISM', 'DEFICIENT SPERMATOGENESIS'] 
+          <t xml:space="preserve">['FEMALE INFERTILITY', 'ANOVULATION', 'POLYCYSTIC OVARIAN DISEASE (PCOD)', 'HYPOGONADOTROPHIC HYPOGONADISM', 'DEFICIENT SPERMATOGENESIS'] 
 </t>
         </is>
       </c>
@@ -26569,7 +26580,7 @@
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'JUVENILE IDIOPATHIC ARTHRITIS', 'POLYARTICULAR JUVENILE IDIOPATHIC ARTHRITIS', 'ENTHESITIS-RELATED ARTHRITIS', 'ANKYLOSING SPONDYLITIS (AS)', 'AXIAL SPONDYLOARTHRITIS WITHOUT RADIOGRAPHIC EVIDENCE OF AS', 'PSORIATIC ARTHRITIS', 'PSORIASIS', 'PAEDIATRIC PLAQUE PSORIASIS (PREVENTATIVE)', 'CROHN’S DISEASE', 'PAEDIATRIC CROHN'S DISEASE', 'ULCERATIVE COLITIS', 'UVEITIS', 'PAEDIATRIC UVEITIS'] 
+          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'JUVENILE IDIOPATHIC ARTHRITIS', 'POLYARTICULAR JUVENILE IDIOPATHIC ARTHRITIS', 'ENTHESITIS-RELATED ARTHRITIS', 'ANKYLOSING SPONDYLITIS (AS)', 'AXIAL SPONDYLOARTHRITIS WITHOUT RADIOGRAPHIC EVIDENCE OF AS', 'PSORIATIC ARTHRITIS', 'PSORIASIS', 'PAEDIATRIC PLAQUE PSORIASIS', 'CROHN’S DISEASE', 'PAEDIATRIC CROHN'S DISEASE', 'ULCERATIVE COLITIS', 'UVEITIS', 'PAEDIATRIC UVEITIS'] 
 </t>
         </is>
       </c>
@@ -26605,7 +26616,7 @@
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HYPERPHENYLALANINAEMIA (HPA) (PREVENTATIVE)', 'PHENYLKETONURIA (PKU) (PREVENTATIVE)', 'TETRAHYDROBIOPTERIN (BH4) DEFICIENCY (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PHENYLKETONURIA (PKU)', 'TETRAHYDROBIOPTERIN (BH4) DEFICIENCY'] 
 </t>
         </is>
       </c>
@@ -26641,7 +26652,7 @@
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t xml:space="preserve">['DELAYED NAUSEA AND VOMITING ASSOCIATED WITH HIGHLY AND MODERATELY EMETOGENIC CANCER CHEMOTHERAPY (PREVENTATIVE)'] 
+          <t xml:space="preserve">['DELAYED NAUSEA AND VOMITING (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -26713,7 +26724,7 @@
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HIGH-RISK HEMATOLOGICAL MALIGNANCIES'] 
+          <t xml:space="preserve">['HIGH-RISK HAEMATOLOGICAL MALIGNANCIES'] 
 </t>
         </is>
       </c>
@@ -26749,7 +26760,7 @@
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ASTHMA', 'CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD)'] 
+          <t xml:space="preserve">['ASTHMA (PREVENTATIVE)', 'CHRONIC OBSTRUCTIVE PULMONARY DISEASE (COPD)'] 
 </t>
         </is>
       </c>
@@ -26785,7 +26796,7 @@
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t xml:space="preserve">['VENOUS THROMBOEMBOLISM (PREVENTATIVE)', 'DEEP VEIN THROMBOSIS (DVT)', 'PULMONARY EMBOLISM', 'UNSTABLE ANGINA', 'NON Q WAVE MYOCARDIAL INFARCTION', 'ACUTE ST SEGMENT ELEVATION MYOCARDIAL INFARCTION (STEMI)', 'BLOOD CLOT PREVENTION IN THE EXTRACORPOREAL CIRCULATION DURING HAEMODIALYSIS'] 
+          <t xml:space="preserve">['VENOUS THROMBOEMBOLISM (PREVENTATIVE)', 'DEEP VEIN THROMBOSIS', 'PULMONARY EMBOLISM', 'UNSTABLE ANGINA', 'NON Q WAVE MYOCARDIAL INFARCTION', 'ACUTE ST SEGMENT ELEVATION MYOCARDIAL INFARCTION (STEMI)', 'BLOOD CLOT PREVENTION IN THE EXTRACORPOREAL CIRCULATION DURING HAEMODIALYSIS'] 
 </t>
         </is>
       </c>
@@ -27073,7 +27084,7 @@
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RELAPSED SMALL CELL LUNG CANCER [SCLC]', 'CARCINOMA OF THE CERVIX'] 
+          <t xml:space="preserve">['RELAPSED SMALL CELL LUNG CANCER', 'CARCINOMA OF THE CERVIX'] 
 </t>
         </is>
       </c>
@@ -27091,7 +27102,7 @@
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t xml:space="preserve">PLEASE PROVIDE ME WITH THE SUMMARY OF PRODUCT CHARACTERISTICS (SMPC) DOCUMENT, SPECIFICALLY SECTION 4.1, SO I CAN ACCURATELY EXTRACT THE LIST OF DISEASES TREATED BY THE THERAPEUTIC INDICATIONS. 
+          <t xml:space="preserve">PLEASE PROVIDE ME WITH THE SUMMARY OF PRODUCT CHARACTERISTICS (SMPC) SECTION 4.1 TEXT SO I CAN EXTRACT THE LIST OF DISEASES TREATED. 
 </t>
         </is>
       </c>
@@ -27109,7 +27120,7 @@
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t xml:space="preserve">PLEASE PROVIDE ME WITH THE SUMMARY OF PRODUCT CHARACTERISTICS (SMPC) YOU ARE REFERRING TO. I NEED THE CONTENT OF SECTION 4.1 TO EXTRACT THE LIST OF DISEASES TREATED. 
+          <t xml:space="preserve">PLEASE PROVIDE ME WITH THE SUMMARY OF PRODUCT CHARACTERISTICS (SMPC) DOCUMENT, SPECIFICALLY SECTION 4.1, SO I CAN EXTRACT THE LIST OF DISEASES TREATED. 
 </t>
         </is>
       </c>
@@ -27180,7 +27191,7 @@
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC STABLE ANGINA PECTORIS (PREVENTATIVE)', 'CHRONIC HEART FAILURE'] 
+          <t xml:space="preserve">['CHRONIC STABLE ANGINA PECTORIS', 'CORONARY ARTERY DISEASE', 'CHRONIC HEART FAILURE (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -27198,7 +27209,7 @@
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t xml:space="preserve">['OSTEOPOROSIS (PREVENTATIVE)', 'OSTEOPOROSIS (PREVENTATIVE)', 'OSTEOPOROSIS (PREVENTATIVE)', 'OSTEOPOROSIS (PREVENTATIVE)', 'OSTEOPOROSIS', 'OSTEOPOROSIS', 'OSTEOPOROSIS', 'PAGET’S DISEASE OF THE BONE'] 
+          <t xml:space="preserve">['OSTEOPOROSIS (PREVENTATIVE)', 'OSTEOPOROSIS (PREVENTATIVE)', 'OSTEOPOROSIS (PREVENTATIVE)', 'OSTEOPOROSIS (PREVENTATIVE)', 'OSTEOPOROSIS (PREVENTATIVE)', 'OSTEOPOROSIS (PREVENTATIVE)', 'PAGET’S DISEASE OF THE BONE'] 
 </t>
         </is>
       </c>
@@ -27216,7 +27227,7 @@
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t xml:space="preserve">['DRUG-RESISTANT PARTIAL-ONSET SEIZURES (WITH OR WITHOUT SECONDARY GENERALISATION)'] 
+          <t xml:space="preserve">['PARTIAL-ONSET SEIZURES (WITH OR WITHOUT SECONDARY GENERALIZATION) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -27269,7 +27280,7 @@
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC MYELOID LEUKAEMIA (CML)', 'PHILADELPHIA CHROMOSOME (BCR-ABL) POSITIVE (PH+) CHRONIC MYELOID LEUKAEMIA (CML)', 'PHILADELPHIA CHROMOSOME POSITIVE ACUTE LYMPHOBLASTIC LEUKAEMIA (PH+ ALL)', 'RELAPSED OR REFRACTORY PH+ ALL', 'MYELODYSPLASTIC/MYELOPROLIFERATIVE DISEASES (MDS/MPD)', 'PLATELET-DERIVED GROWTH FACTOR RECEPTOR (PDGFR) GENE RE-ARRANGEMENTS', 'HYPEREOSINOPHILIC SYNDROME (HES)', 'CHRONIC EOSINOPHILIC LEUKAEMIA (CEL)', 'FIP1L1-PDGFRΑ REARRANGEMENT', 'MALIGNANT GASTROINTESTINAL STROMAL TUMOURS (GIST)', 'KIT (CD 117) POSITIVE UNRESECTABLE AND/OR METASTATIC MALIGNANT GASTROINTESTINAL STROMAL TUMOURS (GIST)', 'KIT (CD 117)-POSITIVE GIST (PREVENTATIVE)', 'DERMATOFIBROSARCOMA PROTUBERANS (DFSP)', 'RECURRENT AND/OR METASTATIC DFSP']
+          <t xml:space="preserve">['CHRONIC MYELOID LEUKAEMIA (CML)', 'PHILADELPHIA CHROMOSOME (BCR-ABL) POSITIVE (PH+) CHRONIC MYELOID LEUKAEMIA (CML) (PREVENTATIVE)', 'PHILADELPHIA CHROMOSOME POSITIVE ACUTE LYMPHOBLASTIC LEUKAEMIA (PH+ ALL)', 'RELAPSED OR REFRACTORY PH+ ALL', 'MYELODYSPLASTIC/MYELOPROLIFERATIVE DISEASES (MDS/MPD)', 'HYPEREOSINOPHILIC SYNDROME (HES)', 'CHRONIC EOSINOPHILIC LEUKAEMIA (CEL)', 'MALIGNANT GASTROINTESTINAL STROMAL TUMOURS (GIST)', 'DERMATOFIBROSARCOMA PROTUBERANS (DFSP)'] 
 </t>
         </is>
       </c>
@@ -27287,7 +27298,7 @@
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ST-SEGMENT-ELEVATION MYOCARDIAL INFARCTION (STEMI) (PREVENTATIVE)', 'UNSTABLE ANGINA / NON-ST-SEGMENT-ELEVATION MYOCARDIAL INFARCTION (UA / NSTEMI) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ST-SEGMENT-ELEVATION MYOCARDIAL INFARCTION (STEMI) (PREVENTATIVE)', 'UNSTABLE ANGINA', 'NON-ST-SEGMENT-ELEVATION MYOCARDIAL INFARCTION (UA / NSTEMI) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -27359,7 +27370,7 @@
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MYOCARDIAL INFARCTION', 'ISCHAEMIC STROKE', 'PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)', 'ACUTE CORONARY SYNDROME (PREVENTATIVE)', 'UNSTABLE ANGINA (PREVENTATIVE)', 'NON-Q-WAVE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ATRIAL FIBRILLATION (PREVENTATIVE)', 'STROKE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ISCHAEMIC STROKE (PREVENTATIVE)', 'PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)', 'UNSTABLE ANGINA (PREVENTATIVE)', 'NON-Q-WAVE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ATRIAL FIBRILLATION (PREVENTATIVE)', 'STROKE (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -27395,7 +27406,7 @@
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t xml:space="preserve">['METASTATIC CARCINOMA OF THE OVARY', 'RELAPSED SMALL CELL LUNG CANCER [SCLC]', 'CARCINOMA OF THE CERVIX'] 
+          <t xml:space="preserve">['METASTATIC CARCINOMA OF THE OVARY', 'RELAPSED SMALL CELL LUNG CANCER', 'CARCINOMA OF THE CERVIX'] 
 </t>
         </is>
       </c>
@@ -27413,7 +27424,7 @@
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t xml:space="preserve">['OSTEOARTHRITIS (OA)', 'CARTILAGE DEFECTS', 'CHONDRAL DEFECTS'] 
+          <t xml:space="preserve">['OSTEOARTHRITIS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -27449,7 +27460,7 @@
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC HEPATITIS C (CHC)']
+          <t xml:space="preserve">['CHRONIC HEPATITIS C (CHC)'] 
 </t>
         </is>
       </c>
@@ -27467,7 +27478,7 @@
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t xml:space="preserve">['NOSOCOMIAL PNEUMONIA', 'VENTILATOR-ASSOCIATED PNEUMONIA'] 
+          <t xml:space="preserve">['NOSOCOMIAL PNEUMONIA', 'VENTILATOR-ASSOCIATED PNEUMONIA', 'METHICILLIN-RESISTANT STAPHYLOCOCCUS AUREUS (MRSA)'] 
 </t>
         </is>
       </c>
@@ -27593,7 +27604,7 @@
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CANCER (PREVENTATIVE)'] 
+          <t xml:space="preserve">['BREAST CANCER (PREVENTATIVE)', 'LUNG CANCER (PREVENTATIVE)', 'LYMPHOMA (PREVENTATIVE)', 'MULTIPLE MYELOMA (PREVENTATIVE)', 'OVARIAN CANCER (PREVENTATIVE)', 'STOMACH CANCER (PREVENTATIVE)', 'COLORECTAL CANCER (PREVENTATIVE)', 'NON-HODGKIN’S LYMPHOMA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -27665,7 +27676,7 @@
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ATHEROTHROMBOTIC EVENTS (PREVENTATIVE)', 'MYOCARDIAL INFARCTION', 'ISCHAEMIC STROKE', 'PERIPHERAL ARTERIAL DISEASE', 'NON-ST SEGMENT ELEVATION ACUTE CORONARY SYNDROME (UNSTABLE ANGINA OR NON-Q-WAVE MYOCARDIAL INFARCTION)', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION', 'ACUTE CORONARY SYNDROME'] 
+          <t xml:space="preserve">['MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ISCHAEMIC STROKE (PREVENTATIVE)', 'PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)', 'UNSTABLE ANGINA (PREVENTATIVE)', 'NON-Q-WAVE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -27755,7 +27766,7 @@
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MYOCARDIAL INFARCTION', 'ISCHAEMIC STROKE', 'PERIPHERAL ARTERIAL DISEASE', 'ACUTE CORONARY SYNDROME', 'UNSTABLE ANGINA', 'NON-Q-WAVE MYOCARDIAL INFARCTION', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION', 'ATHEROTHROMBOTIC EVENTS (PREVENTATIVE)', 'THROMBOEMBOLIC EVENTS (PREVENTATIVE)', 'STROKE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MYOCARDIAL INFARCTION', 'ISCHAEMIC STROKE', 'PERIPHERAL ARTERIAL DISEASE', 'ACUTE CORONARY SYNDROME', 'UNSTABLE ANGINA', 'NON-Q-WAVE MYOCARDIAL INFARCTION', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION', 'ATHEROTHROMBOTIC AND THROMBOEMBOLIC EVENTS (PREVENTATIVE)', 'ATRIAL FIBRILLATION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -27773,7 +27784,7 @@
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TYPE-2 DIABETES (NON-INSULIN-DEPENDENT DIABETES MELLITUS (NIDDM))', 'HYPERGLYCEMIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['TYPE-2 DIABETES (PREVENTATIVE)', 'HYPERGLYCEMIA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -27791,7 +27802,7 @@
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MYOCARDIAL INFARCTION (PREVENTATIVE)', 'SYMPTOMATIC PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MYOCARDIAL INFARCTION (MI) (PREVENTATIVE)', 'PERIPHERAL ARTERIAL DISEASE (PAD) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -27899,7 +27910,7 @@
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ATHEROTHROMBOTIC EVENTS (PREVENTATIVE)', 'NON-ST SEGMENT ELEVATION ACUTE CORONARY SYNDROME', 'UNSTABLE ANGINA', 'NON-Q-WAVE MYOCARDIAL INFARCTION', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION'] 
+          <t xml:space="preserve">['ATHEROTHROMBOTIC EVENTS (PREVENTATIVE)', 'UNSTABLE ANGINA', 'NON‑Q‑WAVE MYOCARDIAL INFARCTION', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION'] 
 </t>
         </is>
       </c>
@@ -27935,7 +27946,7 @@
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS (HIV-1) INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS (HIV‑1) INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -28025,7 +28036,7 @@
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MALIGNANCY (WITH THE EXCEPTION OF CHRONIC MYELOID LEUKAEMIA AND MYELODYSPLASTIC SYNDROMES)', 'FEBRILE NEUTROPENIA (PREVENTATIVE)', 'SEVERE CONGENITAL, CYCLIC, OR IDIOPATHIC NEUTROPENIA', 'INFECTION-RELATED EVENTS (PREVENTATIVE)', 'ADVANCED HIV INFECTION', 'BACTERIAL INFECTIONS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MALIGNANCY (EXCEPT CHRONIC MYELOID LEUKAEMIA AND MYELODYSPLASTIC SYNDROMES) (PREVENTATIVE)', 'SEVERE CONGENITAL, CYCLIC, OR IDIOPATHIC NEUTROPENIA (PREVENTATIVE)', 'ADVANCED HIV INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -28061,7 +28072,7 @@
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t xml:space="preserve">['COLON CANCER (ADJUVANT)', 'COLORECTAL CANCER (METASTATIC)', 'GASTRIC CANCER (ADVANCED)', 'BREAST CANCER (LOCALLY ADVANCED OR METASTATIC)', 'BREAST CANCER (LOCALLY ADVANCED OR METASTATIC)'] 
+          <t xml:space="preserve">['COLON CANCER', 'COLORECTAL CANCER', 'GASTRIC CANCER', 'BREAST CANCER'] 
 </t>
         </is>
       </c>
@@ -28079,7 +28090,7 @@
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t xml:space="preserve">['INFLUENZA A(H1N1)V 2009 (PREVENTATIVE)'] 
+          <t xml:space="preserve">['INFLUENZA CAUSED BY A(H1N1)V 2009 VIRUS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -28133,7 +28144,7 @@
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t xml:space="preserve">['OSTEOPOROSIS (PREVENTATIVE)', 'FRACTURE (PREVENTATIVE)', 'PAGET'S DISEASE OF BONE'] 
+          <t xml:space="preserve">['OSTEOPOROSIS (PREVENTATIVE)', 'OSTEOPOROSIS (PREVENTATIVE)', 'PAGET\'S DISEASE OF THE BONE'] 
 </t>
         </is>
       </c>
@@ -28169,7 +28180,7 @@
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC TOPHACEOUS GOUT (PREVENTATIVE)', 'EROSIVE JOINT INVOLVEMENT (PREVENTATIVE)'] 
+          <t xml:space="preserve">['GOUT (CHRONIC TOPHACEOUS)'] 
 </t>
         </is>
       </c>
@@ -28331,7 +28342,7 @@
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS'] 
+          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -28349,7 +28360,7 @@
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t xml:space="preserve">['INFLUENZA A VIRUS H5N1 (PREVENTATIVE)'] 
+          <t xml:space="preserve">['INFLUENZA A VIRUS SUBTYPE H5N1 (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -28421,7 +28432,7 @@
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t xml:space="preserve">['IRON-DEFICIENCY ANAEMIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['IRON-DEFICIENCY ANAEMIA (CKD)', 'CHRONIC KIDNEY DISEASE (CKD)'] 
 </t>
         </is>
       </c>
@@ -28457,7 +28468,7 @@
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BONE PAIN ASSOCIATED WITH MULTIPLE PAINFUL OSTEOBLASTIC SKELETAL METASTASES (PREVENTATIVE)'] 
+          <t xml:space="preserve">['BONE PAIN IN PATIENTS WITH MULTIPLE PAINFUL OSTEOBLASTIC SKELETAL METASTASES WHICH TAKE UP TECHNETIUM [99MTC]-LABELLED BIPHOSPHONATES ON BONE SCAN'] 
 </t>
         </is>
       </c>
@@ -28565,7 +28576,7 @@
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CYTOMEGALOVIRUS RETINITIS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['CYTOMEGALOVIRUS RETINITIS (CMV RETINITIS)'] 
 </t>
         </is>
       </c>
@@ -28637,7 +28648,7 @@
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t xml:space="preserve">['NOSOCOMIAL PNEUMONIA', 'VENTILATOR-ASSOCIATED PNEUMONIA', 'COMPLICATED INTRA-ABDOMINAL INFECTIONS', 'COMPLICATED URINARY TRACT INFECTIONS'] 
+          <t xml:space="preserve">['NOSOCOMIAL PNEUMONIA (INCLUDING VENTILATOR-ASSOCIATED PNEUMONIA)', 'COMPLICATED INTRA-ABDOMINAL INFECTIONS', 'COMPLICATED URINARY TRACT INFECTIONS'] 
 </t>
         </is>
       </c>
@@ -28709,7 +28720,7 @@
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ENDOMETRIOSIS (PREVENTATIVE)', 'OVARIAN CYSTS (PREVENTATIVE)', 'PELVIC INFLAMMATORY DISEASE (PREVENTATIVE)', 'ACNE (PREVENTATIVE)', 'UTERINE FIBROIDS (PREVENTATIVE)', 'HEAVY MENSTRUAL BLEEDING (PREVENTATIVE)', 'PREMENSTRUAL DYSPHORIC DISORDER (PMDD) (PREVENTATIVE)', 'ENDOMETRIAL CANCER (PREVENTATIVE)', 'OVARIAN CANCER (PREVENTATIVE)', 'ECTOPIC PREGNANCY (PREVENTATIVE)'] 
+          <t xml:space="preserve">['ENDOMETRIOSIS (PREVENTATIVE)', 'POLYCYSTIC OVARY SYNDROME (PCOS) (PREVENTATIVE)', 'MENORRHAGIA (PREVENTATIVE)', 'DYSMENORRHEA (PREVENTATIVE)', 'ACNE (PREVENTATIVE)', 'UTERINE FIBROIDS (PREVENTATIVE)', 'ECTOPIC PREGNANCY (PREVENTATIVE)', 'PELVIC INFLAMMATORY DISEASE (PID) (PREVENTATIVE)', 'OVARIAN CANCER (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -28781,7 +28792,7 @@
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HUMAN IMMUNODEFICIENCY VIRUS (HIV-1) INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HIV-1 INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -28799,7 +28810,7 @@
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ISCHAEMIC STROKE (PREVENTATIVE)', 'ESTABLISHED PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)', 'ACUTE CORONARY SYNDROME (PREVENTATIVE)', 'UNSTABLE ANGINA (PREVENTATIVE)', 'NON-Q-WAVE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ISCHAEMIC STROKE (PREVENTATIVE)', 'PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)', 'UNSTABLE ANGINA (PREVENTATIVE)', 'NON-Q-WAVE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -28835,7 +28846,7 @@
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RHEUMATOID ARTHRITIS'] 
+          <t xml:space="preserve">['RHEUMATOID ARTHRITIS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -28925,7 +28936,7 @@
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TYPE-2 DIABETES MELLITUS'] 
+          <t xml:space="preserve">['TYPE-2 DIABETES MELLITUS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -28961,7 +28972,7 @@
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t xml:space="preserve">['DYSLIPIDAEMIA', 'COMBINED MIXED DYSLIPIDAEMIA (PREVENTATIVE)', 'PRIMARY HYPERCHOLESTEROLAEMIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['DYSLIPIDAEMIA (PREVENTATIVE)', 'COMBINED MIXED DYSLIPIDAEMIA (PREVENTATIVE)', 'PRIMARY HYPERCHOLESTEROLAEMIA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -28979,7 +28990,7 @@
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t xml:space="preserve">['DYSLIPIDAEMIA', 'COMBINED MIXED DYSLIPIDAEMIA (PREVENTATIVE)', 'PRIMARY HYPERCHOLESTEROLAEMIA (PREVENTATIVE)', 'HETEROZYGOUS FAMILIAL HYPERCHOLESTEROLAEMIA (PREVENTATIVE)', 'NON-FAMILIAL HYPERCHOLESTEROLAEMIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['DYSLIPIDAEMIA (PREVENTATIVE)', 'COMBINED MIXED DYSLIPIDAEMIA (PREVENTATIVE)', 'PRIMARY HYPERCHOLESTEROLAEMIA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -28997,7 +29008,7 @@
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t xml:space="preserve">['DYSLIPIDAEMIA', 'MIXED DYSLIPIDAEMIA', 'PRIMARY HYPERCHOLESTEROLAEMIA (HETEROZYGOUS FAMILIAL AND NON-FAMILIAL)'] 
+          <t xml:space="preserve">['DYSLIPIDAEMIA (PREVENTATIVE)', 'MIXED DYSLIPIDAEMIA (PREVENTATIVE)', 'PRIMARY HYPERCHOLESTEROLAEMIA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -29033,7 +29044,7 @@
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC HEPATITIS C (HCV) INFECTION'] 
+          <t xml:space="preserve">['CHRONIC HEPATITIS C (GENOTYPE 1 EXCLUDED)'] 
 </t>
         </is>
       </c>
@@ -29069,8 +29080,7 @@
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ESSENTIAL HYPERTENSION (PREVENTATIVE)'] 
-</t>
+          <t>['HYPERTENSION (PREVENTATIVE)']</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr">
@@ -29087,8 +29097,7 @@
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t xml:space="preserve">['DIABETIC PERIPHERAL NEUROPATHY (PREVENTATIVE)'] 
-</t>
+          <t>['DIABETIC PERIPHERAL NEUROPATHY (PREVENTATIVE)']</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr">
@@ -29159,7 +29168,7 @@
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ALZHEIMER'S DEMENTIA', 'PARKINSON'S DISEASE'] 
+          <t xml:space="preserve">['ALZHEIMER'S DEMENTIA', 'DEMENTIA IN PATIENTS WITH IDIOPATHIC PARKINSON'S DISEASE'] 
 </t>
         </is>
       </c>
@@ -29231,7 +29240,8 @@
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>['PARTIAL-ONSET SEIZURES (PREVENTATIVE)']</t>
+          <t xml:space="preserve">['PARTIAL-ONSET SEIZURES (PREVENTATIVE)'] 
+</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr">
@@ -29302,7 +29312,7 @@
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t xml:space="preserve">['GROWTH FAILURE (INADEQUATE SECRETION OF NORMAL ENDOGENOUS GROWTH HORMONE)', 'SHORT STATURE (TURNER SYNDROME) (PREVENTATIVE)', 'GROWTH RETARDATION (CHRONIC RENAL INSUFFICIENCY) (PREVENTATIVE)', 'GROWTH HORMONE DEFICIENCY (CHILDHOOD- OR ADULT-ONSET AETIOLOGY)', 'GROWTH HORMONE DEFICIENCY (SEVERE, ADULTHOOD) (DIAGNOSTIC/CONTRAST/RADIOLABEL)', 'GROWTH HORMONE DEFICIENCY (CHILDHOOD-ONSET, ISOLATED) (DIAGNOSTIC/CONTRAST/RADIOLABEL)'] 
+          <t xml:space="preserve">['GROWTH FAILURE (INADEQUATE SECRETION OF NORMAL ENDOGENOUS GROWTH HORMONE)', 'SHORT STATURE (TURNER SYNDROME) (PREVENTATIVE)', 'GROWTH RETARDATION (CHRONIC RENAL INSUFFICIENCY)', 'GROWTH HORMONE DEFICIENCY (CHILDHOOD-ONSET)', 'GROWTH HORMONE DEFICIENCY (ADULT-ONSET)'] 
 </t>
         </is>
       </c>
@@ -29338,7 +29348,7 @@
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HEPARIN-INDUCED THROMBOCYTOPENIA TYPE II (HIT II)', 'THROMBOEMBOLIC DISEASE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HEPARIN-INDUCED THROMBOCYTOPENIA TYPE II (HIT) (PREVENTATIVE)', 'THROMBOEMBOLIC DISEASE (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -29446,7 +29456,7 @@
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t xml:space="preserve">['HYPOACTIVE SEXUAL DESIRE DISORDER (HSDD) (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HYPOACTIVE SEXUAL DESIRE DISORDER (HSDD)'] 
 </t>
         </is>
       </c>
@@ -29482,7 +29492,7 @@
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t xml:space="preserve">['BARRETT'S OESOPHAGUS (BO) (PREVENTATIVE)', 'HIGH-GRADE DYSPLASIA (HGD)'] 
+          <t xml:space="preserve">['HIGH-GRADE DYSPLASIA (HGD) (PREVENTATIVE)', 'BARRETT'S OESOPHAGUS (BO) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -29518,7 +29528,7 @@
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t xml:space="preserve">['INFLUENZA A VIRUS H5N1 SUBTYPE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['INFLUENZA A VIRUS (H5N1) (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -29536,7 +29546,7 @@
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SEVERE SEPSIS WITH MULTIPLE ORGAN FAILURE'] 
+          <t xml:space="preserve">['SEVERE SEPSIS', 'MULTIPLE ORGAN FAILURE'] 
 </t>
         </is>
       </c>
@@ -29572,7 +29582,7 @@
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ISCHAEMIC STROKE (PREVENTATIVE)', 'PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ISCHEMIC STROKE (PREVENTATIVE)', 'PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -29644,7 +29654,7 @@
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MALIGNANCY (EXCLUDING CHRONIC MYELOID LEUKAEMIA AND MYELODYSPLASTIC SYNDROMES) (PREVENTATIVE)', 'BONE MARROW TRANSPLANTATION (PREVENTATIVE)', 'SEVERE CONGENITAL, CYCLIC, OR IDIOPATHIC NEUTROPENIA', 'ADVANCED HIV INFECTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MALIGNANCY (EXCEPT CHRONIC MYELOID LEUKEMIA AND MYELODYSPLASTIC SYNDROMES) (PREVENTATIVE)', 'BONE MARROW TRANSPLANTATION (PREVENTATIVE)', 'SEVERE CONGENITAL, CYCLIC, OR IDIOPATHIC NEUTROPENIA', 'ADVANCED HIV INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -29734,7 +29744,7 @@
       </c>
       <c r="B1630" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PULMONARY ARTERIAL HYPERTENSION (PAH)', 'PRIMARY PULMONARY HYPERTENSION', 'PULMONARY HYPERTENSION ASSOCIATED WITH CONNECTIVE TISSUE DISEASE'] 
+          <t xml:space="preserve">['PULMONARY ARTERIAL HYPERTENSION (PAH) (WHO FUNCTIONAL CLASS III)'] 
 </t>
         </is>
       </c>
@@ -29752,7 +29762,7 @@
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ISCHEMIC STROKE (PREVENTATIVE)', 'PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)', 'UNSTABLE ANGINA (PREVENTATIVE)', 'NON Q WAVE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ISCHAEMIC STROKE (PREVENTATIVE)', 'PERIPHERAL ARTERIAL DISEASE (PREVENTATIVE)', 'UNSTABLE ANGINA (PREVENTATIVE)', 'NON Q WAVE MYOCARDIAL INFARCTION (PREVENTATIVE)', 'ST SEGMENT ELEVATION ACUTE MYOCARDIAL INFARCTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -29896,7 +29906,7 @@
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t xml:space="preserve">['COMMUNITY ACQUIRED PNEUMONIA', 'NOSOCOMIAL PNEUMONIA (MILD, MODERATE, AND SEVERE)', 'ACUTE EXACERBATIONS OF CHRONIC BRONCHITIS', 'ACUTE SINUSITIS', 'COMPLICATED INTRA-ABDOMINAL INFECTIONS', 'ACUTE PELVIC INFECTIONS', 'SALPINGITIS', 'UNCOMPLICATED GONOCOCCAL URETHRITIS', 'CERVICITIS', 'CHLAMYDIAL CERVICITIS', 'COMPLICATED SKIN AND SOFT TISSUE INFECTIONS'] 
+          <t xml:space="preserve">['PNEUMONIA: COMMUNITY ACQUIRED PNEUMONIA', 'PNEUMONIA: NOSOCOMIAL PNEUMONIA (MILD, MODERATE, AND SEVERE)', 'ACUTE EXACERBATIONS OF CHRONIC BRONCHITIS', 'ACUTE SINUSITIS', 'COMPLICATED INTRA-ABDOMINAL INFECTIONS', 'ACUTE PELVIC INFECTIONS', 'SALPINGITIS', 'UNCOMPLICATED GONOCOCCAL URETHRITIS', 'UNCOMPLICATED GONOCOCCAL CERVICITIS', 'CHLAMYDIAL CERVICITIS', 'COMPLICATED SKIN AND SOFT TISSUE INFECTIONS'] 
 </t>
         </is>
       </c>
@@ -29950,7 +29960,7 @@
       </c>
       <c r="B1642" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TUMOUR-INDUCED HYPERCALCAEMIA', 'METASTASES (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HYPERCALCEMIA'] 
 </t>
         </is>
       </c>
@@ -29968,7 +29978,7 @@
       </c>
       <c r="B1643" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PNEUMONIA (COMMUNITY ACQUIRED PNEUMONIA)', 'PNEUMONIA (NOSOCOMIAL PNEUMONIA)', 'ACUTE EXACERBATIONS OF CHRONIC BRONCHITIS', 'ACUTE SINUSITIS', 'COMPLICATED INTRA-ABDOMINAL INFECTIONS', 'ACUTE PELVIC INFECTIONS', 'SALPINGITIS', 'UNCOMPLICATED GONOCOCCAL URETHRITIS', 'CERVICITIS (GONOCOCCAL)', 'CHLAMYDIAL CERVICITIS', 'COMPLICATED SKIN AND SOFT TISSUE INFECTIONS'] 
+          <t xml:space="preserve">['COMMUNITY ACQUIRED PNEUMONIA', 'NOSOCOMIAL PNEUMONIA', 'ACUTE EXACERBATIONS OF CHRONIC BRONCHITIS', 'ACUTE SINUSITIS', 'COMPLICATED INTRA-ABDOMINAL INFECTIONS', 'ACUTE PELVIC INFECTIONS', 'SALPINGITIS', 'UNCOMPLICATED GONOCOCCAL URETHRITIS', 'CERVICITIS', 'CHLAMYDIAL CERVICITIS', 'COMPLICATED SKIN AND SOFT TISSUE INFECTIONS'] 
 </t>
         </is>
       </c>
@@ -30040,7 +30050,7 @@
       </c>
       <c r="B1647" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ATRIAL FIBRILLATION', 'ATRIAL FLUTTER', 'VENTRICULAR ARRHYTHMIAS (PREVENTATIVE)'] 
+          <t xml:space="preserve">['PERSISTENT ATRIAL FIBRILLATION', 'ATRIAL FLUTTER', 'VENTRICULAR ARRHYTHMIAS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -30112,7 +30122,7 @@
       </c>
       <c r="B1651" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ESSENTIAL HYPERTENSION (PREVENTATIVE)'] 
+          <t xml:space="preserve">['HYPERTENSION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -30166,7 +30176,7 @@
       </c>
       <c r="B1654" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC PLAQUE PSORIASIS'] 
+          <t xml:space="preserve">['PLAQUE PSORIASIS'] 
 </t>
         </is>
       </c>
@@ -30202,7 +30212,7 @@
       </c>
       <c r="B1656" t="inlineStr">
         <is>
-          <t xml:space="preserve">['SECONDARY HYPERPARATHYROIDISM (HPT) (PREVENTATIVE)', 'HYPERCALCAEMIA (PREVENTATIVE)'] 
+          <t xml:space="preserve">['SECONDARY HYPERPARATHYROIDISM (HPT) (PREVENTATIVE)', 'END-STAGE RENAL DISEASE (ESRD)', 'HYPERCALCAEMIA', 'PARATHYROID CARCINOMA', 'PRIMARY HPT (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -30310,7 +30320,7 @@
       </c>
       <c r="B1662" t="inlineStr">
         <is>
-          <t xml:space="preserve">['ANEMIA (CHRONIC RENAL FAILURE)', 'ANEMIA (CANCER)'] 
+          <t xml:space="preserve">['ANAEMIA ASSOCIATED WITH CHRONIC RENAL FAILURE (CRF)', 'ANAEMIA IN ADULT CANCER PATIENTS WITH NON-MYELOID MALIGNANCIES (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -30328,7 +30338,8 @@
       </c>
       <c r="B1663" t="inlineStr">
         <is>
-          <t>['CANCER (PREVENTATIVE)']</t>
+          <t xml:space="preserve">['MALIGNANCY (PREVENTATIVE)'] 
+</t>
         </is>
       </c>
       <c r="C1663" t="inlineStr">
@@ -30345,7 +30356,7 @@
       </c>
       <c r="B1664" t="inlineStr">
         <is>
-          <t xml:space="preserve">['OSTEOPOROSIS (PREVENTATIVE)', "PAGET'S DISEASE", 'HYPERCALCAEMIA OF MALIGNANCY'] 
+          <t xml:space="preserve">['OSTEOPOROSIS (PREVENTATIVE)', 'PAGET\'S DISEASE', 'HYPERCALCAEMIA OF MALIGNANCY'] 
 </t>
         </is>
       </c>
@@ -30435,7 +30446,7 @@
       </c>
       <c r="B1669" t="inlineStr">
         <is>
-          <t xml:space="preserve">['VENOUS THROMBOEMBOLIC EVENTS (VTE) (PREVENTATIVE)', 'UNSTABLE ANGINA (UA/NSTEMI)', 'ST SEGMENT ELEVATION MYOCARDIAL INFARCTION (STEMI)', 'DEEP VEIN THROMBOSIS (DVT)', 'PULMONARY EMBOLISM (PE)'] 
+          <t xml:space="preserve">['VENOUS THROMBOEMBOLIC EVENTS (VTE) (PREVENTATIVE)', 'DEEP VEIN THROMBOSIS (DVT)', 'PULMONARY EMBOLISM (PE)', 'UNSTABLE ANGINA', 'NON-ST SEGMENT ELEVATION MYOCARDIAL INFARCTION (UA/NSTEMI)', 'ST SEGMENT ELEVATION MYOCARDIAL INFARCTION (STEMI)'] 
 </t>
         </is>
       </c>
@@ -30453,7 +30464,7 @@
       </c>
       <c r="B1670" t="inlineStr">
         <is>
-          <t xml:space="preserve">['COMMUNITY-ACQUIRED PNEUMONIA', 'ACUTE EXACERBATION OF CHRONIC BRONCHITIS', 'ACUTE SINUSITIS', 'TONSILLITIS/PHARYNGITIS CAUSED BY STREPTOCOCCUS PYOGENES'] 
+          <t xml:space="preserve">['COMMUNITY-ACQUIRED PNEUMONIA', 'ACUTE EXACERBATION OF CHRONIC BRONCHITIS', 'ACUTE SINUSITIS', 'TONSILLITIS/PHARYNGITIS'] 
 </t>
         </is>
       </c>
@@ -30471,7 +30482,7 @@
       </c>
       <c r="B1671" t="inlineStr">
         <is>
-          <t xml:space="preserve">['DIABETES MELLITUS TYPE 1 (PREVENTATIVE)', 'DIABETES MELLITUS TYPE 2', 'DIABETIC KETOACIDOSIS', 'HYPERGLYCEMIA', 'DIABETIC NEPHROPATHY', 'DIABETIC NEUROPATHY', 'DIABETIC RETINOPATHY'] 
+          <t xml:space="preserve">['DIABETES MELLITUS (TYPE 1)', 'DIABETES MELLITUS (TYPE 2)', 'DIABETIC NEUROPATHY', 'DIABETIC RETINOPATHY', 'DIABETIC NEPHROPATHY', 'DIABETIC FOOT ULCERS', 'HYPERGLYCEMIA (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -30489,7 +30500,7 @@
       </c>
       <c r="B1672" t="inlineStr">
         <is>
-          <t xml:space="preserve">['DIABETES MELLITUS TYPE 1 (PREVENTATIVE)', 'DIABETES MELLITUS TYPE 2', 'DIABETIC KETOACIDOSIS', 'HYPERGLYCEMIA', 'DIABETIC NEUROPATHY', 'DIABETIC NEPHROPATHY', 'DIABETIC RETINOPATHY', 'DIABETIC FOOT'] 
+          <t xml:space="preserve">['DIABETES MELLITUS TYPE 1 (PREVENTATIVE)', 'DIABETES MELLITUS TYPE 2', 'DIABETIC KETOACIDOSIS', 'HYPERGLYCEMIC HYPEROSMOLAR STATE', 'DIABETIC NEUROPATHY', 'DIABETIC NEPHROPATHY', 'DIABETIC RETINOPATHY', 'DIABETIC FOOT'] 
 </t>
         </is>
       </c>
@@ -30507,7 +30518,7 @@
       </c>
       <c r="B1673" t="inlineStr">
         <is>
-          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'PSORIATIC ARTHRITIS', 'ANKYLOSING SPONDYLITIS', 'CROHN'S DISEASE'] 
+          <t xml:space="preserve">['RHEUMATOID ARTHRITIS', 'PSORIATIC ARTHRITIS', 'ANKYLOSING SPONDYLITIS', 'CROHN\'S DISEASE'] 
 </t>
         </is>
       </c>
@@ -30543,7 +30554,7 @@
       </c>
       <c r="B1675" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CHRONIC HEPATITIS C'] 
+          <t xml:space="preserve">['CHRONIC HEPATITIS C', 'HEPATITIS C VIRUS (HCV) INFECTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -30579,7 +30590,7 @@
       </c>
       <c r="B1677" t="inlineStr">
         <is>
-          <t xml:space="preserve">['PARKINSON'S DISEASE']
+          <t xml:space="preserve">['PARKINSON'S DISEASE'] 
 </t>
         </is>
       </c>
@@ -30615,7 +30626,7 @@
       </c>
       <c r="B1679" t="inlineStr">
         <is>
-          <t xml:space="preserve">['MYOCARDIAL INFARCTION'] 
+          <t xml:space="preserve">['MYOCARDIAL INFARCTION (AMI)'] 
 </t>
         </is>
       </c>
@@ -30741,7 +30752,7 @@
       </c>
       <c r="B1686" t="inlineStr">
         <is>
-          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS'] 
+          <t xml:space="preserve">['TYPE 2 DIABETES MELLITUS (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -30867,7 +30878,7 @@
       </c>
       <c r="B1693" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CARCINOMA OF THE COLON (RECURRENCE)', 'CARCINOMA OF THE COLON (METASTASES)', 'CARCINOMA OF THE RECTUM (RECURRENCE)', 'CARCINOMA OF THE RECTUM (METASTASES)'] 
+          <t xml:space="preserve">['CARCINOMA OF THE COLON (RECURRENCE)', 'CARCINOMA OF THE COLON (METASTASIS)', 'CARCINOMA OF THE RECTUM (RECURRENCE)', 'CARCINOMA OF THE RECTUM (METASTASIS)'] 
 </t>
         </is>
       </c>
@@ -30921,7 +30932,7 @@
       </c>
       <c r="B1696" t="inlineStr">
         <is>
-          <t xml:space="preserve">['CYTOMEGALOVIRUS RETINITIS (CMV)'] 
+          <t xml:space="preserve">['CYTOMEGALOVIRUS RETINITIS (CMV RETINITIS)'] 
 </t>
         </is>
       </c>
@@ -30939,7 +30950,7 @@
       </c>
       <c r="B1697" t="inlineStr">
         <is>
-          <t xml:space="preserve">['EXTERNAL GENITAL WARTS (CONDYLOMA ACUMINATA)', 'PERIANAL WARTS (CONDYLOMA ACUMINATA)'] 
+          <t xml:space="preserve">['EXTERNAL GENITAL WARTS', 'PERIANAL WARTS'] 
 </t>
         </is>
       </c>
@@ -30975,7 +30986,7 @@
       </c>
       <c r="B1699" t="inlineStr">
         <is>
-          <t xml:space="preserve">['OPIATE ADDICTION'] 
+          <t xml:space="preserve">['OPIATE ADDICTION (PREVENTATIVE)'] 
 </t>
         </is>
       </c>
@@ -31029,7 +31040,7 @@
       </c>
       <c r="B1702" t="inlineStr">
         <is>
-          <t xml:space="preserve">['DIAGNOSTIC/CONTRAST/RADIOLABEL'] 
+          <t xml:space="preserve">['CARDIOVASCULAR DISEASE (DIAGNOSTIC/CONTRAST/RADIOLABEL)'] 
 </t>
         </is>
       </c>
